--- a/name/vnindex/20221226/VNINDEX_HOSE_5p_20221226.xlsx
+++ b/name/vnindex/20221226/VNINDEX_HOSE_5p_20221226.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2557 +454,6057 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1672046100000</v>
+        <v>1672046040000</v>
       </c>
       <c r="B2">
-        <v>4150000</v>
+        <v>1685900</v>
       </c>
       <c r="C2">
-        <v>4146200</v>
+        <v>1521300</v>
       </c>
       <c r="D2">
-        <v>1183000</v>
+        <v>1117300</v>
       </c>
       <c r="E2">
-        <v>64026219000</v>
+        <v>23661182000</v>
       </c>
       <c r="F2">
-        <v>65640817000</v>
+        <v>25395174000</v>
       </c>
       <c r="G2">
-        <v>16564810000</v>
+        <v>15397376000</v>
       </c>
       <c r="H2">
-        <v>9479200</v>
+        <v>4324500</v>
       </c>
       <c r="I2">
-        <v>146231846000</v>
+        <v>64453732000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-26T09:15:00.000Z</v>
+        <v>2022-12-26T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>146231846000</v>
+        <v>64453732000</v>
       </c>
       <c r="L2">
-        <v>9479200</v>
+        <v>4324500</v>
       </c>
       <c r="M2">
-        <v>-3800</v>
+        <v>-164600</v>
       </c>
       <c r="N2">
-        <v>1614598000</v>
+        <v>1733992000</v>
       </c>
       <c r="O2">
-        <v>-3800</v>
+        <v>-164600</v>
       </c>
       <c r="P2">
-        <v>1614598000</v>
+        <v>1733992000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672046400000</v>
+        <v>1672046160000</v>
       </c>
       <c r="B3">
-        <v>2842500</v>
+        <v>1323000</v>
       </c>
       <c r="C3">
-        <v>2927700</v>
+        <v>1398700</v>
       </c>
       <c r="D3">
-        <v>55900</v>
+        <v>26000</v>
       </c>
       <c r="E3">
-        <v>40767335000</v>
+        <v>21655266000</v>
       </c>
       <c r="F3">
-        <v>47425714000</v>
+        <v>21112018000</v>
       </c>
       <c r="G3">
-        <v>1072417000</v>
+        <v>382844000</v>
       </c>
       <c r="H3">
-        <v>5826100</v>
+        <v>2747700</v>
       </c>
       <c r="I3">
-        <v>89265466000</v>
+        <v>43150128000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-26T09:20:00.000Z</v>
+        <v>2022-12-26T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>235497312000</v>
+        <v>107603860000</v>
       </c>
       <c r="L3">
-        <v>15305300</v>
+        <v>7072200</v>
       </c>
       <c r="M3">
-        <v>85200</v>
+        <v>75700</v>
       </c>
       <c r="N3">
-        <v>6658379000</v>
+        <v>-543248000</v>
       </c>
       <c r="O3">
-        <v>81400</v>
+        <v>-88900</v>
       </c>
       <c r="P3">
-        <v>8272977000</v>
+        <v>1190744000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672046700000</v>
+        <v>1672046280000</v>
       </c>
       <c r="B4">
-        <v>3681000</v>
+        <v>1141100</v>
       </c>
       <c r="C4">
-        <v>1819900</v>
+        <v>1226200</v>
       </c>
       <c r="D4">
-        <v>39900</v>
+        <v>39700</v>
       </c>
       <c r="E4">
-        <v>54947720000</v>
+        <v>18709771000</v>
       </c>
       <c r="F4">
-        <v>33375179000</v>
+        <v>19133625000</v>
       </c>
       <c r="G4">
-        <v>511016000</v>
+        <v>784590000</v>
       </c>
       <c r="H4">
-        <v>5540800</v>
+        <v>2407000</v>
       </c>
       <c r="I4">
-        <v>88833915000</v>
+        <v>38627986000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-26T09:25:00.000Z</v>
+        <v>2022-12-26T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>324331227000</v>
+        <v>146231846000</v>
       </c>
       <c r="L4">
-        <v>20846100</v>
+        <v>9479200</v>
       </c>
       <c r="M4">
-        <v>-1861100</v>
+        <v>85100</v>
       </c>
       <c r="N4">
-        <v>-21572541000</v>
+        <v>423854000</v>
       </c>
       <c r="O4">
-        <v>-1779700</v>
+        <v>-3800</v>
       </c>
       <c r="P4">
-        <v>-13299564000</v>
+        <v>1614598000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672047000000</v>
+        <v>1672046400000</v>
       </c>
       <c r="B5">
-        <v>6293700</v>
+        <v>1184200</v>
       </c>
       <c r="C5">
-        <v>2893200</v>
+        <v>1308000</v>
       </c>
       <c r="D5">
-        <v>16700</v>
+        <v>36400</v>
       </c>
       <c r="E5">
-        <v>100097310000</v>
+        <v>18581613000</v>
       </c>
       <c r="F5">
-        <v>40682904000</v>
+        <v>23506840000</v>
       </c>
       <c r="G5">
-        <v>260110000</v>
+        <v>805155000</v>
       </c>
       <c r="H5">
-        <v>9203600</v>
+        <v>2528600</v>
       </c>
       <c r="I5">
-        <v>141040324000</v>
+        <v>42893608000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-26T09:30:00.000Z</v>
+        <v>2022-12-26T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>465371551000</v>
+        <v>189125454000</v>
       </c>
       <c r="L5">
-        <v>30049700</v>
+        <v>12007800</v>
       </c>
       <c r="M5">
-        <v>-3400500</v>
+        <v>123800</v>
       </c>
       <c r="N5">
-        <v>-59414406000</v>
+        <v>4925227000</v>
       </c>
       <c r="O5">
-        <v>-5180200</v>
+        <v>120000</v>
       </c>
       <c r="P5">
-        <v>-72713970000</v>
+        <v>6539825000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672047300000</v>
+        <v>1672046520000</v>
       </c>
       <c r="B6">
-        <v>3649700</v>
+        <v>940200</v>
       </c>
       <c r="C6">
-        <v>2523100</v>
+        <v>1293300</v>
       </c>
       <c r="D6">
-        <v>32200</v>
+        <v>16300</v>
       </c>
       <c r="E6">
-        <v>55299181000</v>
+        <v>13969063000</v>
       </c>
       <c r="F6">
-        <v>36493345000</v>
+        <v>18821883000</v>
       </c>
       <c r="G6">
-        <v>628714000</v>
+        <v>228100000</v>
       </c>
       <c r="H6">
-        <v>6205000</v>
+        <v>2249800</v>
       </c>
       <c r="I6">
-        <v>92421240000</v>
+        <v>33019046000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-26T09:35:00.000Z</v>
+        <v>2022-12-26T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>557792791000</v>
+        <v>222144500000</v>
       </c>
       <c r="L6">
-        <v>36254700</v>
+        <v>14257600</v>
       </c>
       <c r="M6">
-        <v>-1126600</v>
+        <v>353100</v>
       </c>
       <c r="N6">
-        <v>-18805836000</v>
+        <v>4852820000</v>
       </c>
       <c r="O6">
-        <v>-6306800</v>
+        <v>473100</v>
       </c>
       <c r="P6">
-        <v>-91519806000</v>
+        <v>11392645000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672047600000</v>
+        <v>1672046640000</v>
       </c>
       <c r="B7">
-        <v>8513600</v>
+        <v>1173900</v>
       </c>
       <c r="C7">
-        <v>2607800</v>
+        <v>613000</v>
       </c>
       <c r="D7">
-        <v>53200</v>
+        <v>18600</v>
       </c>
       <c r="E7">
-        <v>140751060000</v>
+        <v>14545522000</v>
       </c>
       <c r="F7">
-        <v>37329340000</v>
+        <v>9878227000</v>
       </c>
       <c r="G7">
-        <v>940368000</v>
+        <v>232975000</v>
       </c>
       <c r="H7">
-        <v>11174600</v>
+        <v>1805500</v>
       </c>
       <c r="I7">
-        <v>179020768000</v>
+        <v>24656724000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-26T09:40:00.000Z</v>
+        <v>2022-12-26T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>736813559000</v>
+        <v>246801224000</v>
       </c>
       <c r="L7">
-        <v>47429300</v>
+        <v>16063100</v>
       </c>
       <c r="M7">
-        <v>-5905800</v>
+        <v>-560900</v>
       </c>
       <c r="N7">
-        <v>-103421720000</v>
+        <v>-4667295000</v>
       </c>
       <c r="O7">
-        <v>-12212600</v>
+        <v>-87800</v>
       </c>
       <c r="P7">
-        <v>-194941526000</v>
+        <v>6725350000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672047900000</v>
+        <v>1672046760000</v>
       </c>
       <c r="B8">
-        <v>5097300</v>
+        <v>1333200</v>
       </c>
       <c r="C8">
-        <v>3723800</v>
+        <v>682500</v>
       </c>
       <c r="D8">
-        <v>14600</v>
+        <v>8000</v>
       </c>
       <c r="E8">
-        <v>84425604000</v>
+        <v>19658416000</v>
       </c>
       <c r="F8">
-        <v>58300160000</v>
+        <v>11801660000</v>
       </c>
       <c r="G8">
-        <v>209215000</v>
+        <v>109998000</v>
       </c>
       <c r="H8">
-        <v>8835700</v>
+        <v>2023700</v>
       </c>
       <c r="I8">
-        <v>142934979000</v>
+        <v>31570074000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-26T09:45:00.000Z</v>
+        <v>2022-12-26T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>879748538000</v>
+        <v>278371298000</v>
       </c>
       <c r="L8">
-        <v>56265000</v>
+        <v>18086800</v>
       </c>
       <c r="M8">
-        <v>-1373500</v>
+        <v>-650700</v>
       </c>
       <c r="N8">
-        <v>-26125444000</v>
+        <v>-7856756000</v>
       </c>
       <c r="O8">
-        <v>-13586100</v>
+        <v>-738500</v>
       </c>
       <c r="P8">
-        <v>-221066970000</v>
+        <v>-1131406000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672048200000</v>
+        <v>1672046880000</v>
       </c>
       <c r="B9">
-        <v>2606900</v>
+        <v>1892000</v>
       </c>
       <c r="C9">
-        <v>4034500</v>
+        <v>850800</v>
       </c>
       <c r="D9">
-        <v>81500</v>
+        <v>16500</v>
       </c>
       <c r="E9">
-        <v>46240967000</v>
+        <v>28960441000</v>
       </c>
       <c r="F9">
-        <v>66743367000</v>
+        <v>16792283000</v>
       </c>
       <c r="G9">
-        <v>1139182000</v>
+        <v>207205000</v>
       </c>
       <c r="H9">
-        <v>6722900</v>
+        <v>2759300</v>
       </c>
       <c r="I9">
-        <v>114123516000</v>
+        <v>45959929000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-26T09:50:00.000Z</v>
+        <v>2022-12-26T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>993872054000</v>
+        <v>324331227000</v>
       </c>
       <c r="L9">
-        <v>62987900</v>
+        <v>20846100</v>
       </c>
       <c r="M9">
-        <v>1427600</v>
+        <v>-1041200</v>
       </c>
       <c r="N9">
-        <v>20502400000</v>
+        <v>-12168158000</v>
       </c>
       <c r="O9">
-        <v>-12158500</v>
+        <v>-1779700</v>
       </c>
       <c r="P9">
-        <v>-200564570000</v>
+        <v>-13299564000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672048500000</v>
+        <v>1672047000000</v>
       </c>
       <c r="B10">
-        <v>2372300</v>
+        <v>3222400</v>
       </c>
       <c r="C10">
-        <v>2663800</v>
+        <v>831900</v>
       </c>
       <c r="D10">
-        <v>36700</v>
+        <v>1400</v>
       </c>
       <c r="E10">
-        <v>45653704000</v>
+        <v>55881920000</v>
       </c>
       <c r="F10">
-        <v>41708724000</v>
+        <v>11087781000</v>
       </c>
       <c r="G10">
-        <v>550101000</v>
+        <v>36955000</v>
       </c>
       <c r="H10">
-        <v>5072800</v>
+        <v>4055700</v>
       </c>
       <c r="I10">
-        <v>87912529000</v>
+        <v>67006656000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-26T09:55:00.000Z</v>
+        <v>2022-12-26T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1081784583000</v>
+        <v>391337883000</v>
       </c>
       <c r="L10">
-        <v>68060700</v>
+        <v>24901800</v>
       </c>
       <c r="M10">
-        <v>291500</v>
+        <v>-2390500</v>
       </c>
       <c r="N10">
-        <v>-3944980000</v>
+        <v>-44794139000</v>
       </c>
       <c r="O10">
-        <v>-11867000</v>
+        <v>-4170200</v>
       </c>
       <c r="P10">
-        <v>-204509550000</v>
+        <v>-58093703000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672048800000</v>
+        <v>1672047120000</v>
       </c>
       <c r="B11">
-        <v>2860900</v>
+        <v>2068700</v>
       </c>
       <c r="C11">
-        <v>1782500</v>
+        <v>1530500</v>
       </c>
       <c r="D11">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="E11">
-        <v>46000347000</v>
+        <v>30322983000</v>
       </c>
       <c r="F11">
-        <v>30359906000</v>
+        <v>22001913000</v>
       </c>
       <c r="G11">
-        <v>332045000</v>
+        <v>221027000</v>
       </c>
       <c r="H11">
-        <v>4659400</v>
+        <v>3614300</v>
       </c>
       <c r="I11">
-        <v>76692298000</v>
+        <v>52545923000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-26T10:00:00.000Z</v>
+        <v>2022-12-26T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1158476881000</v>
+        <v>443883806000</v>
       </c>
       <c r="L11">
-        <v>72720100</v>
+        <v>28516100</v>
       </c>
       <c r="M11">
-        <v>-1078400</v>
+        <v>-538200</v>
       </c>
       <c r="N11">
-        <v>-15640441000</v>
+        <v>-8321070000</v>
       </c>
       <c r="O11">
-        <v>-12945400</v>
+        <v>-4708400</v>
       </c>
       <c r="P11">
-        <v>-220149991000</v>
+        <v>-66414773000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672049100000</v>
+        <v>1672047240000</v>
       </c>
       <c r="B12">
-        <v>1814300</v>
+        <v>1664500</v>
       </c>
       <c r="C12">
-        <v>2353000</v>
+        <v>1022400</v>
       </c>
       <c r="D12">
-        <v>13400</v>
+        <v>5700</v>
       </c>
       <c r="E12">
-        <v>31052511000</v>
+        <v>24420384000</v>
       </c>
       <c r="F12">
-        <v>45187157000</v>
+        <v>14353788000</v>
       </c>
       <c r="G12">
-        <v>64543000</v>
+        <v>89465000</v>
       </c>
       <c r="H12">
-        <v>4180700</v>
+        <v>2692600</v>
       </c>
       <c r="I12">
-        <v>76304211000</v>
+        <v>38863637000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-26T10:05:00.000Z</v>
+        <v>2022-12-26T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1234781092000</v>
+        <v>482747443000</v>
       </c>
       <c r="L12">
-        <v>76900800</v>
+        <v>31208700</v>
       </c>
       <c r="M12">
-        <v>538700</v>
+        <v>-642100</v>
       </c>
       <c r="N12">
-        <v>14134646000</v>
+        <v>-10066596000</v>
       </c>
       <c r="O12">
-        <v>-12406700</v>
+        <v>-5350500</v>
       </c>
       <c r="P12">
-        <v>-206015345000</v>
+        <v>-76481369000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672049400000</v>
+        <v>1672047360000</v>
       </c>
       <c r="B13">
-        <v>2805100</v>
+        <v>1350200</v>
       </c>
       <c r="C13">
-        <v>1919000</v>
+        <v>1027700</v>
       </c>
       <c r="D13">
-        <v>14100</v>
+        <v>9900</v>
       </c>
       <c r="E13">
-        <v>49494131000</v>
+        <v>19922286000</v>
       </c>
       <c r="F13">
-        <v>31352700000</v>
+        <v>14721709000</v>
       </c>
       <c r="G13">
-        <v>216945000</v>
+        <v>130590000</v>
       </c>
       <c r="H13">
-        <v>4738200</v>
+        <v>2387800</v>
       </c>
       <c r="I13">
-        <v>81063776000</v>
+        <v>34774585000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-26T10:10:00.000Z</v>
+        <v>2022-12-26T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1315844868000</v>
+        <v>517522028000</v>
       </c>
       <c r="L13">
-        <v>81639000</v>
+        <v>33596500</v>
       </c>
       <c r="M13">
-        <v>-886100</v>
+        <v>-322500</v>
       </c>
       <c r="N13">
-        <v>-18141431000</v>
+        <v>-5200577000</v>
       </c>
       <c r="O13">
-        <v>-13292800</v>
+        <v>-5673000</v>
       </c>
       <c r="P13">
-        <v>-224156776000</v>
+        <v>-81681946000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672049700000</v>
+        <v>1672047480000</v>
       </c>
       <c r="B14">
-        <v>4096100</v>
+        <v>1637600</v>
       </c>
       <c r="C14">
-        <v>1371500</v>
+        <v>1003800</v>
       </c>
       <c r="D14">
-        <v>32100</v>
+        <v>16800</v>
       </c>
       <c r="E14">
-        <v>71303025000</v>
+        <v>24848918000</v>
       </c>
       <c r="F14">
-        <v>20242365000</v>
+        <v>15011058000</v>
       </c>
       <c r="G14">
-        <v>486924000</v>
+        <v>410787000</v>
       </c>
       <c r="H14">
-        <v>5499700</v>
+        <v>2658200</v>
       </c>
       <c r="I14">
-        <v>92032314000</v>
+        <v>40270763000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-26T10:15:00.000Z</v>
+        <v>2022-12-26T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1407877182000</v>
+        <v>557792791000</v>
       </c>
       <c r="L14">
-        <v>87138700</v>
+        <v>36254700</v>
       </c>
       <c r="M14">
-        <v>-2724600</v>
+        <v>-633800</v>
       </c>
       <c r="N14">
-        <v>-51060660000</v>
+        <v>-9837860000</v>
       </c>
       <c r="O14">
-        <v>-16017400</v>
+        <v>-6306800</v>
       </c>
       <c r="P14">
-        <v>-275217436000</v>
+        <v>-91519806000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672050000000</v>
+        <v>1672047600000</v>
       </c>
       <c r="B15">
-        <v>5793800</v>
+        <v>3928400</v>
       </c>
       <c r="C15">
-        <v>1436700</v>
+        <v>976700</v>
       </c>
       <c r="D15">
-        <v>55600</v>
+        <v>16400</v>
       </c>
       <c r="E15">
-        <v>95377769000</v>
+        <v>72511092000</v>
       </c>
       <c r="F15">
-        <v>23480399000</v>
+        <v>13222447000</v>
       </c>
       <c r="G15">
-        <v>630533000</v>
+        <v>353250000</v>
       </c>
       <c r="H15">
-        <v>7286100</v>
+        <v>4921500</v>
       </c>
       <c r="I15">
-        <v>119488701000</v>
+        <v>86086789000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-26T10:20:00.000Z</v>
+        <v>2022-12-26T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1527365883000</v>
+        <v>643879580000</v>
       </c>
       <c r="L15">
-        <v>94424800</v>
+        <v>41176200</v>
       </c>
       <c r="M15">
-        <v>-4357100</v>
+        <v>-2951700</v>
       </c>
       <c r="N15">
-        <v>-71897370000</v>
+        <v>-59288645000</v>
       </c>
       <c r="O15">
-        <v>-20374500</v>
+        <v>-9258500</v>
       </c>
       <c r="P15">
-        <v>-347114806000</v>
+        <v>-150808451000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672050300000</v>
+        <v>1672047720000</v>
       </c>
       <c r="B16">
-        <v>6031100</v>
+        <v>3147100</v>
       </c>
       <c r="C16">
-        <v>2322800</v>
+        <v>805600</v>
       </c>
       <c r="D16">
-        <v>34200</v>
+        <v>21500</v>
       </c>
       <c r="E16">
-        <v>93890292000</v>
+        <v>46581651000</v>
       </c>
       <c r="F16">
-        <v>35137655000</v>
+        <v>11900887000</v>
       </c>
       <c r="G16">
-        <v>563371000</v>
+        <v>324381000</v>
       </c>
       <c r="H16">
-        <v>8388100</v>
+        <v>3974200</v>
       </c>
       <c r="I16">
-        <v>129591318000</v>
+        <v>58806919000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-26T10:25:00.000Z</v>
+        <v>2022-12-26T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1656957201000</v>
+        <v>702686499000</v>
       </c>
       <c r="L16">
-        <v>102812900</v>
+        <v>45150400</v>
       </c>
       <c r="M16">
-        <v>-3708300</v>
+        <v>-2341500</v>
       </c>
       <c r="N16">
-        <v>-58752637000</v>
+        <v>-34680764000</v>
       </c>
       <c r="O16">
-        <v>-24082800</v>
+        <v>-11600000</v>
       </c>
       <c r="P16">
-        <v>-405867443000</v>
+        <v>-185489215000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672050600000</v>
+        <v>1672047840000</v>
       </c>
       <c r="B17">
-        <v>2188400</v>
+        <v>2882500</v>
       </c>
       <c r="C17">
-        <v>2565700</v>
+        <v>1436100</v>
       </c>
       <c r="D17">
-        <v>29500</v>
+        <v>21200</v>
       </c>
       <c r="E17">
-        <v>34467426000</v>
+        <v>49650542000</v>
       </c>
       <c r="F17">
-        <v>42819460000</v>
+        <v>21968725000</v>
       </c>
       <c r="G17">
-        <v>404197000</v>
+        <v>350688000</v>
       </c>
       <c r="H17">
-        <v>4783600</v>
+        <v>4339800</v>
       </c>
       <c r="I17">
-        <v>77691083000</v>
+        <v>71969955000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-26T10:30:00.000Z</v>
+        <v>2022-12-26T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1734648284000</v>
+        <v>774656454000</v>
       </c>
       <c r="L17">
-        <v>107596500</v>
+        <v>49490200</v>
       </c>
       <c r="M17">
-        <v>377300</v>
+        <v>-1446400</v>
       </c>
       <c r="N17">
-        <v>8352034000</v>
+        <v>-27681817000</v>
       </c>
       <c r="O17">
-        <v>-23705500</v>
+        <v>-13046400</v>
       </c>
       <c r="P17">
-        <v>-397515409000</v>
+        <v>-213171032000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672050900000</v>
+        <v>1672047960000</v>
       </c>
       <c r="B18">
-        <v>5408600</v>
+        <v>2521000</v>
       </c>
       <c r="C18">
-        <v>1681300</v>
+        <v>1121400</v>
       </c>
       <c r="D18">
-        <v>25700</v>
+        <v>5000</v>
       </c>
       <c r="E18">
-        <v>82326701000</v>
+        <v>39956325000</v>
       </c>
       <c r="F18">
-        <v>27610504000</v>
+        <v>17334329000</v>
       </c>
       <c r="G18">
-        <v>456499000</v>
+        <v>51333000</v>
       </c>
       <c r="H18">
-        <v>7115600</v>
+        <v>3647400</v>
       </c>
       <c r="I18">
-        <v>110393704000</v>
+        <v>57341987000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-26T10:35:00.000Z</v>
+        <v>2022-12-26T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1845041988000</v>
+        <v>831998441000</v>
       </c>
       <c r="L18">
-        <v>114712100</v>
+        <v>53137600</v>
       </c>
       <c r="M18">
-        <v>-3727300</v>
+        <v>-1399600</v>
       </c>
       <c r="N18">
-        <v>-54716197000</v>
+        <v>-22621996000</v>
       </c>
       <c r="O18">
-        <v>-27432800</v>
+        <v>-14446000</v>
       </c>
       <c r="P18">
-        <v>-452231606000</v>
+        <v>-235793028000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672051200000</v>
+        <v>1672048080000</v>
       </c>
       <c r="B19">
-        <v>2806500</v>
+        <v>1131900</v>
       </c>
       <c r="C19">
-        <v>1803100</v>
+        <v>1991800</v>
       </c>
       <c r="D19">
-        <v>17100</v>
+        <v>3700</v>
       </c>
       <c r="E19">
-        <v>43574222000</v>
+        <v>16477054000</v>
       </c>
       <c r="F19">
-        <v>31933469000</v>
+        <v>31203112000</v>
       </c>
       <c r="G19">
-        <v>323422000</v>
+        <v>69931000</v>
       </c>
       <c r="H19">
-        <v>4626700</v>
+        <v>3127400</v>
       </c>
       <c r="I19">
-        <v>75831113000</v>
+        <v>47750097000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-26T10:40:00.000Z</v>
+        <v>2022-12-26T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1920873101000</v>
+        <v>879748538000</v>
       </c>
       <c r="L19">
-        <v>119338800</v>
+        <v>56265000</v>
       </c>
       <c r="M19">
-        <v>-1003400</v>
+        <v>859900</v>
       </c>
       <c r="N19">
-        <v>-11640753000</v>
+        <v>14726058000</v>
       </c>
       <c r="O19">
-        <v>-28436200</v>
+        <v>-13586100</v>
       </c>
       <c r="P19">
-        <v>-463872359000</v>
+        <v>-221066970000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672051500000</v>
+        <v>1672048200000</v>
       </c>
       <c r="B20">
-        <v>1924000</v>
+        <v>908900</v>
       </c>
       <c r="C20">
-        <v>2217700</v>
+        <v>2064200</v>
       </c>
       <c r="D20">
-        <v>15000</v>
+        <v>16400</v>
       </c>
       <c r="E20">
-        <v>29763325000</v>
+        <v>15415820000</v>
       </c>
       <c r="F20">
-        <v>38602243000</v>
+        <v>34414894000</v>
       </c>
       <c r="G20">
-        <v>288634000</v>
+        <v>386488000</v>
       </c>
       <c r="H20">
-        <v>4156700</v>
+        <v>2989500</v>
       </c>
       <c r="I20">
-        <v>68654202000</v>
+        <v>50217202000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-26T10:45:00.000Z</v>
+        <v>2022-12-26T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1989527303000</v>
+        <v>929965740000</v>
       </c>
       <c r="L20">
-        <v>123495500</v>
+        <v>59254500</v>
       </c>
       <c r="M20">
-        <v>293700</v>
+        <v>1155300</v>
       </c>
       <c r="N20">
-        <v>8838918000</v>
+        <v>18999074000</v>
       </c>
       <c r="O20">
-        <v>-28142500</v>
+        <v>-12430800</v>
       </c>
       <c r="P20">
-        <v>-455033441000</v>
+        <v>-202067896000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672051800000</v>
+        <v>1672048320000</v>
       </c>
       <c r="B21">
-        <v>2573600</v>
+        <v>1201800</v>
       </c>
       <c r="C21">
-        <v>1564200</v>
+        <v>1574700</v>
       </c>
       <c r="D21">
-        <v>26800</v>
+        <v>52500</v>
       </c>
       <c r="E21">
-        <v>44691126000</v>
+        <v>23473821000</v>
       </c>
       <c r="F21">
-        <v>25588380000</v>
+        <v>25453723000</v>
       </c>
       <c r="G21">
-        <v>328978000</v>
+        <v>544299000</v>
       </c>
       <c r="H21">
-        <v>4164600</v>
+        <v>2829000</v>
       </c>
       <c r="I21">
-        <v>70608484000</v>
+        <v>49471843000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-26T10:50:00.000Z</v>
+        <v>2022-12-26T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2060135787000</v>
+        <v>979437583000</v>
       </c>
       <c r="L21">
-        <v>127660100</v>
+        <v>62083500</v>
       </c>
       <c r="M21">
-        <v>-1009400</v>
+        <v>372900</v>
       </c>
       <c r="N21">
-        <v>-19102746000</v>
+        <v>1979902000</v>
       </c>
       <c r="O21">
-        <v>-29151900</v>
+        <v>-12057900</v>
       </c>
       <c r="P21">
-        <v>-474136187000</v>
+        <v>-200087994000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672052100000</v>
+        <v>1672048440000</v>
       </c>
       <c r="B22">
-        <v>1878600</v>
+        <v>1247700</v>
       </c>
       <c r="C22">
-        <v>1939200</v>
+        <v>1007000</v>
       </c>
       <c r="D22">
-        <v>23300</v>
+        <v>18000</v>
       </c>
       <c r="E22">
-        <v>27461449000</v>
+        <v>20742510000</v>
       </c>
       <c r="F22">
-        <v>34060931000</v>
+        <v>17497849000</v>
       </c>
       <c r="G22">
-        <v>328141000</v>
+        <v>327382000</v>
       </c>
       <c r="H22">
-        <v>3841100</v>
+        <v>2272700</v>
       </c>
       <c r="I22">
-        <v>61850521000</v>
+        <v>38567741000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-26T10:55:00.000Z</v>
+        <v>2022-12-26T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2121986308000</v>
+        <v>1018005324000</v>
       </c>
       <c r="L22">
-        <v>131501200</v>
+        <v>64356200</v>
       </c>
       <c r="M22">
-        <v>60600</v>
+        <v>-240700</v>
       </c>
       <c r="N22">
-        <v>6599482000</v>
+        <v>-3244661000</v>
       </c>
       <c r="O22">
-        <v>-29091300</v>
+        <v>-12298600</v>
       </c>
       <c r="P22">
-        <v>-467536705000</v>
+        <v>-203332655000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672052400000</v>
+        <v>1672048560000</v>
       </c>
       <c r="B23">
-        <v>1636800</v>
+        <v>639000</v>
       </c>
       <c r="C23">
-        <v>2169800</v>
+        <v>852200</v>
       </c>
       <c r="D23">
-        <v>5000</v>
+        <v>11400</v>
       </c>
       <c r="E23">
-        <v>25129904000</v>
+        <v>10991644000</v>
       </c>
       <c r="F23">
-        <v>32025156000</v>
+        <v>13256364000</v>
       </c>
       <c r="G23">
-        <v>78099000</v>
+        <v>162490000</v>
       </c>
       <c r="H23">
-        <v>3811600</v>
+        <v>1502600</v>
       </c>
       <c r="I23">
-        <v>57233159000</v>
+        <v>24410498000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-26T11:00:00.000Z</v>
+        <v>2022-12-26T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2179219467000</v>
+        <v>1042415822000</v>
       </c>
       <c r="L23">
-        <v>135312800</v>
+        <v>65858800</v>
       </c>
       <c r="M23">
-        <v>533000</v>
+        <v>213200</v>
       </c>
       <c r="N23">
-        <v>6895252000</v>
+        <v>2264720000</v>
       </c>
       <c r="O23">
-        <v>-28558300</v>
+        <v>-12085400</v>
       </c>
       <c r="P23">
-        <v>-460641453000</v>
+        <v>-201067935000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672052700000</v>
+        <v>1672048680000</v>
       </c>
       <c r="B24">
-        <v>3203700</v>
+        <v>981800</v>
       </c>
       <c r="C24">
-        <v>1137600</v>
+        <v>1200200</v>
       </c>
       <c r="D24">
-        <v>4700</v>
+        <v>19900</v>
       </c>
       <c r="E24">
-        <v>55843012000</v>
+        <v>21270876000</v>
       </c>
       <c r="F24">
-        <v>18279655000</v>
+        <v>17829261000</v>
       </c>
       <c r="G24">
-        <v>92372000</v>
+        <v>268624000</v>
       </c>
       <c r="H24">
-        <v>4346000</v>
+        <v>2201900</v>
       </c>
       <c r="I24">
-        <v>74215039000</v>
+        <v>39368761000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-26T11:05:00.000Z</v>
+        <v>2022-12-26T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2253434506000</v>
+        <v>1081784583000</v>
       </c>
       <c r="L24">
-        <v>139658800</v>
+        <v>68060700</v>
       </c>
       <c r="M24">
-        <v>-2066100</v>
+        <v>218400</v>
       </c>
       <c r="N24">
-        <v>-37563357000</v>
+        <v>-3441615000</v>
       </c>
       <c r="O24">
-        <v>-30624400</v>
+        <v>-11867000</v>
       </c>
       <c r="P24">
-        <v>-498204810000</v>
+        <v>-204509550000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672053000000</v>
+        <v>1672048800000</v>
       </c>
       <c r="B25">
-        <v>3152100</v>
+        <v>1434500</v>
       </c>
       <c r="C25">
-        <v>1273200</v>
+        <v>822900</v>
       </c>
       <c r="D25">
-        <v>146900</v>
+        <v>200</v>
       </c>
       <c r="E25">
-        <v>58505979000</v>
+        <v>24676957000</v>
       </c>
       <c r="F25">
-        <v>21680378000</v>
+        <v>13385361000</v>
       </c>
       <c r="G25">
-        <v>2157510000</v>
+        <v>15980000.000000002</v>
       </c>
       <c r="H25">
-        <v>4572200</v>
+        <v>2257600</v>
       </c>
       <c r="I25">
-        <v>82343867000</v>
+        <v>38078298000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-26T11:10:00.000Z</v>
+        <v>2022-12-26T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2335778373000</v>
+        <v>1119862881000</v>
       </c>
       <c r="L25">
-        <v>144231000</v>
+        <v>70318300</v>
       </c>
       <c r="M25">
-        <v>-1878900</v>
+        <v>-611600</v>
       </c>
       <c r="N25">
-        <v>-36825601000</v>
+        <v>-11291596000</v>
       </c>
       <c r="O25">
-        <v>-32503300</v>
+        <v>-12478600</v>
       </c>
       <c r="P25">
-        <v>-535030411000</v>
+        <v>-215801146000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672053300000</v>
+        <v>1672048920000</v>
       </c>
       <c r="B26">
-        <v>2572500</v>
+        <v>964600</v>
       </c>
       <c r="C26">
-        <v>1229800</v>
+        <v>649700</v>
       </c>
       <c r="D26">
-        <v>7600</v>
+        <v>10500</v>
       </c>
       <c r="E26">
-        <v>42744592000</v>
+        <v>14781264000</v>
       </c>
       <c r="F26">
-        <v>23143713000</v>
+        <v>10827810000</v>
       </c>
       <c r="G26">
-        <v>165440000</v>
+        <v>189515000</v>
       </c>
       <c r="H26">
-        <v>3809900</v>
+        <v>1624800</v>
       </c>
       <c r="I26">
-        <v>66053745000</v>
+        <v>25798589000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-26T11:15:00.000Z</v>
+        <v>2022-12-26T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2401832118000</v>
+        <v>1145661470000</v>
       </c>
       <c r="L26">
-        <v>148040900</v>
+        <v>71943100</v>
       </c>
       <c r="M26">
-        <v>-1342700</v>
+        <v>-314900</v>
       </c>
       <c r="N26">
-        <v>-19600879000</v>
+        <v>-3953454000</v>
       </c>
       <c r="O26">
-        <v>-33846000</v>
+        <v>-12793500</v>
       </c>
       <c r="P26">
-        <v>-554631290000</v>
+        <v>-219754600000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672053600000</v>
+        <v>1672049040000</v>
       </c>
       <c r="B27">
-        <v>5524500</v>
+        <v>1020900</v>
       </c>
       <c r="C27">
-        <v>1011200</v>
+        <v>690800</v>
       </c>
       <c r="D27">
-        <v>23400</v>
+        <v>7000</v>
       </c>
       <c r="E27">
-        <v>86655278000</v>
+        <v>15026621000</v>
       </c>
       <c r="F27">
-        <v>17738805000</v>
+        <v>12775633000</v>
       </c>
       <c r="G27">
-        <v>294406000</v>
+        <v>134016000</v>
       </c>
       <c r="H27">
-        <v>6559100</v>
+        <v>1718700</v>
       </c>
       <c r="I27">
-        <v>104688489000</v>
+        <v>27936270000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-26T11:20:00.000Z</v>
+        <v>2022-12-26T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2506520607000</v>
+        <v>1173597740000</v>
       </c>
       <c r="L27">
-        <v>154600000</v>
+        <v>73661800</v>
       </c>
       <c r="M27">
-        <v>-4513300</v>
+        <v>-330100</v>
       </c>
       <c r="N27">
-        <v>-68916473000</v>
+        <v>-2250988000</v>
       </c>
       <c r="O27">
-        <v>-38359300</v>
+        <v>-13123600</v>
       </c>
       <c r="P27">
-        <v>-623547763000</v>
+        <v>-222005588000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672053900000</v>
+        <v>1672049160000</v>
       </c>
       <c r="B28">
-        <v>19248100</v>
+        <v>626800</v>
       </c>
       <c r="C28">
-        <v>2492900</v>
+        <v>858000</v>
       </c>
       <c r="D28">
-        <v>170400</v>
+        <v>10800</v>
       </c>
       <c r="E28">
-        <v>283868379000</v>
+        <v>12184170000</v>
       </c>
       <c r="F28">
-        <v>41444136000</v>
+        <v>16630499000</v>
       </c>
       <c r="G28">
-        <v>2898009000</v>
+        <v>45667000</v>
       </c>
       <c r="H28">
-        <v>21911400</v>
+        <v>1495600</v>
       </c>
       <c r="I28">
-        <v>328210524000</v>
+        <v>28860336000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-26T11:25:00.000Z</v>
+        <v>2022-12-26T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2834731131000</v>
+        <v>1202458076000</v>
       </c>
       <c r="L28">
-        <v>176511400</v>
+        <v>75157400</v>
       </c>
       <c r="M28">
-        <v>-16755200</v>
+        <v>231200</v>
       </c>
       <c r="N28">
-        <v>-242424243000</v>
+        <v>4446329000</v>
       </c>
       <c r="O28">
-        <v>-55114500</v>
+        <v>-12892400</v>
       </c>
       <c r="P28">
-        <v>-865972006000</v>
+        <v>-217559259000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672054200000</v>
+        <v>1672049280000</v>
       </c>
       <c r="B29">
-        <v>35300</v>
+        <v>628400</v>
       </c>
       <c r="C29">
-        <v>19500</v>
+        <v>1114100</v>
       </c>
       <c r="D29">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E29">
-        <v>523480000</v>
+        <v>10383846000</v>
       </c>
       <c r="F29">
-        <v>245893000</v>
+        <v>21927760000</v>
       </c>
       <c r="G29">
-        <v>1940000</v>
+        <v>11410000</v>
       </c>
       <c r="H29">
-        <v>55300</v>
+        <v>1743400</v>
       </c>
       <c r="I29">
-        <v>771313000</v>
+        <v>32323016000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-26T11:30:00.000Z</v>
+        <v>2022-12-26T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2835502444000</v>
+        <v>1234781092000</v>
       </c>
       <c r="L29">
-        <v>176566700</v>
+        <v>76900800</v>
       </c>
       <c r="M29">
-        <v>-15800</v>
+        <v>485700</v>
       </c>
       <c r="N29">
-        <v>-277587000</v>
+        <v>11543914000</v>
       </c>
       <c r="O29">
-        <v>-55130300</v>
+        <v>-12406700</v>
       </c>
       <c r="P29">
-        <v>-866249593000</v>
+        <v>-206015345000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672059600000</v>
+        <v>1672049400000</v>
       </c>
       <c r="B30">
-        <v>16829900</v>
+        <v>895000</v>
       </c>
       <c r="C30">
-        <v>11083700</v>
+        <v>1021300</v>
       </c>
       <c r="D30">
-        <v>793900</v>
+        <v>3900</v>
       </c>
       <c r="E30">
-        <v>200653032000</v>
+        <v>16165821000</v>
       </c>
       <c r="F30">
-        <v>156977749000</v>
+        <v>17060260000</v>
       </c>
       <c r="G30">
-        <v>9755403000</v>
+        <v>55686000</v>
       </c>
       <c r="H30">
-        <v>28707500</v>
+        <v>1920200</v>
       </c>
       <c r="I30">
-        <v>367386184000</v>
+        <v>33281767000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-26T13:00:00.000Z</v>
+        <v>2022-12-26T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3202888628000</v>
+        <v>1268062859000</v>
       </c>
       <c r="L30">
-        <v>205274200</v>
+        <v>78821000</v>
       </c>
       <c r="M30">
-        <v>-5746200</v>
+        <v>126300</v>
       </c>
       <c r="N30">
-        <v>-43675283000</v>
+        <v>894439000</v>
       </c>
       <c r="O30">
-        <v>-60876500</v>
+        <v>-12280400</v>
       </c>
       <c r="P30">
-        <v>-909924876000</v>
+        <v>-205120906000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672059900000</v>
+        <v>1672049520000</v>
       </c>
       <c r="B31">
-        <v>8667700</v>
+        <v>1334800</v>
       </c>
       <c r="C31">
-        <v>5079700</v>
+        <v>664800</v>
       </c>
       <c r="D31">
-        <v>107200</v>
+        <v>10200</v>
       </c>
       <c r="E31">
-        <v>122146690000</v>
+        <v>24635509000</v>
       </c>
       <c r="F31">
-        <v>77475231000</v>
+        <v>10713161000</v>
       </c>
       <c r="G31">
-        <v>1269577000</v>
+        <v>161259000</v>
       </c>
       <c r="H31">
-        <v>13854600</v>
+        <v>2009800</v>
       </c>
       <c r="I31">
-        <v>200891498000</v>
+        <v>35509929000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-26T13:05:00.000Z</v>
+        <v>2022-12-26T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3403780126000</v>
+        <v>1303572788000</v>
       </c>
       <c r="L31">
-        <v>219128800</v>
+        <v>80830800</v>
       </c>
       <c r="M31">
-        <v>-3588000</v>
+        <v>-670000</v>
       </c>
       <c r="N31">
-        <v>-44671459000</v>
+        <v>-13922348000</v>
       </c>
       <c r="O31">
-        <v>-64464500</v>
+        <v>-12950400</v>
       </c>
       <c r="P31">
-        <v>-954596335000</v>
+        <v>-219043254000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672060200000</v>
+        <v>1672049640000</v>
       </c>
       <c r="B32">
-        <v>6208200</v>
+        <v>868100</v>
       </c>
       <c r="C32">
-        <v>5339600</v>
+        <v>455300</v>
       </c>
       <c r="D32">
-        <v>33100</v>
+        <v>5000</v>
       </c>
       <c r="E32">
-        <v>87813283000</v>
+        <v>13748336000</v>
       </c>
       <c r="F32">
-        <v>71102456000</v>
+        <v>7345019000</v>
       </c>
       <c r="G32">
-        <v>408580000</v>
+        <v>68250000</v>
       </c>
       <c r="H32">
-        <v>11580900</v>
+        <v>1328400</v>
       </c>
       <c r="I32">
-        <v>159324319000</v>
+        <v>21161605000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-26T13:10:00.000Z</v>
+        <v>2022-12-26T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3563104445000</v>
+        <v>1324734393000</v>
       </c>
       <c r="L32">
-        <v>230709700</v>
+        <v>82159200</v>
       </c>
       <c r="M32">
-        <v>-868600</v>
+        <v>-412800</v>
       </c>
       <c r="N32">
-        <v>-16710827000</v>
+        <v>-6403317000</v>
       </c>
       <c r="O32">
-        <v>-65333100</v>
+        <v>-13363200</v>
       </c>
       <c r="P32">
-        <v>-971307162000</v>
+        <v>-225446571000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672060500000</v>
+        <v>1672049760000</v>
       </c>
       <c r="B33">
-        <v>6409200</v>
+        <v>1665200</v>
       </c>
       <c r="C33">
-        <v>4648800</v>
+        <v>779700</v>
       </c>
       <c r="D33">
-        <v>32600</v>
+        <v>7300</v>
       </c>
       <c r="E33">
-        <v>88957770000</v>
+        <v>33235846000</v>
       </c>
       <c r="F33">
-        <v>76768400000</v>
+        <v>11584925000</v>
       </c>
       <c r="G33">
-        <v>285772000</v>
+        <v>240375000</v>
       </c>
       <c r="H33">
-        <v>11090600</v>
+        <v>2452200</v>
       </c>
       <c r="I33">
-        <v>166011942000</v>
+        <v>45061146000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-26T13:15:00.000Z</v>
+        <v>2022-12-26T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3729116387000</v>
+        <v>1369795539000</v>
       </c>
       <c r="L33">
-        <v>241800300</v>
+        <v>84611400</v>
       </c>
       <c r="M33">
-        <v>-1760400</v>
+        <v>-885500</v>
       </c>
       <c r="N33">
-        <v>-12189370000</v>
+        <v>-21650921000</v>
       </c>
       <c r="O33">
-        <v>-67093500</v>
+        <v>-14248700</v>
       </c>
       <c r="P33">
-        <v>-983496532000</v>
+        <v>-247097492000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672060800000</v>
+        <v>1672049880000</v>
       </c>
       <c r="B34">
-        <v>6232000</v>
+        <v>2138100</v>
       </c>
       <c r="C34">
-        <v>4118500</v>
+        <v>369400</v>
       </c>
       <c r="D34">
-        <v>9700</v>
+        <v>19800</v>
       </c>
       <c r="E34">
-        <v>93493012000</v>
+        <v>33011644000</v>
       </c>
       <c r="F34">
-        <v>56626920000</v>
+        <v>4891700000</v>
       </c>
       <c r="G34">
-        <v>182841000</v>
+        <v>178299000</v>
       </c>
       <c r="H34">
-        <v>10360200</v>
+        <v>2527300</v>
       </c>
       <c r="I34">
-        <v>150302773000</v>
+        <v>38081643000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-26T13:20:00.000Z</v>
+        <v>2022-12-26T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3879419160000</v>
+        <v>1407877182000</v>
       </c>
       <c r="L34">
-        <v>252160500</v>
+        <v>87138700</v>
       </c>
       <c r="M34">
-        <v>-2113500</v>
+        <v>-1768700</v>
       </c>
       <c r="N34">
-        <v>-36866092000</v>
+        <v>-28119944000</v>
       </c>
       <c r="O34">
-        <v>-69207000</v>
+        <v>-16017400</v>
       </c>
       <c r="P34">
-        <v>-1020362624000</v>
+        <v>-275217436000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672061100000</v>
+        <v>1672050000000</v>
       </c>
       <c r="B35">
-        <v>11837100</v>
+        <v>1520200</v>
       </c>
       <c r="C35">
-        <v>4655100</v>
+        <v>422300</v>
       </c>
       <c r="D35">
-        <v>49200</v>
+        <v>5400</v>
       </c>
       <c r="E35">
-        <v>152766745000</v>
+        <v>23373623000</v>
       </c>
       <c r="F35">
-        <v>60059299000</v>
+        <v>7151757000</v>
       </c>
       <c r="G35">
-        <v>784949000</v>
+        <v>135155000</v>
       </c>
       <c r="H35">
-        <v>16541400</v>
+        <v>1947900</v>
       </c>
       <c r="I35">
-        <v>213610993000</v>
+        <v>30660535000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-26T13:25:00.000Z</v>
+        <v>2022-12-26T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4093030153000</v>
+        <v>1438537717000</v>
       </c>
       <c r="L35">
-        <v>268701900</v>
+        <v>89086600</v>
       </c>
       <c r="M35">
-        <v>-7182000</v>
+        <v>-1097900</v>
       </c>
       <c r="N35">
-        <v>-92707446000</v>
+        <v>-16221866000</v>
       </c>
       <c r="O35">
-        <v>-76389000</v>
+        <v>-17115300</v>
       </c>
       <c r="P35">
-        <v>-1113070070000</v>
+        <v>-291439302000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672061400000</v>
+        <v>1672050120000</v>
       </c>
       <c r="B36">
-        <v>17860500</v>
+        <v>2711100</v>
       </c>
       <c r="C36">
-        <v>4128900</v>
+        <v>745200</v>
       </c>
       <c r="D36">
-        <v>176300</v>
+        <v>33500</v>
       </c>
       <c r="E36">
-        <v>256741593000</v>
+        <v>46287586000</v>
       </c>
       <c r="F36">
-        <v>63184375000</v>
+        <v>12150726000</v>
       </c>
       <c r="G36">
-        <v>1268228000</v>
+        <v>147334000</v>
       </c>
       <c r="H36">
-        <v>22165700</v>
+        <v>3489800</v>
       </c>
       <c r="I36">
-        <v>321194196000</v>
+        <v>58585646000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-26T13:30:00.000Z</v>
+        <v>2022-12-26T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4414224349000</v>
+        <v>1497123363000</v>
       </c>
       <c r="L36">
-        <v>290867600</v>
+        <v>92576400</v>
       </c>
       <c r="M36">
-        <v>-13731600</v>
+        <v>-1965900</v>
       </c>
       <c r="N36">
-        <v>-193557218000</v>
+        <v>-34136860000</v>
       </c>
       <c r="O36">
-        <v>-90120600</v>
+        <v>-19081200</v>
       </c>
       <c r="P36">
-        <v>-1306627288000</v>
+        <v>-325576162000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672061700000</v>
+        <v>1672050240000</v>
       </c>
       <c r="B37">
-        <v>6171100</v>
+        <v>3099700</v>
       </c>
       <c r="C37">
-        <v>8229000</v>
+        <v>569100</v>
       </c>
       <c r="D37">
-        <v>71300</v>
+        <v>26000</v>
       </c>
       <c r="E37">
-        <v>93453296000</v>
+        <v>54705664000</v>
       </c>
       <c r="F37">
-        <v>126579429000</v>
+        <v>8285067000</v>
       </c>
       <c r="G37">
-        <v>1041411000</v>
+        <v>538455000</v>
       </c>
       <c r="H37">
-        <v>14471400</v>
+        <v>3694800</v>
       </c>
       <c r="I37">
-        <v>221074136000</v>
+        <v>63529186000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-26T13:35:00.000Z</v>
+        <v>2022-12-26T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4635298485000</v>
+        <v>1560652549000</v>
       </c>
       <c r="L37">
-        <v>305339000</v>
+        <v>96271200</v>
       </c>
       <c r="M37">
-        <v>2057900</v>
+        <v>-2530600</v>
       </c>
       <c r="N37">
-        <v>33126133000</v>
+        <v>-46420597000</v>
       </c>
       <c r="O37">
-        <v>-88062700</v>
+        <v>-21611800</v>
       </c>
       <c r="P37">
-        <v>-1273501155000</v>
+        <v>-371996759000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672062000000</v>
+        <v>1672050360000</v>
       </c>
       <c r="B38">
-        <v>2984300</v>
+        <v>2309100</v>
       </c>
       <c r="C38">
-        <v>7106400</v>
+        <v>1017100</v>
       </c>
       <c r="D38">
-        <v>38300</v>
+        <v>20300</v>
       </c>
       <c r="E38">
-        <v>43440963000</v>
+        <v>33273400000</v>
       </c>
       <c r="F38">
-        <v>96022620000</v>
+        <v>15727286000</v>
       </c>
       <c r="G38">
-        <v>783786000</v>
+        <v>279450000</v>
       </c>
       <c r="H38">
-        <v>10129000</v>
+        <v>3346500</v>
       </c>
       <c r="I38">
-        <v>140247369000</v>
+        <v>49280136000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-26T13:40:00.000Z</v>
+        <v>2022-12-26T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4775545854000</v>
+        <v>1609932685000</v>
       </c>
       <c r="L38">
-        <v>315468000</v>
+        <v>99617700</v>
       </c>
       <c r="M38">
-        <v>4122100</v>
+        <v>-1292000</v>
       </c>
       <c r="N38">
-        <v>52581657000</v>
+        <v>-17546114000</v>
       </c>
       <c r="O38">
-        <v>-83940600</v>
+        <v>-22903800</v>
       </c>
       <c r="P38">
-        <v>-1220919498000</v>
+        <v>-389542873000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672062300000</v>
+        <v>1672050480000</v>
       </c>
       <c r="B39">
-        <v>9187400</v>
+        <v>2184800</v>
       </c>
       <c r="C39">
-        <v>2601800</v>
+        <v>1005800</v>
       </c>
       <c r="D39">
-        <v>28100</v>
+        <v>4600</v>
       </c>
       <c r="E39">
-        <v>157269107000</v>
+        <v>31627788000</v>
       </c>
       <c r="F39">
-        <v>39909871000</v>
+        <v>15303218000</v>
       </c>
       <c r="G39">
-        <v>465122000</v>
+        <v>93510000</v>
       </c>
       <c r="H39">
-        <v>11817300</v>
+        <v>3195200</v>
       </c>
       <c r="I39">
-        <v>197644100000</v>
+        <v>47024516000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-26T13:45:00.000Z</v>
+        <v>2022-12-26T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4973189954000</v>
+        <v>1656957201000</v>
       </c>
       <c r="L39">
-        <v>327285300</v>
+        <v>102812900</v>
       </c>
       <c r="M39">
-        <v>-6585600</v>
+        <v>-1179000</v>
       </c>
       <c r="N39">
-        <v>-117359236000</v>
+        <v>-16324570000</v>
       </c>
       <c r="O39">
-        <v>-90526200</v>
+        <v>-24082800</v>
       </c>
       <c r="P39">
-        <v>-1338278734000</v>
+        <v>-405867443000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672062600000</v>
+        <v>1672050600000</v>
       </c>
       <c r="B40">
-        <v>7705300</v>
+        <v>1235700</v>
       </c>
       <c r="C40">
-        <v>3798200</v>
+        <v>1231600</v>
       </c>
       <c r="D40">
-        <v>33300</v>
+        <v>12700</v>
       </c>
       <c r="E40">
-        <v>129536316000</v>
+        <v>18087095000</v>
       </c>
       <c r="F40">
-        <v>63254476000</v>
+        <v>20570979000</v>
       </c>
       <c r="G40">
-        <v>1645150000</v>
+        <v>169826000</v>
       </c>
       <c r="H40">
-        <v>11536800</v>
+        <v>2480000</v>
       </c>
       <c r="I40">
-        <v>194435942000</v>
+        <v>38827900000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-26T13:50:00.000Z</v>
+        <v>2022-12-26T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5167625896000</v>
+        <v>1695785101000</v>
       </c>
       <c r="L40">
-        <v>338822100</v>
+        <v>105292900</v>
       </c>
       <c r="M40">
-        <v>-3907100</v>
+        <v>-4100</v>
       </c>
       <c r="N40">
-        <v>-66281840000</v>
+        <v>2483884000</v>
       </c>
       <c r="O40">
-        <v>-94433300</v>
+        <v>-24086900</v>
       </c>
       <c r="P40">
-        <v>-1404560574000</v>
+        <v>-403383559000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672062900000</v>
+        <v>1672050720000</v>
       </c>
       <c r="B41">
-        <v>2724600</v>
+        <v>701700</v>
       </c>
       <c r="C41">
-        <v>5726100</v>
+        <v>808200</v>
       </c>
       <c r="D41">
-        <v>20700</v>
+        <v>4100</v>
       </c>
       <c r="E41">
-        <v>48192790000</v>
+        <v>12350945000</v>
       </c>
       <c r="F41">
-        <v>97878660000</v>
+        <v>13098708000</v>
       </c>
       <c r="G41">
-        <v>284308000</v>
+        <v>136351000</v>
       </c>
       <c r="H41">
-        <v>8471400</v>
+        <v>1514000</v>
       </c>
       <c r="I41">
-        <v>146355758000</v>
+        <v>25586004000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-26T13:55:00.000Z</v>
+        <v>2022-12-26T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5313981654000</v>
+        <v>1721371105000</v>
       </c>
       <c r="L41">
-        <v>347293500</v>
+        <v>106806900</v>
       </c>
       <c r="M41">
-        <v>3001500</v>
+        <v>106500</v>
       </c>
       <c r="N41">
-        <v>49685870000</v>
+        <v>747763000</v>
       </c>
       <c r="O41">
-        <v>-91431800</v>
+        <v>-23980400</v>
       </c>
       <c r="P41">
-        <v>-1354874704000</v>
+        <v>-402635796000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672063200000</v>
+        <v>1672050840000</v>
       </c>
       <c r="B42">
-        <v>3345700</v>
+        <v>508600</v>
       </c>
       <c r="C42">
-        <v>3771600</v>
+        <v>849000</v>
       </c>
       <c r="D42">
-        <v>11800</v>
+        <v>12700</v>
       </c>
       <c r="E42">
-        <v>51825451000</v>
+        <v>7952573000</v>
       </c>
       <c r="F42">
-        <v>60836460000</v>
+        <v>14661157000</v>
       </c>
       <c r="G42">
-        <v>190881000</v>
+        <v>98020000</v>
       </c>
       <c r="H42">
-        <v>7129100</v>
+        <v>1370300</v>
       </c>
       <c r="I42">
-        <v>112852792000</v>
+        <v>22711750000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-26T14:00:00.000Z</v>
+        <v>2022-12-26T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5426834446000</v>
+        <v>1744082855000</v>
       </c>
       <c r="L42">
-        <v>354422600</v>
+        <v>108177200</v>
       </c>
       <c r="M42">
-        <v>425900</v>
+        <v>340400</v>
       </c>
       <c r="N42">
-        <v>9011009000</v>
+        <v>6708584000</v>
       </c>
       <c r="O42">
-        <v>-91005900</v>
+        <v>-23640000</v>
       </c>
       <c r="P42">
-        <v>-1345863695000</v>
+        <v>-395927212000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672063500000</v>
+        <v>1672050960000</v>
       </c>
       <c r="B43">
-        <v>13946400</v>
+        <v>3174400</v>
       </c>
       <c r="C43">
-        <v>2693100</v>
+        <v>753500</v>
       </c>
       <c r="D43">
-        <v>60000</v>
+        <v>19000</v>
       </c>
       <c r="E43">
-        <v>232081329000</v>
+        <v>50182393000</v>
       </c>
       <c r="F43">
-        <v>44960694000</v>
+        <v>11537967000</v>
       </c>
       <c r="G43">
-        <v>1101838000</v>
+        <v>369085000</v>
       </c>
       <c r="H43">
-        <v>16699500</v>
+        <v>3946900</v>
       </c>
       <c r="I43">
-        <v>278143861000</v>
+        <v>62089445000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-26T14:05:00.000Z</v>
+        <v>2022-12-26T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5704978307000</v>
+        <v>1806172300000</v>
       </c>
       <c r="L43">
-        <v>371122100</v>
+        <v>112124100</v>
       </c>
       <c r="M43">
-        <v>-11253300</v>
+        <v>-2420900</v>
       </c>
       <c r="N43">
-        <v>-187120635000</v>
+        <v>-38644426000</v>
       </c>
       <c r="O43">
-        <v>-102259200</v>
+        <v>-26060900</v>
       </c>
       <c r="P43">
-        <v>-1532984330000</v>
+        <v>-434571638000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672063800000</v>
+        <v>1672051080000</v>
       </c>
       <c r="B44">
-        <v>11682500</v>
+        <v>1976600</v>
       </c>
       <c r="C44">
-        <v>9361800</v>
+        <v>604700</v>
       </c>
       <c r="D44">
-        <v>77800</v>
+        <v>6700</v>
       </c>
       <c r="E44">
-        <v>180487940000</v>
+        <v>28221121000</v>
       </c>
       <c r="F44">
-        <v>162926486000</v>
+        <v>10561153000</v>
       </c>
       <c r="G44">
-        <v>1605243000</v>
+        <v>87414000</v>
       </c>
       <c r="H44">
-        <v>21122100</v>
+        <v>2588000</v>
       </c>
       <c r="I44">
-        <v>345019669000</v>
+        <v>38869688000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-26T14:10:00.000Z</v>
+        <v>2022-12-26T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>6049997976000</v>
+        <v>1845041988000</v>
       </c>
       <c r="L44">
-        <v>392244200</v>
+        <v>114712100</v>
       </c>
       <c r="M44">
-        <v>-2320700</v>
+        <v>-1371900</v>
       </c>
       <c r="N44">
-        <v>-17561454000</v>
+        <v>-17659968000</v>
       </c>
       <c r="O44">
-        <v>-104579900</v>
+        <v>-27432800</v>
       </c>
       <c r="P44">
-        <v>-1550545784000</v>
+        <v>-452231606000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672064100000</v>
+        <v>1672051200000</v>
       </c>
       <c r="B45">
-        <v>5608800</v>
+        <v>1338100</v>
       </c>
       <c r="C45">
-        <v>5268500</v>
+        <v>721700</v>
       </c>
       <c r="D45">
-        <v>24200</v>
+        <v>8700</v>
       </c>
       <c r="E45">
-        <v>90088716000</v>
+        <v>19683965000</v>
       </c>
       <c r="F45">
-        <v>75484053000</v>
+        <v>13146132000</v>
       </c>
       <c r="G45">
-        <v>712551000</v>
+        <v>218275000</v>
       </c>
       <c r="H45">
-        <v>10901500</v>
+        <v>2068500</v>
       </c>
       <c r="I45">
-        <v>166285320000</v>
+        <v>33048372000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-26T14:15:00.000Z</v>
+        <v>2022-12-26T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6216283296000</v>
+        <v>1878090360000</v>
       </c>
       <c r="L45">
-        <v>403145700</v>
+        <v>116780600</v>
       </c>
       <c r="M45">
-        <v>-340300</v>
+        <v>-616400</v>
       </c>
       <c r="N45">
-        <v>-14604663000</v>
+        <v>-6537833000</v>
       </c>
       <c r="O45">
-        <v>-104920200</v>
+        <v>-28049200</v>
       </c>
       <c r="P45">
-        <v>-1565150447000</v>
+        <v>-458769439000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672064400000</v>
+        <v>1672051320000</v>
       </c>
       <c r="B46">
-        <v>37276600</v>
+        <v>927400</v>
       </c>
       <c r="C46">
-        <v>5307000</v>
+        <v>619700</v>
       </c>
       <c r="D46">
-        <v>203700</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <v>600502744000</v>
+        <v>15261261000</v>
       </c>
       <c r="F46">
-        <v>88204142000</v>
+        <v>10916672000</v>
       </c>
       <c r="G46">
-        <v>3424226000</v>
+        <v>6690000.000000001</v>
       </c>
       <c r="H46">
-        <v>42787300</v>
+        <v>1547200</v>
       </c>
       <c r="I46">
-        <v>692131112000</v>
+        <v>26184623000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-26T14:20:00.000Z</v>
+        <v>2022-12-26T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>6908414408000</v>
+        <v>1904274983000</v>
       </c>
       <c r="L46">
-        <v>445933000</v>
+        <v>118327800</v>
       </c>
       <c r="M46">
-        <v>-31969600</v>
+        <v>-307700</v>
       </c>
       <c r="N46">
-        <v>-512298602000</v>
+        <v>-4344589000</v>
       </c>
       <c r="O46">
-        <v>-136889800</v>
+        <v>-28356900</v>
       </c>
       <c r="P46">
-        <v>-2077449049000</v>
+        <v>-463114028000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672064700000</v>
+        <v>1672051440000</v>
       </c>
       <c r="B47">
-        <v>23473800</v>
+        <v>889200</v>
       </c>
       <c r="C47">
-        <v>12236900</v>
+        <v>759300</v>
       </c>
       <c r="D47">
-        <v>524000</v>
+        <v>8800</v>
       </c>
       <c r="E47">
-        <v>387485989000</v>
+        <v>13314625000</v>
       </c>
       <c r="F47">
-        <v>204071278000</v>
+        <v>13750032000</v>
       </c>
       <c r="G47">
-        <v>9332171000</v>
+        <v>110787000</v>
       </c>
       <c r="H47">
-        <v>36234700</v>
+        <v>1657300</v>
       </c>
       <c r="I47">
-        <v>600889438000</v>
+        <v>27175444000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-26T14:25:00.000Z</v>
+        <v>2022-12-26T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7509303846000</v>
+        <v>1931450427000</v>
       </c>
       <c r="L47">
-        <v>482167700</v>
+        <v>119985100</v>
       </c>
       <c r="M47">
-        <v>-11236900</v>
+        <v>-129900</v>
       </c>
       <c r="N47">
-        <v>-183414711000</v>
+        <v>435407000</v>
       </c>
       <c r="O47">
-        <v>-148126700</v>
+        <v>-28486800</v>
       </c>
       <c r="P47">
-        <v>-2260863760000</v>
+        <v>-462678621000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672065000000</v>
+        <v>1672051560000</v>
       </c>
       <c r="B48">
-        <v>36100</v>
+        <v>935300</v>
       </c>
       <c r="C48">
-        <v>14300</v>
+        <v>758900</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E48">
-        <v>511357000</v>
+        <v>14480484000</v>
       </c>
       <c r="F48">
-        <v>294506000</v>
+        <v>12448343000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>188295000</v>
       </c>
       <c r="H48">
-        <v>50400</v>
+        <v>1696900</v>
       </c>
       <c r="I48">
-        <v>805863000</v>
+        <v>27117122000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-26T14:30:00.000Z</v>
+        <v>2022-12-26T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7510109709000</v>
+        <v>1958567549000</v>
       </c>
       <c r="L48">
-        <v>482218100</v>
+        <v>121682000</v>
       </c>
       <c r="M48">
-        <v>-21800</v>
+        <v>-176400</v>
       </c>
       <c r="N48">
-        <v>-216851000</v>
+        <v>-2032141000</v>
       </c>
       <c r="O48">
-        <v>-148148500</v>
+        <v>-28663200</v>
       </c>
       <c r="P48">
-        <v>-2261080611000</v>
+        <v>-464710762000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672065300000</v>
+        <v>1672051680000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>640500</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>1161200</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>10597212000</v>
       </c>
       <c r="F49">
-        <v>990000</v>
+        <v>20274533000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>88009000</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>1813500</v>
       </c>
       <c r="I49">
-        <v>990000</v>
+        <v>30959754000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-26T14:35:00.000Z</v>
+        <v>2022-12-26T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>7510110699000</v>
+        <v>1989527303000</v>
       </c>
       <c r="L49">
-        <v>482218200</v>
+        <v>123495500</v>
       </c>
       <c r="M49">
-        <v>100</v>
+        <v>520700</v>
       </c>
       <c r="N49">
-        <v>990000</v>
+        <v>9677321000</v>
       </c>
       <c r="O49">
-        <v>-148148400</v>
+        <v>-28142500</v>
       </c>
       <c r="P49">
-        <v>-2261079621000</v>
+        <v>-455033441000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672065900000</v>
+        <v>1672051800000</v>
       </c>
       <c r="B50">
-        <v>10649200</v>
+        <v>1093000</v>
       </c>
       <c r="C50">
-        <v>19733900</v>
+        <v>522600</v>
       </c>
       <c r="D50">
-        <v>20622900</v>
+        <v>12800</v>
       </c>
       <c r="E50">
-        <v>222195697000</v>
+        <v>21558489000</v>
       </c>
       <c r="F50">
-        <v>408752394000</v>
+        <v>7138462000</v>
       </c>
       <c r="G50">
-        <v>324279443000</v>
+        <v>211483000</v>
       </c>
       <c r="H50">
-        <v>51006000</v>
+        <v>1628400</v>
       </c>
       <c r="I50">
-        <v>955227534000</v>
+        <v>28908434000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-26T14:45:00.000Z</v>
+        <v>2022-12-26T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>8465338233000</v>
+        <v>2018435737000</v>
       </c>
       <c r="L50">
-        <v>533224200</v>
+        <v>125123900</v>
       </c>
       <c r="M50">
-        <v>9084700</v>
+        <v>-570400</v>
       </c>
       <c r="N50">
-        <v>186556697000</v>
+        <v>-14420027000</v>
       </c>
       <c r="O50">
-        <v>-139063700</v>
+        <v>-28712900</v>
       </c>
       <c r="P50">
-        <v>-2074522924000</v>
+        <v>-469453468000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672066200000</v>
+        <v>1672051920000</v>
       </c>
       <c r="B51">
-        <v>500</v>
+        <v>915400</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>768400</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="E51">
-        <v>4700000</v>
+        <v>16030320000</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>14642909000</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>66565000</v>
       </c>
       <c r="H51">
-        <v>500</v>
+        <v>1695600</v>
       </c>
       <c r="I51">
-        <v>4700000</v>
+        <v>30739794000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-26T14:50:00.000Z</v>
+        <v>2022-12-26T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>8465342933000</v>
+        <v>2049175531000</v>
       </c>
       <c r="L51">
-        <v>533224700</v>
+        <v>126819500</v>
       </c>
       <c r="M51">
-        <v>-500</v>
+        <v>-147000</v>
       </c>
       <c r="N51">
-        <v>-4700000</v>
+        <v>-1387411000</v>
       </c>
       <c r="O51">
-        <v>-139064200</v>
+        <v>-28859900</v>
       </c>
       <c r="P51">
-        <v>-2074527624000</v>
+        <v>-470840879000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672066500000</v>
+        <v>1672052040000</v>
       </c>
       <c r="B52">
+        <v>921400</v>
+      </c>
+      <c r="C52">
+        <v>478100</v>
+      </c>
+      <c r="D52">
+        <v>2700</v>
+      </c>
+      <c r="E52">
+        <v>12659308000</v>
+      </c>
+      <c r="F52">
+        <v>7543784000</v>
+      </c>
+      <c r="G52">
+        <v>54925000</v>
+      </c>
+      <c r="H52">
+        <v>1402200</v>
+      </c>
+      <c r="I52">
+        <v>20258017000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-26T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2069433548000</v>
+      </c>
+      <c r="L52">
+        <v>128221700</v>
+      </c>
+      <c r="M52">
+        <v>-443300</v>
+      </c>
+      <c r="N52">
+        <v>-5115524000</v>
+      </c>
+      <c r="O52">
+        <v>-29303200</v>
+      </c>
+      <c r="P52">
+        <v>-475956403000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1672052160000</v>
+      </c>
+      <c r="B53">
+        <v>925800</v>
+      </c>
+      <c r="C53">
+        <v>789200</v>
+      </c>
+      <c r="D53">
+        <v>20000</v>
+      </c>
+      <c r="E53">
+        <v>13425723000</v>
+      </c>
+      <c r="F53">
+        <v>14805137000</v>
+      </c>
+      <c r="G53">
+        <v>258105000</v>
+      </c>
+      <c r="H53">
+        <v>1735000</v>
+      </c>
+      <c r="I53">
+        <v>28488965000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-26T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2097922513000</v>
+      </c>
+      <c r="L53">
+        <v>129956700</v>
+      </c>
+      <c r="M53">
+        <v>-136600</v>
+      </c>
+      <c r="N53">
+        <v>1379414000</v>
+      </c>
+      <c r="O53">
+        <v>-29439800</v>
+      </c>
+      <c r="P53">
+        <v>-474576989000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1672052280000</v>
+      </c>
+      <c r="B54">
+        <v>596600</v>
+      </c>
+      <c r="C54">
+        <v>945100</v>
+      </c>
+      <c r="D54">
+        <v>2800</v>
+      </c>
+      <c r="E54">
+        <v>8478735000</v>
+      </c>
+      <c r="F54">
+        <v>15519019000</v>
+      </c>
+      <c r="G54">
+        <v>66041000</v>
+      </c>
+      <c r="H54">
+        <v>1544500</v>
+      </c>
+      <c r="I54">
+        <v>24063795000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-26T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2121986308000</v>
+      </c>
+      <c r="L54">
+        <v>131501200</v>
+      </c>
+      <c r="M54">
+        <v>348500</v>
+      </c>
+      <c r="N54">
+        <v>7040284000</v>
+      </c>
+      <c r="O54">
+        <v>-29091300</v>
+      </c>
+      <c r="P54">
+        <v>-467536705000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1672052400000</v>
+      </c>
+      <c r="B55">
+        <v>608800</v>
+      </c>
+      <c r="C55">
+        <v>1033000</v>
+      </c>
+      <c r="D55">
+        <v>3400</v>
+      </c>
+      <c r="E55">
+        <v>8383110000</v>
+      </c>
+      <c r="F55">
+        <v>14639825000</v>
+      </c>
+      <c r="G55">
+        <v>59251000</v>
+      </c>
+      <c r="H55">
+        <v>1645200</v>
+      </c>
+      <c r="I55">
+        <v>23082186000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-26T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2145068494000</v>
+      </c>
+      <c r="L55">
+        <v>133146400</v>
+      </c>
+      <c r="M55">
+        <v>424200</v>
+      </c>
+      <c r="N55">
+        <v>6256715000</v>
+      </c>
+      <c r="O55">
+        <v>-28667100</v>
+      </c>
+      <c r="P55">
+        <v>-461279990000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1672052520000</v>
+      </c>
+      <c r="B56">
+        <v>770800</v>
+      </c>
+      <c r="C56">
+        <v>713500</v>
+      </c>
+      <c r="D56">
+        <v>1400</v>
+      </c>
+      <c r="E56">
+        <v>12460700000</v>
+      </c>
+      <c r="F56">
+        <v>10865564000</v>
+      </c>
+      <c r="G56">
+        <v>12628000</v>
+      </c>
+      <c r="H56">
+        <v>1485700</v>
+      </c>
+      <c r="I56">
+        <v>23338892000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-26T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2168407386000</v>
+      </c>
+      <c r="L56">
+        <v>134632100</v>
+      </c>
+      <c r="M56">
+        <v>-57300</v>
+      </c>
+      <c r="N56">
+        <v>-1595136000</v>
+      </c>
+      <c r="O56">
+        <v>-28724400</v>
+      </c>
+      <c r="P56">
+        <v>-462875126000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1672052640000</v>
+      </c>
+      <c r="B57">
+        <v>665500</v>
+      </c>
+      <c r="C57">
+        <v>758300</v>
+      </c>
+      <c r="D57">
+        <v>500</v>
+      </c>
+      <c r="E57">
+        <v>10725920000</v>
+      </c>
+      <c r="F57">
+        <v>11694105000</v>
+      </c>
+      <c r="G57">
+        <v>21920000</v>
+      </c>
+      <c r="H57">
+        <v>1424300</v>
+      </c>
+      <c r="I57">
+        <v>22441945000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-26T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2190849331000</v>
+      </c>
+      <c r="L57">
+        <v>136056400</v>
+      </c>
+      <c r="M57">
+        <v>92800</v>
+      </c>
+      <c r="N57">
+        <v>968185000</v>
+      </c>
+      <c r="O57">
+        <v>-28631600</v>
+      </c>
+      <c r="P57">
+        <v>-461906941000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672052760000</v>
+      </c>
+      <c r="B58">
+        <v>1215200</v>
+      </c>
+      <c r="C58">
+        <v>381100</v>
+      </c>
+      <c r="D58">
+        <v>1200</v>
+      </c>
+      <c r="E58">
+        <v>21468759000</v>
+      </c>
+      <c r="F58">
+        <v>5047186000</v>
+      </c>
+      <c r="G58">
+        <v>30180000</v>
+      </c>
+      <c r="H58">
+        <v>1597500</v>
+      </c>
+      <c r="I58">
+        <v>26546125000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-26T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2217395456000</v>
+      </c>
+      <c r="L58">
+        <v>137653900</v>
+      </c>
+      <c r="M58">
+        <v>-834100</v>
+      </c>
+      <c r="N58">
+        <v>-16421573000</v>
+      </c>
+      <c r="O58">
+        <v>-29465700</v>
+      </c>
+      <c r="P58">
+        <v>-478328514000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672052880000</v>
+      </c>
+      <c r="B59">
+        <v>1580200</v>
+      </c>
+      <c r="C59">
+        <v>421500</v>
+      </c>
+      <c r="D59">
+        <v>3200</v>
+      </c>
+      <c r="E59">
+        <v>27934427000</v>
+      </c>
+      <c r="F59">
+        <v>8058131000</v>
+      </c>
+      <c r="G59">
+        <v>46492000</v>
+      </c>
+      <c r="H59">
+        <v>2004900</v>
+      </c>
+      <c r="I59">
+        <v>36039050000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-26T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2253434506000</v>
+      </c>
+      <c r="L59">
+        <v>139658800</v>
+      </c>
+      <c r="M59">
+        <v>-1158700</v>
+      </c>
+      <c r="N59">
+        <v>-19876296000</v>
+      </c>
+      <c r="O59">
+        <v>-30624400</v>
+      </c>
+      <c r="P59">
+        <v>-498204810000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672053000000</v>
+      </c>
+      <c r="B60">
+        <v>1213800</v>
+      </c>
+      <c r="C60">
+        <v>451500</v>
+      </c>
+      <c r="D60">
+        <v>1400</v>
+      </c>
+      <c r="E60">
+        <v>25861406000</v>
+      </c>
+      <c r="F60">
+        <v>8804871000</v>
+      </c>
+      <c r="G60">
+        <v>62005000</v>
+      </c>
+      <c r="H60">
+        <v>1666700</v>
+      </c>
+      <c r="I60">
+        <v>34728282000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-26T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2288162788000</v>
+      </c>
+      <c r="L60">
+        <v>141325500</v>
+      </c>
+      <c r="M60">
+        <v>-762300</v>
+      </c>
+      <c r="N60">
+        <v>-17056535000</v>
+      </c>
+      <c r="O60">
+        <v>-31386700</v>
+      </c>
+      <c r="P60">
+        <v>-515261345000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672053120000</v>
+      </c>
+      <c r="B61">
+        <v>1040600</v>
+      </c>
+      <c r="C61">
+        <v>505100</v>
+      </c>
+      <c r="D61">
+        <v>1300</v>
+      </c>
+      <c r="E61">
+        <v>18157743000</v>
+      </c>
+      <c r="F61">
+        <v>8073221000</v>
+      </c>
+      <c r="G61">
+        <v>39890000</v>
+      </c>
+      <c r="H61">
+        <v>1547000</v>
+      </c>
+      <c r="I61">
+        <v>26270854000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-26T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2314433642000</v>
+      </c>
+      <c r="L61">
+        <v>142872500</v>
+      </c>
+      <c r="M61">
+        <v>-535500</v>
+      </c>
+      <c r="N61">
+        <v>-10084522000</v>
+      </c>
+      <c r="O61">
+        <v>-31922200</v>
+      </c>
+      <c r="P61">
+        <v>-525345867000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672053240000</v>
+      </c>
+      <c r="B62">
+        <v>1428200</v>
+      </c>
+      <c r="C62">
+        <v>586700</v>
+      </c>
+      <c r="D62">
+        <v>144200</v>
+      </c>
+      <c r="E62">
+        <v>23374485000</v>
+      </c>
+      <c r="F62">
+        <v>10259892000</v>
+      </c>
+      <c r="G62">
+        <v>2055615000</v>
+      </c>
+      <c r="H62">
+        <v>2159100</v>
+      </c>
+      <c r="I62">
+        <v>35689992000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-26T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2350123634000</v>
+      </c>
+      <c r="L62">
+        <v>145031600</v>
+      </c>
+      <c r="M62">
+        <v>-841500</v>
+      </c>
+      <c r="N62">
+        <v>-13114593000</v>
+      </c>
+      <c r="O62">
+        <v>-32763700</v>
+      </c>
+      <c r="P62">
+        <v>-538460460000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672053360000</v>
+      </c>
+      <c r="B63">
+        <v>1104800</v>
+      </c>
+      <c r="C63">
+        <v>554200</v>
+      </c>
+      <c r="D63">
+        <v>1500</v>
+      </c>
+      <c r="E63">
+        <v>19152524000</v>
+      </c>
+      <c r="F63">
+        <v>10619846000</v>
+      </c>
+      <c r="G63">
+        <v>11100000</v>
+      </c>
+      <c r="H63">
+        <v>1660500</v>
+      </c>
+      <c r="I63">
+        <v>29783470000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-26T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2379907104000</v>
+      </c>
+      <c r="L63">
+        <v>146692100</v>
+      </c>
+      <c r="M63">
+        <v>-550600</v>
+      </c>
+      <c r="N63">
+        <v>-8532678000</v>
+      </c>
+      <c r="O63">
+        <v>-33314300</v>
+      </c>
+      <c r="P63">
+        <v>-546993138000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672053480000</v>
+      </c>
+      <c r="B64">
+        <v>937200</v>
+      </c>
+      <c r="C64">
+        <v>405500</v>
+      </c>
+      <c r="D64">
+        <v>6100</v>
+      </c>
+      <c r="E64">
+        <v>14704413000</v>
+      </c>
+      <c r="F64">
+        <v>7066261000</v>
+      </c>
+      <c r="G64">
+        <v>154340000</v>
+      </c>
+      <c r="H64">
+        <v>1348800</v>
+      </c>
+      <c r="I64">
+        <v>21925014000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-26T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2401832118000</v>
+      </c>
+      <c r="L64">
+        <v>148040900</v>
+      </c>
+      <c r="M64">
+        <v>-531700</v>
+      </c>
+      <c r="N64">
+        <v>-7638152000</v>
+      </c>
+      <c r="O64">
+        <v>-33846000</v>
+      </c>
+      <c r="P64">
+        <v>-554631290000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672053600000</v>
+      </c>
+      <c r="B65">
+        <v>1716900</v>
+      </c>
+      <c r="C65">
+        <v>416800</v>
+      </c>
+      <c r="D65">
+        <v>6500</v>
+      </c>
+      <c r="E65">
+        <v>24991517000</v>
+      </c>
+      <c r="F65">
+        <v>6831097000</v>
+      </c>
+      <c r="G65">
+        <v>146075000</v>
+      </c>
+      <c r="H65">
+        <v>2140200</v>
+      </c>
+      <c r="I65">
+        <v>31968689000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-26T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2433800807000</v>
+      </c>
+      <c r="L65">
+        <v>150181100</v>
+      </c>
+      <c r="M65">
+        <v>-1300100</v>
+      </c>
+      <c r="N65">
+        <v>-18160420000</v>
+      </c>
+      <c r="O65">
+        <v>-35146100</v>
+      </c>
+      <c r="P65">
+        <v>-572791710000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672053720000</v>
+      </c>
+      <c r="B66">
+        <v>2233600</v>
+      </c>
+      <c r="C66">
+        <v>398500</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
+        <v>35502196000</v>
+      </c>
+      <c r="F66">
+        <v>7056067000</v>
+      </c>
+      <c r="G66">
+        <v>2155000</v>
+      </c>
+      <c r="H66">
+        <v>2632200</v>
+      </c>
+      <c r="I66">
+        <v>42560418000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-26T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2476361225000</v>
+      </c>
+      <c r="L66">
+        <v>152813300</v>
+      </c>
+      <c r="M66">
+        <v>-1835100</v>
+      </c>
+      <c r="N66">
+        <v>-28446129000</v>
+      </c>
+      <c r="O66">
+        <v>-36981200</v>
+      </c>
+      <c r="P66">
+        <v>-601237839000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672053840000</v>
+      </c>
+      <c r="B67">
+        <v>4341300</v>
+      </c>
+      <c r="C67">
+        <v>408700</v>
+      </c>
+      <c r="D67">
+        <v>27000</v>
+      </c>
+      <c r="E67">
+        <v>64097349000</v>
+      </c>
+      <c r="F67">
+        <v>8805473000</v>
+      </c>
+      <c r="G67">
+        <v>326683000</v>
+      </c>
+      <c r="H67">
+        <v>4777000</v>
+      </c>
+      <c r="I67">
+        <v>73229505000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-26T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2549590730000</v>
+      </c>
+      <c r="L67">
+        <v>157590300</v>
+      </c>
+      <c r="M67">
+        <v>-3932600</v>
+      </c>
+      <c r="N67">
+        <v>-55291876000</v>
+      </c>
+      <c r="O67">
+        <v>-40913800</v>
+      </c>
+      <c r="P67">
+        <v>-656529715000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672053960000</v>
+      </c>
+      <c r="B68">
+        <v>7780500</v>
+      </c>
+      <c r="C68">
+        <v>928400</v>
+      </c>
+      <c r="D68">
+        <v>153000</v>
+      </c>
+      <c r="E68">
+        <v>116586638000</v>
+      </c>
+      <c r="F68">
+        <v>16153597000</v>
+      </c>
+      <c r="G68">
+        <v>2630667000</v>
+      </c>
+      <c r="H68">
+        <v>8861900</v>
+      </c>
+      <c r="I68">
+        <v>135370902000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-26T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2684961632000</v>
+      </c>
+      <c r="L68">
+        <v>166452200</v>
+      </c>
+      <c r="M68">
+        <v>-6852100</v>
+      </c>
+      <c r="N68">
+        <v>-100433041000</v>
+      </c>
+      <c r="O68">
+        <v>-47765900</v>
+      </c>
+      <c r="P68">
+        <v>-756962756000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672054080000</v>
+      </c>
+      <c r="B69">
+        <v>8700300</v>
+      </c>
+      <c r="C69">
+        <v>1351700</v>
+      </c>
+      <c r="D69">
+        <v>7200</v>
+      </c>
+      <c r="E69">
+        <v>129345957000</v>
+      </c>
+      <c r="F69">
+        <v>20336707000</v>
+      </c>
+      <c r="G69">
+        <v>86835000</v>
+      </c>
+      <c r="H69">
+        <v>10059200</v>
+      </c>
+      <c r="I69">
+        <v>149769499000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-26T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2834731131000</v>
+      </c>
+      <c r="L69">
+        <v>176511400</v>
+      </c>
+      <c r="M69">
+        <v>-7348600</v>
+      </c>
+      <c r="N69">
+        <v>-109009250000</v>
+      </c>
+      <c r="O69">
+        <v>-55114500</v>
+      </c>
+      <c r="P69">
+        <v>-865972006000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672054200000</v>
+      </c>
+      <c r="B70">
+        <v>35300</v>
+      </c>
+      <c r="C70">
+        <v>19500</v>
+      </c>
+      <c r="D70">
+        <v>500</v>
+      </c>
+      <c r="E70">
+        <v>523480000</v>
+      </c>
+      <c r="F70">
+        <v>245893000</v>
+      </c>
+      <c r="G70">
+        <v>1940000</v>
+      </c>
+      <c r="H70">
+        <v>55300</v>
+      </c>
+      <c r="I70">
+        <v>771313000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-26T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2835502444000</v>
+      </c>
+      <c r="L70">
+        <v>176566700</v>
+      </c>
+      <c r="M70">
+        <v>-15800</v>
+      </c>
+      <c r="N70">
+        <v>-277587000</v>
+      </c>
+      <c r="O70">
+        <v>-55130300</v>
+      </c>
+      <c r="P70">
+        <v>-866249593000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672059600000</v>
+      </c>
+      <c r="B71">
+        <v>11155300</v>
+      </c>
+      <c r="C71">
+        <v>7021500</v>
+      </c>
+      <c r="D71">
+        <v>771200</v>
+      </c>
+      <c r="E71">
+        <v>133120809000</v>
+      </c>
+      <c r="F71">
+        <v>98201300000</v>
+      </c>
+      <c r="G71">
+        <v>9495413000</v>
+      </c>
+      <c r="H71">
+        <v>18948000</v>
+      </c>
+      <c r="I71">
+        <v>240817522000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-26T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3076319966000</v>
+      </c>
+      <c r="L71">
+        <v>195514700</v>
+      </c>
+      <c r="M71">
+        <v>-4133800</v>
+      </c>
+      <c r="N71">
+        <v>-34919509000</v>
+      </c>
+      <c r="O71">
+        <v>-59264100</v>
+      </c>
+      <c r="P71">
+        <v>-901169102000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672059720000</v>
+      </c>
+      <c r="B72">
+        <v>4582400</v>
+      </c>
+      <c r="C72">
+        <v>2958100</v>
+      </c>
+      <c r="D72">
+        <v>22200</v>
+      </c>
+      <c r="E72">
+        <v>52298211000</v>
+      </c>
+      <c r="F72">
+        <v>45130711000</v>
+      </c>
+      <c r="G72">
+        <v>256750000</v>
+      </c>
+      <c r="H72">
+        <v>7562700</v>
+      </c>
+      <c r="I72">
+        <v>97685672000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-26T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3174005638000</v>
+      </c>
+      <c r="L72">
+        <v>203077400</v>
+      </c>
+      <c r="M72">
+        <v>-1624300</v>
+      </c>
+      <c r="N72">
+        <v>-7167500000</v>
+      </c>
+      <c r="O72">
+        <v>-60888400</v>
+      </c>
+      <c r="P72">
+        <v>-908336602000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672059840000</v>
+      </c>
+      <c r="B73">
+        <v>2160400</v>
+      </c>
+      <c r="C73">
+        <v>1923800</v>
+      </c>
+      <c r="D73">
+        <v>13200</v>
+      </c>
+      <c r="E73">
+        <v>31682509000</v>
+      </c>
+      <c r="F73">
+        <v>23562939000</v>
+      </c>
+      <c r="G73">
+        <v>201800000</v>
+      </c>
+      <c r="H73">
+        <v>4097400</v>
+      </c>
+      <c r="I73">
+        <v>55447248000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-26T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3229452886000</v>
+      </c>
+      <c r="L73">
+        <v>207174800</v>
+      </c>
+      <c r="M73">
+        <v>-236600</v>
+      </c>
+      <c r="N73">
+        <v>-8119570000</v>
+      </c>
+      <c r="O73">
+        <v>-61125000</v>
+      </c>
+      <c r="P73">
+        <v>-916456172000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672059960000</v>
+      </c>
+      <c r="B74">
+        <v>5040400</v>
+      </c>
+      <c r="C74">
+        <v>1913000</v>
+      </c>
+      <c r="D74">
+        <v>47700</v>
+      </c>
+      <c r="E74">
+        <v>71637647000</v>
+      </c>
+      <c r="F74">
+        <v>33454075000</v>
+      </c>
+      <c r="G74">
+        <v>683970000</v>
+      </c>
+      <c r="H74">
+        <v>7001100</v>
+      </c>
+      <c r="I74">
+        <v>105775692000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-26T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3335228578000</v>
+      </c>
+      <c r="L74">
+        <v>214175900</v>
+      </c>
+      <c r="M74">
+        <v>-3127400</v>
+      </c>
+      <c r="N74">
+        <v>-38183572000</v>
+      </c>
+      <c r="O74">
+        <v>-64252400</v>
+      </c>
+      <c r="P74">
+        <v>-954639744000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672060080000</v>
+      </c>
+      <c r="B75">
+        <v>2559100</v>
+      </c>
+      <c r="C75">
+        <v>2347000</v>
+      </c>
+      <c r="D75">
+        <v>46800</v>
+      </c>
+      <c r="E75">
+        <v>34060546000</v>
+      </c>
+      <c r="F75">
+        <v>34103955000</v>
+      </c>
+      <c r="G75">
+        <v>387047000</v>
+      </c>
+      <c r="H75">
+        <v>4952900</v>
+      </c>
+      <c r="I75">
+        <v>68551548000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-26T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3403780126000</v>
+      </c>
+      <c r="L75">
+        <v>219128800</v>
+      </c>
+      <c r="M75">
+        <v>-212100</v>
+      </c>
+      <c r="N75">
+        <v>43409000</v>
+      </c>
+      <c r="O75">
+        <v>-64464500</v>
+      </c>
+      <c r="P75">
+        <v>-954596335000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672060200000</v>
+      </c>
+      <c r="B76">
+        <v>2018600</v>
+      </c>
+      <c r="C76">
+        <v>2724400</v>
+      </c>
+      <c r="D76">
+        <v>8900</v>
+      </c>
+      <c r="E76">
+        <v>27940387000</v>
+      </c>
+      <c r="F76">
+        <v>36116840000</v>
+      </c>
+      <c r="G76">
+        <v>98414000</v>
+      </c>
+      <c r="H76">
+        <v>4751900</v>
+      </c>
+      <c r="I76">
+        <v>64155641000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-26T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3467935767000</v>
+      </c>
+      <c r="L76">
+        <v>223880700</v>
+      </c>
+      <c r="M76">
+        <v>705800</v>
+      </c>
+      <c r="N76">
+        <v>8176453000</v>
+      </c>
+      <c r="O76">
+        <v>-63758700</v>
+      </c>
+      <c r="P76">
+        <v>-946419882000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672060320000</v>
+      </c>
+      <c r="B77">
+        <v>2780300</v>
+      </c>
+      <c r="C77">
+        <v>1796200</v>
+      </c>
+      <c r="D77">
+        <v>7300</v>
+      </c>
+      <c r="E77">
+        <v>40011916000</v>
+      </c>
+      <c r="F77">
+        <v>21246508000</v>
+      </c>
+      <c r="G77">
+        <v>179152000</v>
+      </c>
+      <c r="H77">
+        <v>4583800</v>
+      </c>
+      <c r="I77">
+        <v>61437576000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-26T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3529373343000</v>
+      </c>
+      <c r="L77">
+        <v>228464500</v>
+      </c>
+      <c r="M77">
+        <v>-984100</v>
+      </c>
+      <c r="N77">
+        <v>-18765408000</v>
+      </c>
+      <c r="O77">
+        <v>-64742800</v>
+      </c>
+      <c r="P77">
+        <v>-965185290000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672060440000</v>
+      </c>
+      <c r="B78">
+        <v>3984400</v>
+      </c>
+      <c r="C78">
+        <v>1546200</v>
+      </c>
+      <c r="D78">
+        <v>23300</v>
+      </c>
+      <c r="E78">
+        <v>56676517000</v>
+      </c>
+      <c r="F78">
+        <v>24960863000</v>
+      </c>
+      <c r="G78">
+        <v>165131000</v>
+      </c>
+      <c r="H78">
+        <v>5553900</v>
+      </c>
+      <c r="I78">
+        <v>81802511000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-26T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3611175854000</v>
+      </c>
+      <c r="L78">
+        <v>234018400</v>
+      </c>
+      <c r="M78">
+        <v>-2438200</v>
+      </c>
+      <c r="N78">
+        <v>-31715654000</v>
+      </c>
+      <c r="O78">
+        <v>-67181000</v>
+      </c>
+      <c r="P78">
+        <v>-996900944000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672060560000</v>
+      </c>
+      <c r="B79">
+        <v>2188700</v>
+      </c>
+      <c r="C79">
+        <v>1374200</v>
+      </c>
+      <c r="D79">
+        <v>12900</v>
+      </c>
+      <c r="E79">
+        <v>30287311000</v>
+      </c>
+      <c r="F79">
+        <v>21558836000</v>
+      </c>
+      <c r="G79">
+        <v>127715000</v>
+      </c>
+      <c r="H79">
+        <v>3575800</v>
+      </c>
+      <c r="I79">
+        <v>51973862000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-26T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3663149716000</v>
+      </c>
+      <c r="L79">
+        <v>237594200</v>
+      </c>
+      <c r="M79">
+        <v>-814500</v>
+      </c>
+      <c r="N79">
+        <v>-8728475000</v>
+      </c>
+      <c r="O79">
+        <v>-67995500</v>
+      </c>
+      <c r="P79">
+        <v>-1005629419000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672060680000</v>
+      </c>
+      <c r="B80">
+        <v>1645400</v>
+      </c>
+      <c r="C80">
+        <v>2547400</v>
+      </c>
+      <c r="D80">
+        <v>13300</v>
+      </c>
+      <c r="E80">
+        <v>21854922000</v>
+      </c>
+      <c r="F80">
+        <v>43987809000</v>
+      </c>
+      <c r="G80">
+        <v>123940000</v>
+      </c>
+      <c r="H80">
+        <v>4206100</v>
+      </c>
+      <c r="I80">
+        <v>65966671000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-26T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3729116387000</v>
+      </c>
+      <c r="L80">
+        <v>241800300</v>
+      </c>
+      <c r="M80">
+        <v>902000</v>
+      </c>
+      <c r="N80">
+        <v>22132887000</v>
+      </c>
+      <c r="O80">
+        <v>-67093500</v>
+      </c>
+      <c r="P80">
+        <v>-983496532000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672060800000</v>
+      </c>
+      <c r="B81">
+        <v>1682700</v>
+      </c>
+      <c r="C81">
+        <v>1788500</v>
+      </c>
+      <c r="D81">
+        <v>5400</v>
+      </c>
+      <c r="E81">
+        <v>27099176000</v>
+      </c>
+      <c r="F81">
+        <v>22597468000</v>
+      </c>
+      <c r="G81">
+        <v>112595000</v>
+      </c>
+      <c r="H81">
+        <v>3476600</v>
+      </c>
+      <c r="I81">
+        <v>49809239000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-26T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3778925626000</v>
+      </c>
+      <c r="L81">
+        <v>245276900</v>
+      </c>
+      <c r="M81">
+        <v>105800</v>
+      </c>
+      <c r="N81">
+        <v>-4501708000</v>
+      </c>
+      <c r="O81">
+        <v>-66987700</v>
+      </c>
+      <c r="P81">
+        <v>-987998240000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672060920000</v>
+      </c>
+      <c r="B82">
+        <v>2680500</v>
+      </c>
+      <c r="C82">
+        <v>1343600</v>
+      </c>
+      <c r="D82">
+        <v>2700</v>
+      </c>
+      <c r="E82">
+        <v>41231407000</v>
+      </c>
+      <c r="F82">
+        <v>17497791000</v>
+      </c>
+      <c r="G82">
+        <v>48902000</v>
+      </c>
+      <c r="H82">
+        <v>4026800</v>
+      </c>
+      <c r="I82">
+        <v>58778100000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-26T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>3837703726000</v>
+      </c>
+      <c r="L82">
+        <v>249303700</v>
+      </c>
+      <c r="M82">
+        <v>-1336900</v>
+      </c>
+      <c r="N82">
+        <v>-23733616000</v>
+      </c>
+      <c r="O82">
+        <v>-68324600</v>
+      </c>
+      <c r="P82">
+        <v>-1011731856000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672061040000</v>
+      </c>
+      <c r="B83">
+        <v>4016900</v>
+      </c>
+      <c r="C83">
+        <v>1696400</v>
+      </c>
+      <c r="D83">
+        <v>14800</v>
+      </c>
+      <c r="E83">
+        <v>50169830000</v>
+      </c>
+      <c r="F83">
+        <v>25035122000</v>
+      </c>
+      <c r="G83">
+        <v>139929000</v>
+      </c>
+      <c r="H83">
+        <v>5728100</v>
+      </c>
+      <c r="I83">
+        <v>75344881000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-26T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>3913048607000</v>
+      </c>
+      <c r="L83">
+        <v>255031800</v>
+      </c>
+      <c r="M83">
+        <v>-2320500</v>
+      </c>
+      <c r="N83">
+        <v>-25134708000</v>
+      </c>
+      <c r="O83">
+        <v>-70645100</v>
+      </c>
+      <c r="P83">
+        <v>-1036866564000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672061160000</v>
+      </c>
+      <c r="B84">
+        <v>4584600</v>
+      </c>
+      <c r="C84">
+        <v>2193300</v>
+      </c>
+      <c r="D84">
+        <v>17800</v>
+      </c>
+      <c r="E84">
+        <v>60617670000</v>
+      </c>
+      <c r="F84">
+        <v>30399820000</v>
+      </c>
+      <c r="G84">
+        <v>419858000</v>
+      </c>
+      <c r="H84">
+        <v>6795700</v>
+      </c>
+      <c r="I84">
+        <v>91437348000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-26T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4004485955000</v>
+      </c>
+      <c r="L84">
+        <v>261827500</v>
+      </c>
+      <c r="M84">
+        <v>-2391300</v>
+      </c>
+      <c r="N84">
+        <v>-30217850000</v>
+      </c>
+      <c r="O84">
+        <v>-73036400</v>
+      </c>
+      <c r="P84">
+        <v>-1067084414000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672061280000</v>
+      </c>
+      <c r="B85">
+        <v>5104400</v>
+      </c>
+      <c r="C85">
+        <v>1751800</v>
+      </c>
+      <c r="D85">
+        <v>18200</v>
+      </c>
+      <c r="E85">
+        <v>67141674000</v>
+      </c>
+      <c r="F85">
+        <v>21156018000</v>
+      </c>
+      <c r="G85">
+        <v>246506000</v>
+      </c>
+      <c r="H85">
+        <v>6874400</v>
+      </c>
+      <c r="I85">
+        <v>88544198000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-26T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4093030153000</v>
+      </c>
+      <c r="L85">
+        <v>268701900</v>
+      </c>
+      <c r="M85">
+        <v>-3352600</v>
+      </c>
+      <c r="N85">
+        <v>-45985656000</v>
+      </c>
+      <c r="O85">
+        <v>-76389000</v>
+      </c>
+      <c r="P85">
+        <v>-1113070070000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672061400000</v>
+      </c>
+      <c r="B86">
+        <v>6943400</v>
+      </c>
+      <c r="C86">
+        <v>1534500</v>
+      </c>
+      <c r="D86">
+        <v>120100</v>
+      </c>
+      <c r="E86">
+        <v>98036243000</v>
+      </c>
+      <c r="F86">
+        <v>24067285000</v>
+      </c>
+      <c r="G86">
+        <v>651503000</v>
+      </c>
+      <c r="H86">
+        <v>8598000</v>
+      </c>
+      <c r="I86">
+        <v>122755031000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-26T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4215785184000</v>
+      </c>
+      <c r="L86">
+        <v>277299900</v>
+      </c>
+      <c r="M86">
+        <v>-5408900</v>
+      </c>
+      <c r="N86">
+        <v>-73968958000</v>
+      </c>
+      <c r="O86">
+        <v>-81797900</v>
+      </c>
+      <c r="P86">
+        <v>-1187039028000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672061520000</v>
+      </c>
+      <c r="B87">
+        <v>6576000</v>
+      </c>
+      <c r="C87">
+        <v>1682700</v>
+      </c>
+      <c r="D87">
+        <v>51900</v>
+      </c>
+      <c r="E87">
+        <v>98208073000</v>
+      </c>
+      <c r="F87">
+        <v>23684546000</v>
+      </c>
+      <c r="G87">
+        <v>480884000</v>
+      </c>
+      <c r="H87">
+        <v>8310600</v>
+      </c>
+      <c r="I87">
+        <v>122373503000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-26T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4338158687000</v>
+      </c>
+      <c r="L87">
+        <v>285610500</v>
+      </c>
+      <c r="M87">
+        <v>-4893300</v>
+      </c>
+      <c r="N87">
+        <v>-74523527000</v>
+      </c>
+      <c r="O87">
+        <v>-86691200</v>
+      </c>
+      <c r="P87">
+        <v>-1261562555000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672061640000</v>
+      </c>
+      <c r="B88">
+        <v>7169200</v>
+      </c>
+      <c r="C88">
+        <v>2274800</v>
+      </c>
+      <c r="D88">
+        <v>7200</v>
+      </c>
+      <c r="E88">
+        <v>98463640000</v>
+      </c>
+      <c r="F88">
+        <v>36640544000</v>
+      </c>
+      <c r="G88">
+        <v>186647000</v>
+      </c>
+      <c r="H88">
+        <v>9451200</v>
+      </c>
+      <c r="I88">
+        <v>135290831000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-26T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4473449518000</v>
+      </c>
+      <c r="L88">
+        <v>295061700</v>
+      </c>
+      <c r="M88">
+        <v>-4894400</v>
+      </c>
+      <c r="N88">
+        <v>-61823096000</v>
+      </c>
+      <c r="O88">
+        <v>-91585600</v>
+      </c>
+      <c r="P88">
+        <v>-1323385651000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672061760000</v>
+      </c>
+      <c r="B89">
+        <v>2070700</v>
+      </c>
+      <c r="C89">
+        <v>3147800</v>
+      </c>
+      <c r="D89">
+        <v>56700</v>
+      </c>
+      <c r="E89">
+        <v>35889235000</v>
+      </c>
+      <c r="F89">
+        <v>50656921000</v>
+      </c>
+      <c r="G89">
+        <v>807978000</v>
+      </c>
+      <c r="H89">
+        <v>5275200</v>
+      </c>
+      <c r="I89">
+        <v>87354134000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-26T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4560803652000</v>
+      </c>
+      <c r="L89">
+        <v>300336900</v>
+      </c>
+      <c r="M89">
+        <v>1077100</v>
+      </c>
+      <c r="N89">
+        <v>14767686000</v>
+      </c>
+      <c r="O89">
+        <v>-90508500</v>
+      </c>
+      <c r="P89">
+        <v>-1308617965000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672061880000</v>
+      </c>
+      <c r="B90">
+        <v>1272300</v>
+      </c>
+      <c r="C90">
+        <v>3718100</v>
+      </c>
+      <c r="D90">
+        <v>11700</v>
+      </c>
+      <c r="E90">
+        <v>19597698000</v>
+      </c>
+      <c r="F90">
+        <v>54714508000</v>
+      </c>
+      <c r="G90">
+        <v>182627000</v>
+      </c>
+      <c r="H90">
+        <v>5002100</v>
+      </c>
+      <c r="I90">
+        <v>74494833000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-26T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4635298485000</v>
+      </c>
+      <c r="L90">
+        <v>305339000</v>
+      </c>
+      <c r="M90">
+        <v>2445800</v>
+      </c>
+      <c r="N90">
+        <v>35116810000</v>
+      </c>
+      <c r="O90">
+        <v>-88062700</v>
+      </c>
+      <c r="P90">
+        <v>-1273501155000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672062000000</v>
+      </c>
+      <c r="B91">
+        <v>1151600</v>
+      </c>
+      <c r="C91">
+        <v>3208600</v>
+      </c>
+      <c r="D91">
+        <v>1400</v>
+      </c>
+      <c r="E91">
+        <v>18570527000</v>
+      </c>
+      <c r="F91">
+        <v>46229874000</v>
+      </c>
+      <c r="G91">
+        <v>33216000</v>
+      </c>
+      <c r="H91">
+        <v>4361600</v>
+      </c>
+      <c r="I91">
+        <v>64833617000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-26T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4700132102000</v>
+      </c>
+      <c r="L91">
+        <v>309700600</v>
+      </c>
+      <c r="M91">
+        <v>2057000</v>
+      </c>
+      <c r="N91">
+        <v>27659347000</v>
+      </c>
+      <c r="O91">
+        <v>-86005700</v>
+      </c>
+      <c r="P91">
+        <v>-1245841808000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672062120000</v>
+      </c>
+      <c r="B92">
+        <v>1144100</v>
+      </c>
+      <c r="C92">
+        <v>2855600</v>
+      </c>
+      <c r="D92">
+        <v>21900</v>
+      </c>
+      <c r="E92">
+        <v>15919807000</v>
+      </c>
+      <c r="F92">
+        <v>36798173000</v>
+      </c>
+      <c r="G92">
+        <v>447705000</v>
+      </c>
+      <c r="H92">
+        <v>4021600</v>
+      </c>
+      <c r="I92">
+        <v>53165685000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-26T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4753297787000</v>
+      </c>
+      <c r="L92">
+        <v>313722200</v>
+      </c>
+      <c r="M92">
+        <v>1711500</v>
+      </c>
+      <c r="N92">
+        <v>20878366000</v>
+      </c>
+      <c r="O92">
+        <v>-84294200</v>
+      </c>
+      <c r="P92">
+        <v>-1224963442000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672062240000</v>
+      </c>
+      <c r="B93">
+        <v>1654500</v>
+      </c>
+      <c r="C93">
+        <v>1578800</v>
+      </c>
+      <c r="D93">
+        <v>21200</v>
+      </c>
+      <c r="E93">
+        <v>23757813000</v>
+      </c>
+      <c r="F93">
+        <v>20085232000</v>
+      </c>
+      <c r="G93">
+        <v>545669000</v>
+      </c>
+      <c r="H93">
+        <v>3254500</v>
+      </c>
+      <c r="I93">
+        <v>44388714000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-26T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4797686501000</v>
+      </c>
+      <c r="L93">
+        <v>316976700</v>
+      </c>
+      <c r="M93">
+        <v>-75700</v>
+      </c>
+      <c r="N93">
+        <v>-3672581000</v>
+      </c>
+      <c r="O93">
+        <v>-84369900</v>
+      </c>
+      <c r="P93">
+        <v>-1228636023000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672062360000</v>
+      </c>
+      <c r="B94">
+        <v>3111100</v>
+      </c>
+      <c r="C94">
+        <v>949600</v>
+      </c>
+      <c r="D94">
+        <v>8700</v>
+      </c>
+      <c r="E94">
+        <v>49268198000</v>
+      </c>
+      <c r="F94">
+        <v>13064307000</v>
+      </c>
+      <c r="G94">
+        <v>131214000</v>
+      </c>
+      <c r="H94">
+        <v>4069400</v>
+      </c>
+      <c r="I94">
+        <v>62463719000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-26T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4860150220000</v>
+      </c>
+      <c r="L94">
+        <v>321046100</v>
+      </c>
+      <c r="M94">
+        <v>-2161500</v>
+      </c>
+      <c r="N94">
+        <v>-36203891000</v>
+      </c>
+      <c r="O94">
+        <v>-86531400</v>
+      </c>
+      <c r="P94">
+        <v>-1264839914000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672062480000</v>
+      </c>
+      <c r="B95">
+        <v>5110400</v>
+      </c>
+      <c r="C95">
+        <v>1115600</v>
+      </c>
+      <c r="D95">
+        <v>13200</v>
+      </c>
+      <c r="E95">
+        <v>93193725000</v>
+      </c>
+      <c r="F95">
+        <v>19754905000</v>
+      </c>
+      <c r="G95">
+        <v>91104000</v>
+      </c>
+      <c r="H95">
+        <v>6239200</v>
+      </c>
+      <c r="I95">
+        <v>113039734000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-26T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4973189954000</v>
+      </c>
+      <c r="L95">
+        <v>327285300</v>
+      </c>
+      <c r="M95">
+        <v>-3994800</v>
+      </c>
+      <c r="N95">
+        <v>-73438820000</v>
+      </c>
+      <c r="O95">
+        <v>-90526200</v>
+      </c>
+      <c r="P95">
+        <v>-1338278734000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672062600000</v>
+      </c>
+      <c r="B96">
+        <v>3835800</v>
+      </c>
+      <c r="C96">
+        <v>1271100</v>
+      </c>
+      <c r="D96">
+        <v>14800</v>
+      </c>
+      <c r="E96">
+        <v>61879014000</v>
+      </c>
+      <c r="F96">
+        <v>21953698000</v>
+      </c>
+      <c r="G96">
+        <v>921335000</v>
+      </c>
+      <c r="H96">
+        <v>5121700</v>
+      </c>
+      <c r="I96">
+        <v>84754047000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-26T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5057944001000</v>
+      </c>
+      <c r="L96">
+        <v>332407000</v>
+      </c>
+      <c r="M96">
+        <v>-2564700</v>
+      </c>
+      <c r="N96">
+        <v>-39925316000</v>
+      </c>
+      <c r="O96">
+        <v>-93090900</v>
+      </c>
+      <c r="P96">
+        <v>-1378204050000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672062720000</v>
+      </c>
+      <c r="B97">
+        <v>2616400</v>
+      </c>
+      <c r="C97">
+        <v>1690300</v>
+      </c>
+      <c r="D97">
+        <v>5700</v>
+      </c>
+      <c r="E97">
+        <v>48459165000</v>
+      </c>
+      <c r="F97">
+        <v>28597212000</v>
+      </c>
+      <c r="G97">
+        <v>154555000</v>
+      </c>
+      <c r="H97">
+        <v>4312400</v>
+      </c>
+      <c r="I97">
+        <v>77210932000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-26T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5135154933000</v>
+      </c>
+      <c r="L97">
+        <v>336719400</v>
+      </c>
+      <c r="M97">
+        <v>-926100</v>
+      </c>
+      <c r="N97">
+        <v>-19861953000</v>
+      </c>
+      <c r="O97">
+        <v>-94017000</v>
+      </c>
+      <c r="P97">
+        <v>-1398066003000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672062840000</v>
+      </c>
+      <c r="B98">
+        <v>1928400</v>
+      </c>
+      <c r="C98">
+        <v>2028300</v>
+      </c>
+      <c r="D98">
+        <v>15400</v>
+      </c>
+      <c r="E98">
+        <v>30587724000</v>
+      </c>
+      <c r="F98">
+        <v>35355987000</v>
+      </c>
+      <c r="G98">
+        <v>620530000</v>
+      </c>
+      <c r="H98">
+        <v>3972100</v>
+      </c>
+      <c r="I98">
+        <v>66564241000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-26T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5201719174000</v>
+      </c>
+      <c r="L98">
+        <v>340691500</v>
+      </c>
+      <c r="M98">
+        <v>99900</v>
+      </c>
+      <c r="N98">
+        <v>4768263000</v>
+      </c>
+      <c r="O98">
+        <v>-93917100</v>
+      </c>
+      <c r="P98">
+        <v>-1393297740000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672062960000</v>
+      </c>
+      <c r="B99">
+        <v>1160400</v>
+      </c>
+      <c r="C99">
+        <v>2846500</v>
+      </c>
+      <c r="D99">
+        <v>5000</v>
+      </c>
+      <c r="E99">
+        <v>20974108000</v>
+      </c>
+      <c r="F99">
+        <v>47060538000</v>
+      </c>
+      <c r="G99">
+        <v>88000000</v>
+      </c>
+      <c r="H99">
+        <v>4011900</v>
+      </c>
+      <c r="I99">
+        <v>68122646000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-26T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5269841820000</v>
+      </c>
+      <c r="L99">
+        <v>344703400</v>
+      </c>
+      <c r="M99">
+        <v>1686100</v>
+      </c>
+      <c r="N99">
+        <v>26086430000</v>
+      </c>
+      <c r="O99">
+        <v>-92231000</v>
+      </c>
+      <c r="P99">
+        <v>-1367211310000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672063080000</v>
+      </c>
+      <c r="B100">
+        <v>888900</v>
+      </c>
+      <c r="C100">
+        <v>1688100</v>
+      </c>
+      <c r="D100">
+        <v>13100</v>
+      </c>
+      <c r="E100">
+        <v>15829095000</v>
+      </c>
+      <c r="F100">
+        <v>28165701000</v>
+      </c>
+      <c r="G100">
+        <v>145038000</v>
+      </c>
+      <c r="H100">
+        <v>2590100</v>
+      </c>
+      <c r="I100">
+        <v>44139834000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-26T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5313981654000</v>
+      </c>
+      <c r="L100">
+        <v>347293500</v>
+      </c>
+      <c r="M100">
+        <v>799200</v>
+      </c>
+      <c r="N100">
+        <v>12336606000</v>
+      </c>
+      <c r="O100">
+        <v>-91431800</v>
+      </c>
+      <c r="P100">
+        <v>-1354874704000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672063200000</v>
+      </c>
+      <c r="B101">
+        <v>1117400</v>
+      </c>
+      <c r="C101">
+        <v>1536100</v>
+      </c>
+      <c r="D101">
+        <v>5700</v>
+      </c>
+      <c r="E101">
+        <v>15263381000</v>
+      </c>
+      <c r="F101">
+        <v>26533950000</v>
+      </c>
+      <c r="G101">
+        <v>123398000</v>
+      </c>
+      <c r="H101">
+        <v>2659200</v>
+      </c>
+      <c r="I101">
+        <v>41920729000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-26T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5355902383000</v>
+      </c>
+      <c r="L101">
+        <v>349952700</v>
+      </c>
+      <c r="M101">
+        <v>418700</v>
+      </c>
+      <c r="N101">
+        <v>11270569000</v>
+      </c>
+      <c r="O101">
+        <v>-91013100</v>
+      </c>
+      <c r="P101">
+        <v>-1343604135000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672063320000</v>
+      </c>
+      <c r="B102">
+        <v>1370100</v>
+      </c>
+      <c r="C102">
+        <v>1717700</v>
+      </c>
+      <c r="D102">
+        <v>6000</v>
+      </c>
+      <c r="E102">
+        <v>22021149000</v>
+      </c>
+      <c r="F102">
+        <v>26320917000</v>
+      </c>
+      <c r="G102">
+        <v>60573000</v>
+      </c>
+      <c r="H102">
+        <v>3093800</v>
+      </c>
+      <c r="I102">
+        <v>48402639000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-26T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5404305022000</v>
+      </c>
+      <c r="L102">
+        <v>353046500</v>
+      </c>
+      <c r="M102">
+        <v>347600</v>
+      </c>
+      <c r="N102">
+        <v>4299768000</v>
+      </c>
+      <c r="O102">
+        <v>-90665500</v>
+      </c>
+      <c r="P102">
+        <v>-1339304367000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672063440000</v>
+      </c>
+      <c r="B103">
+        <v>2290300</v>
+      </c>
+      <c r="C103">
+        <v>1131400</v>
+      </c>
+      <c r="D103">
+        <v>4300</v>
+      </c>
+      <c r="E103">
+        <v>42128370000</v>
+      </c>
+      <c r="F103">
+        <v>19647032000</v>
+      </c>
+      <c r="G103">
+        <v>167770000</v>
+      </c>
+      <c r="H103">
+        <v>3426000</v>
+      </c>
+      <c r="I103">
+        <v>61943172000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-26T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5466248194000</v>
+      </c>
+      <c r="L103">
+        <v>356472500</v>
+      </c>
+      <c r="M103">
+        <v>-1158900</v>
+      </c>
+      <c r="N103">
+        <v>-22481338000</v>
+      </c>
+      <c r="O103">
+        <v>-91824400</v>
+      </c>
+      <c r="P103">
+        <v>-1361785705000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672063560000</v>
+      </c>
+      <c r="B104">
+        <v>5158200</v>
+      </c>
+      <c r="C104">
+        <v>944200</v>
+      </c>
+      <c r="D104">
+        <v>21200</v>
+      </c>
+      <c r="E104">
+        <v>85120884000</v>
+      </c>
+      <c r="F104">
+        <v>13335620000</v>
+      </c>
+      <c r="G104">
+        <v>230344000</v>
+      </c>
+      <c r="H104">
+        <v>6123600</v>
+      </c>
+      <c r="I104">
+        <v>98686848000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-26T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5564935042000</v>
+      </c>
+      <c r="L104">
+        <v>362596100</v>
+      </c>
+      <c r="M104">
+        <v>-4214000</v>
+      </c>
+      <c r="N104">
+        <v>-71785264000</v>
+      </c>
+      <c r="O104">
+        <v>-96038400</v>
+      </c>
+      <c r="P104">
+        <v>-1433570969000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672063680000</v>
+      </c>
+      <c r="B105">
+        <v>7356100</v>
+      </c>
+      <c r="C105">
+        <v>1135300</v>
+      </c>
+      <c r="D105">
+        <v>34600</v>
+      </c>
+      <c r="E105">
+        <v>119372996000</v>
+      </c>
+      <c r="F105">
+        <v>19959635000</v>
+      </c>
+      <c r="G105">
+        <v>710634000</v>
+      </c>
+      <c r="H105">
+        <v>8526000</v>
+      </c>
+      <c r="I105">
+        <v>140043265000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-26T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5704978307000</v>
+      </c>
+      <c r="L105">
+        <v>371122100</v>
+      </c>
+      <c r="M105">
+        <v>-6220800</v>
+      </c>
+      <c r="N105">
+        <v>-99413361000</v>
+      </c>
+      <c r="O105">
+        <v>-102259200</v>
+      </c>
+      <c r="P105">
+        <v>-1532984330000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672063800000</v>
+      </c>
+      <c r="B106">
+        <v>7368900</v>
+      </c>
+      <c r="C106">
+        <v>1588600</v>
+      </c>
+      <c r="D106">
+        <v>54100</v>
+      </c>
+      <c r="E106">
+        <v>109093485000</v>
+      </c>
+      <c r="F106">
+        <v>25682563000</v>
+      </c>
+      <c r="G106">
+        <v>1014369000</v>
+      </c>
+      <c r="H106">
+        <v>9011600</v>
+      </c>
+      <c r="I106">
+        <v>135790417000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-26T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5840768724000</v>
+      </c>
+      <c r="L106">
+        <v>380133700</v>
+      </c>
+      <c r="M106">
+        <v>-5780300</v>
+      </c>
+      <c r="N106">
+        <v>-83410922000</v>
+      </c>
+      <c r="O106">
+        <v>-108039500</v>
+      </c>
+      <c r="P106">
+        <v>-1616395252000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672063920000</v>
+      </c>
+      <c r="B107">
+        <v>3847800</v>
+      </c>
+      <c r="C107">
+        <v>4566500</v>
+      </c>
+      <c r="D107">
+        <v>7300</v>
+      </c>
+      <c r="E107">
+        <v>63264575000</v>
+      </c>
+      <c r="F107">
+        <v>85968047000</v>
+      </c>
+      <c r="G107">
+        <v>229075000</v>
+      </c>
+      <c r="H107">
+        <v>8421600</v>
+      </c>
+      <c r="I107">
+        <v>149461697000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-26T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5990230421000</v>
+      </c>
+      <c r="L107">
+        <v>388555300</v>
+      </c>
+      <c r="M107">
+        <v>718700</v>
+      </c>
+      <c r="N107">
+        <v>22703472000</v>
+      </c>
+      <c r="O107">
+        <v>-107320800</v>
+      </c>
+      <c r="P107">
+        <v>-1593691780000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672064040000</v>
+      </c>
+      <c r="B108">
+        <v>1020500</v>
+      </c>
+      <c r="C108">
+        <v>5261300</v>
+      </c>
+      <c r="D108">
+        <v>16600</v>
+      </c>
+      <c r="E108">
+        <v>17718705000</v>
+      </c>
+      <c r="F108">
+        <v>79385983000</v>
+      </c>
+      <c r="G108">
+        <v>368449000</v>
+      </c>
+      <c r="H108">
+        <v>6298400</v>
+      </c>
+      <c r="I108">
+        <v>97473137000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-26T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>6087703558000</v>
+      </c>
+      <c r="L108">
+        <v>394853700</v>
+      </c>
+      <c r="M108">
+        <v>4240800</v>
+      </c>
+      <c r="N108">
+        <v>61667278000</v>
+      </c>
+      <c r="O108">
+        <v>-103080000</v>
+      </c>
+      <c r="P108">
+        <v>-1532024502000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672064160000</v>
+      </c>
+      <c r="B109">
+        <v>1740200</v>
+      </c>
+      <c r="C109">
+        <v>1975600</v>
+      </c>
+      <c r="D109">
+        <v>1600</v>
+      </c>
+      <c r="E109">
+        <v>27169975000</v>
+      </c>
+      <c r="F109">
+        <v>28036896000</v>
+      </c>
+      <c r="G109">
+        <v>41526000</v>
+      </c>
+      <c r="H109">
+        <v>3717400</v>
+      </c>
+      <c r="I109">
+        <v>55248397000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-26T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>6142951955000</v>
+      </c>
+      <c r="L109">
+        <v>398571100</v>
+      </c>
+      <c r="M109">
+        <v>235400</v>
+      </c>
+      <c r="N109">
+        <v>866921000</v>
+      </c>
+      <c r="O109">
+        <v>-102844600</v>
+      </c>
+      <c r="P109">
+        <v>-1531157581000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672064280000</v>
+      </c>
+      <c r="B110">
+        <v>3313900</v>
+      </c>
+      <c r="C110">
+        <v>1238300</v>
+      </c>
+      <c r="D110">
+        <v>22400</v>
+      </c>
+      <c r="E110">
+        <v>53329916000</v>
+      </c>
+      <c r="F110">
+        <v>19337050000</v>
+      </c>
+      <c r="G110">
+        <v>664375000</v>
+      </c>
+      <c r="H110">
+        <v>4574600</v>
+      </c>
+      <c r="I110">
+        <v>73331341000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-26T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6216283296000</v>
+      </c>
+      <c r="L110">
+        <v>403145700</v>
+      </c>
+      <c r="M110">
+        <v>-2075600</v>
+      </c>
+      <c r="N110">
+        <v>-33992866000</v>
+      </c>
+      <c r="O110">
+        <v>-104920200</v>
+      </c>
+      <c r="P110">
+        <v>-1565150447000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672064400000</v>
+      </c>
+      <c r="B111">
+        <v>5537600</v>
+      </c>
+      <c r="C111">
+        <v>1327100</v>
+      </c>
+      <c r="D111">
+        <v>16800</v>
+      </c>
+      <c r="E111">
+        <v>94665760000</v>
+      </c>
+      <c r="F111">
+        <v>19752431000</v>
+      </c>
+      <c r="G111">
+        <v>131542000</v>
+      </c>
+      <c r="H111">
+        <v>6881500</v>
+      </c>
+      <c r="I111">
+        <v>114549733000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-26T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6330833029000</v>
+      </c>
+      <c r="L111">
+        <v>410027200</v>
+      </c>
+      <c r="M111">
+        <v>-4210500</v>
+      </c>
+      <c r="N111">
+        <v>-74913329000</v>
+      </c>
+      <c r="O111">
+        <v>-109130700</v>
+      </c>
+      <c r="P111">
+        <v>-1640063776000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672064520000</v>
+      </c>
+      <c r="B112">
+        <v>21122200</v>
+      </c>
+      <c r="C112">
+        <v>1979400</v>
+      </c>
+      <c r="D112">
+        <v>91700</v>
+      </c>
+      <c r="E112">
+        <v>328475018000</v>
+      </c>
+      <c r="F112">
+        <v>32370451000</v>
+      </c>
+      <c r="G112">
+        <v>1591060000</v>
+      </c>
+      <c r="H112">
+        <v>23193300</v>
+      </c>
+      <c r="I112">
+        <v>362436529000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-26T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6693269558000</v>
+      </c>
+      <c r="L112">
+        <v>433220500</v>
+      </c>
+      <c r="M112">
+        <v>-19142800</v>
+      </c>
+      <c r="N112">
+        <v>-296104567000</v>
+      </c>
+      <c r="O112">
+        <v>-128273500</v>
+      </c>
+      <c r="P112">
+        <v>-1936168343000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672064640000</v>
+      </c>
+      <c r="B113">
+        <v>17039900</v>
+      </c>
+      <c r="C113">
+        <v>4945100</v>
+      </c>
+      <c r="D113">
+        <v>433600</v>
+      </c>
+      <c r="E113">
+        <v>287103853000</v>
+      </c>
+      <c r="F113">
+        <v>85446407000</v>
+      </c>
+      <c r="G113">
+        <v>7781095000</v>
+      </c>
+      <c r="H113">
+        <v>22418600</v>
+      </c>
+      <c r="I113">
+        <v>380331355000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-26T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7073600913000</v>
+      </c>
+      <c r="L113">
+        <v>455639100</v>
+      </c>
+      <c r="M113">
+        <v>-12094800</v>
+      </c>
+      <c r="N113">
+        <v>-201657446000</v>
+      </c>
+      <c r="O113">
+        <v>-140368300</v>
+      </c>
+      <c r="P113">
+        <v>-2137825789000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672064760000</v>
+      </c>
+      <c r="B114">
+        <v>11176800</v>
+      </c>
+      <c r="C114">
+        <v>4186000</v>
+      </c>
+      <c r="D114">
+        <v>124500</v>
+      </c>
+      <c r="E114">
+        <v>184587818000</v>
+      </c>
+      <c r="F114">
+        <v>72421327000</v>
+      </c>
+      <c r="G114">
+        <v>1886905000</v>
+      </c>
+      <c r="H114">
+        <v>15487300</v>
+      </c>
+      <c r="I114">
+        <v>258896050000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-26T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7332496963000</v>
+      </c>
+      <c r="L114">
+        <v>471126400</v>
+      </c>
+      <c r="M114">
+        <v>-6990800</v>
+      </c>
+      <c r="N114">
+        <v>-112166491000</v>
+      </c>
+      <c r="O114">
+        <v>-147359100</v>
+      </c>
+      <c r="P114">
+        <v>-2249992280000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672064880000</v>
+      </c>
+      <c r="B115">
+        <v>5873900</v>
+      </c>
+      <c r="C115">
+        <v>5106300</v>
+      </c>
+      <c r="D115">
+        <v>61100</v>
+      </c>
+      <c r="E115">
+        <v>93156284000</v>
+      </c>
+      <c r="F115">
+        <v>82284804000</v>
+      </c>
+      <c r="G115">
+        <v>1365795000</v>
+      </c>
+      <c r="H115">
+        <v>11041300</v>
+      </c>
+      <c r="I115">
+        <v>176806883000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-26T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7509303846000</v>
+      </c>
+      <c r="L115">
+        <v>482167700</v>
+      </c>
+      <c r="M115">
+        <v>-767600</v>
+      </c>
+      <c r="N115">
+        <v>-10871480000</v>
+      </c>
+      <c r="O115">
+        <v>-148126700</v>
+      </c>
+      <c r="P115">
+        <v>-2260863760000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672065000000</v>
+      </c>
+      <c r="B116">
+        <v>34500</v>
+      </c>
+      <c r="C116">
+        <v>14300</v>
+      </c>
+      <c r="D116">
         <v>0</v>
       </c>
-      <c r="C52">
+      <c r="E116">
+        <v>495677000</v>
+      </c>
+      <c r="F116">
+        <v>294506000</v>
+      </c>
+      <c r="G116">
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="H116">
+        <v>48800</v>
+      </c>
+      <c r="I116">
+        <v>790183000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-26T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7510094029000</v>
+      </c>
+      <c r="L116">
+        <v>482216500</v>
+      </c>
+      <c r="M116">
+        <v>-20200</v>
+      </c>
+      <c r="N116">
+        <v>-201171000</v>
+      </c>
+      <c r="O116">
+        <v>-148146900</v>
+      </c>
+      <c r="P116">
+        <v>-2261064931000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672065240000</v>
+      </c>
+      <c r="B117">
+        <v>1600</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>15680000.000000002</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1600</v>
+      </c>
+      <c r="I117">
+        <v>15680000.000000002</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-26T14:34:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>7510109709000</v>
+      </c>
+      <c r="L117">
+        <v>482218100</v>
+      </c>
+      <c r="M117">
+        <v>-1600</v>
+      </c>
+      <c r="N117">
+        <v>-15680000.000000002</v>
+      </c>
+      <c r="O117">
+        <v>-148148500</v>
+      </c>
+      <c r="P117">
+        <v>-2261080611000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672065480000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>990000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>100</v>
+      </c>
+      <c r="I118">
+        <v>990000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-26T14:38:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>7510110699000</v>
+      </c>
+      <c r="L118">
+        <v>482218200</v>
+      </c>
+      <c r="M118">
+        <v>100</v>
+      </c>
+      <c r="N118">
+        <v>990000</v>
+      </c>
+      <c r="O118">
+        <v>-148148400</v>
+      </c>
+      <c r="P118">
+        <v>-2261079621000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672065840000</v>
+      </c>
+      <c r="B119">
+        <v>10615900</v>
+      </c>
+      <c r="C119">
+        <v>19728200</v>
+      </c>
+      <c r="D119">
+        <v>20622900</v>
+      </c>
+      <c r="E119">
+        <v>221874737000</v>
+      </c>
+      <c r="F119">
+        <v>408697814000</v>
+      </c>
+      <c r="G119">
+        <v>324279443000</v>
+      </c>
+      <c r="H119">
+        <v>50967000</v>
+      </c>
+      <c r="I119">
+        <v>954851994000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-26T14:44:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>8464962693000</v>
+      </c>
+      <c r="L119">
+        <v>533185200</v>
+      </c>
+      <c r="M119">
+        <v>9112300</v>
+      </c>
+      <c r="N119">
+        <v>186823077000</v>
+      </c>
+      <c r="O119">
+        <v>-139036100</v>
+      </c>
+      <c r="P119">
+        <v>-2074256544000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672065960000</v>
+      </c>
+      <c r="B120">
+        <v>33300</v>
+      </c>
+      <c r="C120">
+        <v>5700</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>320960000</v>
+      </c>
+      <c r="F120">
+        <v>54580000</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>39000</v>
+      </c>
+      <c r="I120">
+        <v>375540000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-26T14:46:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>8465338233000</v>
+      </c>
+      <c r="L120">
+        <v>533224200</v>
+      </c>
+      <c r="M120">
+        <v>-27600</v>
+      </c>
+      <c r="N120">
+        <v>-266380000</v>
+      </c>
+      <c r="O120">
+        <v>-139063700</v>
+      </c>
+      <c r="P120">
+        <v>-2074522924000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672066200000</v>
+      </c>
+      <c r="B121">
+        <v>500</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>4700000</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>500</v>
+      </c>
+      <c r="I121">
+        <v>4700000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-26T14:50:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>8465342933000</v>
+      </c>
+      <c r="L121">
+        <v>533224700</v>
+      </c>
+      <c r="M121">
+        <v>-500</v>
+      </c>
+      <c r="N121">
+        <v>-4700000</v>
+      </c>
+      <c r="O121">
+        <v>-139064200</v>
+      </c>
+      <c r="P121">
+        <v>-2074527624000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672066560000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
         <v>600</v>
       </c>
-      <c r="E52">
+      <c r="E122">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F122">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G122">
         <v>5880000</v>
       </c>
-      <c r="H52">
+      <c r="H122">
         <v>600</v>
       </c>
-      <c r="I52">
+      <c r="I122">
         <v>5880000</v>
       </c>
-      <c r="J52" t="str">
-        <v>2022-12-26T14:55:00.000Z</v>
-      </c>
-      <c r="K52">
+      <c r="J122" t="str">
+        <v>2022-12-26T14:56:00.000Z</v>
+      </c>
+      <c r="K122">
         <v>8465348813000</v>
       </c>
-      <c r="L52">
+      <c r="L122">
         <v>533225300</v>
       </c>
-      <c r="M52">
+      <c r="M122">
         <v>0</v>
       </c>
-      <c r="N52">
+      <c r="N122">
         <v>0</v>
       </c>
-      <c r="O52">
+      <c r="O122">
         <v>-139064200</v>
       </c>
-      <c r="P52">
+      <c r="P122">
         <v>-2074527624000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221226/VNINDEX_HOSE_5p_20221226.xlsx
+++ b/name/vnindex/20221226/VNINDEX_HOSE_5p_20221226.xlsx
@@ -466,25 +466,25 @@
         <v>1117300</v>
       </c>
       <c r="E2">
-        <v>23661182000</v>
+        <v>23052291500</v>
       </c>
       <c r="F2">
-        <v>25395174000</v>
+        <v>23789581200</v>
       </c>
       <c r="G2">
-        <v>15397376000</v>
+        <v>14316757700</v>
       </c>
       <c r="H2">
         <v>4324500</v>
       </c>
       <c r="I2">
-        <v>64453732000</v>
+        <v>61158630400</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-26T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>64453732000</v>
+        <v>61158630400</v>
       </c>
       <c r="L2">
         <v>4324500</v>
@@ -493,13 +493,13 @@
         <v>-164600</v>
       </c>
       <c r="N2">
-        <v>1733992000</v>
+        <v>737289700</v>
       </c>
       <c r="O2">
         <v>-164600</v>
       </c>
       <c r="P2">
-        <v>1733992000</v>
+        <v>737289700</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>26000</v>
       </c>
       <c r="E3">
-        <v>21655266000</v>
+        <v>20118304500</v>
       </c>
       <c r="F3">
-        <v>21112018000</v>
+        <v>19490041600</v>
       </c>
       <c r="G3">
         <v>382844000</v>
@@ -528,13 +528,13 @@
         <v>2747700</v>
       </c>
       <c r="I3">
-        <v>43150128000</v>
+        <v>39991190100</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-26T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>107603860000</v>
+        <v>101149820500</v>
       </c>
       <c r="L3">
         <v>7072200</v>
@@ -543,13 +543,13 @@
         <v>75700</v>
       </c>
       <c r="N3">
-        <v>-543248000</v>
+        <v>-628262900</v>
       </c>
       <c r="O3">
         <v>-88900</v>
       </c>
       <c r="P3">
-        <v>1190744000</v>
+        <v>109026800</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>39700</v>
       </c>
       <c r="E4">
-        <v>18709771000</v>
+        <v>17863118500</v>
       </c>
       <c r="F4">
-        <v>19133625000</v>
+        <v>17927632200</v>
       </c>
       <c r="G4">
         <v>784590000</v>
@@ -578,13 +578,13 @@
         <v>2407000</v>
       </c>
       <c r="I4">
-        <v>38627986000</v>
+        <v>36575340700</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-26T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>146231846000</v>
+        <v>137725161200</v>
       </c>
       <c r="L4">
         <v>9479200</v>
@@ -593,13 +593,13 @@
         <v>85100</v>
       </c>
       <c r="N4">
-        <v>423854000</v>
+        <v>64513700</v>
       </c>
       <c r="O4">
         <v>-3800</v>
       </c>
       <c r="P4">
-        <v>1614598000</v>
+        <v>173540500</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>36400</v>
       </c>
       <c r="E5">
-        <v>18581613000</v>
+        <v>17586609000</v>
       </c>
       <c r="F5">
-        <v>23506840000</v>
+        <v>21707641000</v>
       </c>
       <c r="G5">
         <v>805155000</v>
@@ -628,13 +628,13 @@
         <v>2528600</v>
       </c>
       <c r="I5">
-        <v>42893608000</v>
+        <v>40099405000</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-26T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>189125454000</v>
+        <v>177824566200</v>
       </c>
       <c r="L5">
         <v>12007800</v>
@@ -643,13 +643,13 @@
         <v>123800</v>
       </c>
       <c r="N5">
-        <v>4925227000</v>
+        <v>4121032000</v>
       </c>
       <c r="O5">
         <v>120000</v>
       </c>
       <c r="P5">
-        <v>6539825000</v>
+        <v>4294572500</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>16300</v>
       </c>
       <c r="E6">
-        <v>13969063000</v>
+        <v>13088844100</v>
       </c>
       <c r="F6">
-        <v>18821883000</v>
+        <v>17237469000</v>
       </c>
       <c r="G6">
         <v>228100000</v>
@@ -678,13 +678,13 @@
         <v>2249800</v>
       </c>
       <c r="I6">
-        <v>33019046000</v>
+        <v>30554413100</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-26T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>222144500000</v>
+        <v>208378979300</v>
       </c>
       <c r="L6">
         <v>14257600</v>
@@ -693,13 +693,13 @@
         <v>353100</v>
       </c>
       <c r="N6">
-        <v>4852820000</v>
+        <v>4148624900</v>
       </c>
       <c r="O6">
         <v>473100</v>
       </c>
       <c r="P6">
-        <v>11392645000</v>
+        <v>8443197400</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>18600</v>
       </c>
       <c r="E7">
-        <v>14545522000</v>
+        <v>13601866600</v>
       </c>
       <c r="F7">
-        <v>9878227000</v>
+        <v>9351154600</v>
       </c>
       <c r="G7">
-        <v>232975000</v>
+        <v>212195800</v>
       </c>
       <c r="H7">
         <v>1805500</v>
       </c>
       <c r="I7">
-        <v>24656724000</v>
+        <v>23165217000</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-26T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>246801224000</v>
+        <v>231544196300</v>
       </c>
       <c r="L7">
         <v>16063100</v>
@@ -743,13 +743,13 @@
         <v>-560900</v>
       </c>
       <c r="N7">
-        <v>-4667295000</v>
+        <v>-4250712000</v>
       </c>
       <c r="O7">
         <v>-87800</v>
       </c>
       <c r="P7">
-        <v>6725350000</v>
+        <v>4192485400</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>8000</v>
       </c>
       <c r="E8">
-        <v>19658416000</v>
+        <v>18813262000</v>
       </c>
       <c r="F8">
-        <v>11801660000</v>
+        <v>10544818100</v>
       </c>
       <c r="G8">
         <v>109998000</v>
@@ -778,13 +778,13 @@
         <v>2023700</v>
       </c>
       <c r="I8">
-        <v>31570074000</v>
+        <v>29468078100</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-26T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>278371298000</v>
+        <v>261012274400</v>
       </c>
       <c r="L8">
         <v>18086800</v>
@@ -793,13 +793,13 @@
         <v>-650700</v>
       </c>
       <c r="N8">
-        <v>-7856756000</v>
+        <v>-8268443900</v>
       </c>
       <c r="O8">
         <v>-738500</v>
       </c>
       <c r="P8">
-        <v>-1131406000</v>
+        <v>-4075958500</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>16500</v>
       </c>
       <c r="E9">
-        <v>28960441000</v>
+        <v>27624178600</v>
       </c>
       <c r="F9">
-        <v>16792283000</v>
+        <v>10345636100</v>
       </c>
       <c r="G9">
         <v>207205000</v>
@@ -828,13 +828,13 @@
         <v>2759300</v>
       </c>
       <c r="I9">
-        <v>45959929000</v>
+        <v>38177019700</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-26T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>324331227000</v>
+        <v>299189294100</v>
       </c>
       <c r="L9">
         <v>20846100</v>
@@ -843,13 +843,13 @@
         <v>-1041200</v>
       </c>
       <c r="N9">
-        <v>-12168158000</v>
+        <v>-17278542500</v>
       </c>
       <c r="O9">
         <v>-1779700</v>
       </c>
       <c r="P9">
-        <v>-13299564000</v>
+        <v>-21354501000</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>1400</v>
       </c>
       <c r="E10">
-        <v>55881920000</v>
+        <v>45716495600</v>
       </c>
       <c r="F10">
-        <v>11087781000</v>
+        <v>9375694800</v>
       </c>
       <c r="G10">
-        <v>36955000</v>
+        <v>13578400</v>
       </c>
       <c r="H10">
         <v>4055700</v>
       </c>
       <c r="I10">
-        <v>67006656000</v>
+        <v>55105768800</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-26T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>391337883000</v>
+        <v>354295062900</v>
       </c>
       <c r="L10">
         <v>24901800</v>
@@ -893,13 +893,13 @@
         <v>-2390500</v>
       </c>
       <c r="N10">
-        <v>-44794139000</v>
+        <v>-36340800800</v>
       </c>
       <c r="O10">
         <v>-4170200</v>
       </c>
       <c r="P10">
-        <v>-58093703000</v>
+        <v>-57695301800</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>15100</v>
       </c>
       <c r="E11">
-        <v>30322983000</v>
+        <v>27714594000</v>
       </c>
       <c r="F11">
-        <v>22001913000</v>
+        <v>21282233400</v>
       </c>
       <c r="G11">
         <v>221027000</v>
@@ -928,13 +928,13 @@
         <v>3614300</v>
       </c>
       <c r="I11">
-        <v>52545923000</v>
+        <v>49217854400</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-26T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>443883806000</v>
+        <v>403512917300</v>
       </c>
       <c r="L11">
         <v>28516100</v>
@@ -943,13 +943,13 @@
         <v>-538200</v>
       </c>
       <c r="N11">
-        <v>-8321070000</v>
+        <v>-6432360600</v>
       </c>
       <c r="O11">
         <v>-4708400</v>
       </c>
       <c r="P11">
-        <v>-66414773000</v>
+        <v>-64127662400</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>5700</v>
       </c>
       <c r="E12">
-        <v>24420384000</v>
+        <v>22102604100</v>
       </c>
       <c r="F12">
-        <v>14353788000</v>
+        <v>13502540100</v>
       </c>
       <c r="G12">
-        <v>89465000</v>
+        <v>26528000</v>
       </c>
       <c r="H12">
         <v>2692600</v>
       </c>
       <c r="I12">
-        <v>38863637000</v>
+        <v>35631672200</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-26T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>482747443000</v>
+        <v>439144589500</v>
       </c>
       <c r="L12">
         <v>31208700</v>
@@ -993,13 +993,13 @@
         <v>-642100</v>
       </c>
       <c r="N12">
-        <v>-10066596000</v>
+        <v>-8600064000</v>
       </c>
       <c r="O12">
         <v>-5350500</v>
       </c>
       <c r="P12">
-        <v>-76481369000</v>
+        <v>-72727726400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>9900</v>
       </c>
       <c r="E13">
-        <v>19922286000</v>
+        <v>18309700200</v>
       </c>
       <c r="F13">
-        <v>14721709000</v>
+        <v>13697134600</v>
       </c>
       <c r="G13">
         <v>130590000</v>
@@ -1028,13 +1028,13 @@
         <v>2387800</v>
       </c>
       <c r="I13">
-        <v>34774585000</v>
+        <v>32137424800</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-26T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>517522028000</v>
+        <v>471282014300</v>
       </c>
       <c r="L13">
         <v>33596500</v>
@@ -1043,13 +1043,13 @@
         <v>-322500</v>
       </c>
       <c r="N13">
-        <v>-5200577000</v>
+        <v>-4612565600</v>
       </c>
       <c r="O13">
         <v>-5673000</v>
       </c>
       <c r="P13">
-        <v>-81681946000</v>
+        <v>-77340292000</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>16800</v>
       </c>
       <c r="E14">
-        <v>24848918000</v>
+        <v>22001967800</v>
       </c>
       <c r="F14">
-        <v>15011058000</v>
+        <v>14519450100</v>
       </c>
       <c r="G14">
-        <v>410787000</v>
+        <v>256841100</v>
       </c>
       <c r="H14">
         <v>2658200</v>
       </c>
       <c r="I14">
-        <v>40270763000</v>
+        <v>36778259000</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-26T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>557792791000</v>
+        <v>508060273300</v>
       </c>
       <c r="L14">
         <v>36254700</v>
@@ -1093,13 +1093,13 @@
         <v>-633800</v>
       </c>
       <c r="N14">
-        <v>-9837860000</v>
+        <v>-7482517700</v>
       </c>
       <c r="O14">
         <v>-6306800</v>
       </c>
       <c r="P14">
-        <v>-91519806000</v>
+        <v>-84822809700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>16400</v>
       </c>
       <c r="E15">
-        <v>72511092000</v>
+        <v>58981335300</v>
       </c>
       <c r="F15">
-        <v>13222447000</v>
+        <v>11997473200</v>
       </c>
       <c r="G15">
-        <v>353250000</v>
+        <v>342360900</v>
       </c>
       <c r="H15">
         <v>4921500</v>
       </c>
       <c r="I15">
-        <v>86086789000</v>
+        <v>71321169400</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-26T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>643879580000</v>
+        <v>579381442700</v>
       </c>
       <c r="L15">
         <v>41176200</v>
@@ -1143,13 +1143,13 @@
         <v>-2951700</v>
       </c>
       <c r="N15">
-        <v>-59288645000</v>
+        <v>-46983862100</v>
       </c>
       <c r="O15">
         <v>-9258500</v>
       </c>
       <c r="P15">
-        <v>-150808451000</v>
+        <v>-131806671800</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>21500</v>
       </c>
       <c r="E16">
-        <v>46581651000</v>
+        <v>43616319300</v>
       </c>
       <c r="F16">
-        <v>11900887000</v>
+        <v>8770120900</v>
       </c>
       <c r="G16">
-        <v>324381000</v>
+        <v>220085400</v>
       </c>
       <c r="H16">
         <v>3974200</v>
       </c>
       <c r="I16">
-        <v>58806919000</v>
+        <v>52606525600</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-26T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>702686499000</v>
+        <v>631987968300</v>
       </c>
       <c r="L16">
         <v>45150400</v>
@@ -1193,13 +1193,13 @@
         <v>-2341500</v>
       </c>
       <c r="N16">
-        <v>-34680764000</v>
+        <v>-34846198400</v>
       </c>
       <c r="O16">
         <v>-11600000</v>
       </c>
       <c r="P16">
-        <v>-185489215000</v>
+        <v>-166652870200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>21200</v>
       </c>
       <c r="E17">
-        <v>49650542000</v>
+        <v>45766529900</v>
       </c>
       <c r="F17">
-        <v>21968725000</v>
+        <v>20754340600</v>
       </c>
       <c r="G17">
         <v>350688000</v>
@@ -1228,13 +1228,13 @@
         <v>4339800</v>
       </c>
       <c r="I17">
-        <v>71969955000</v>
+        <v>66871558500</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-26T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>774656454000</v>
+        <v>698859526800</v>
       </c>
       <c r="L17">
         <v>49490200</v>
@@ -1243,13 +1243,13 @@
         <v>-1446400</v>
       </c>
       <c r="N17">
-        <v>-27681817000</v>
+        <v>-25012189300</v>
       </c>
       <c r="O17">
         <v>-13046400</v>
       </c>
       <c r="P17">
-        <v>-213171032000</v>
+        <v>-191665059500</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>5000</v>
       </c>
       <c r="E18">
-        <v>39956325000</v>
+        <v>39383098800</v>
       </c>
       <c r="F18">
-        <v>17334329000</v>
+        <v>16887476300</v>
       </c>
       <c r="G18">
         <v>51333000</v>
@@ -1278,13 +1278,13 @@
         <v>3647400</v>
       </c>
       <c r="I18">
-        <v>57341987000</v>
+        <v>56321908100</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-26T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>831998441000</v>
+        <v>755181434900</v>
       </c>
       <c r="L18">
         <v>53137600</v>
@@ -1293,13 +1293,13 @@
         <v>-1399600</v>
       </c>
       <c r="N18">
-        <v>-22621996000</v>
+        <v>-22495622500</v>
       </c>
       <c r="O18">
         <v>-14446000</v>
       </c>
       <c r="P18">
-        <v>-235793028000</v>
+        <v>-214160682000</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>3700</v>
       </c>
       <c r="E19">
-        <v>16477054000</v>
+        <v>15449782300</v>
       </c>
       <c r="F19">
-        <v>31203112000</v>
+        <v>26581937800</v>
       </c>
       <c r="G19">
         <v>69931000</v>
@@ -1328,13 +1328,13 @@
         <v>3127400</v>
       </c>
       <c r="I19">
-        <v>47750097000</v>
+        <v>42101651100</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-26T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>879748538000</v>
+        <v>797283086000</v>
       </c>
       <c r="L19">
         <v>56265000</v>
@@ -1343,13 +1343,13 @@
         <v>859900</v>
       </c>
       <c r="N19">
-        <v>14726058000</v>
+        <v>11132155500</v>
       </c>
       <c r="O19">
         <v>-13586100</v>
       </c>
       <c r="P19">
-        <v>-221066970000</v>
+        <v>-203028526500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>16400</v>
       </c>
       <c r="E20">
-        <v>15415820000</v>
+        <v>14249387600</v>
       </c>
       <c r="F20">
-        <v>34414894000</v>
+        <v>30933478900</v>
       </c>
       <c r="G20">
-        <v>386488000</v>
+        <v>293481100</v>
       </c>
       <c r="H20">
         <v>2989500</v>
       </c>
       <c r="I20">
-        <v>50217202000</v>
+        <v>45476347600</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-26T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>929965740000</v>
+        <v>842759433600</v>
       </c>
       <c r="L20">
         <v>59254500</v>
@@ -1393,13 +1393,13 @@
         <v>1155300</v>
       </c>
       <c r="N20">
-        <v>18999074000</v>
+        <v>16684091300</v>
       </c>
       <c r="O20">
         <v>-12430800</v>
       </c>
       <c r="P20">
-        <v>-202067896000</v>
+        <v>-186344435200</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>52500</v>
       </c>
       <c r="E21">
-        <v>23473821000</v>
+        <v>21190706400</v>
       </c>
       <c r="F21">
-        <v>25453723000</v>
+        <v>22012068100</v>
       </c>
       <c r="G21">
-        <v>544299000</v>
+        <v>530912399.99999994</v>
       </c>
       <c r="H21">
         <v>2829000</v>
       </c>
       <c r="I21">
-        <v>49471843000</v>
+        <v>43733686900</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-26T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>979437583000</v>
+        <v>886493120500</v>
       </c>
       <c r="L21">
         <v>62083500</v>
@@ -1443,13 +1443,13 @@
         <v>372900</v>
       </c>
       <c r="N21">
-        <v>1979902000</v>
+        <v>821361700</v>
       </c>
       <c r="O21">
         <v>-12057900</v>
       </c>
       <c r="P21">
-        <v>-200087994000</v>
+        <v>-185523073500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>18000</v>
       </c>
       <c r="E22">
-        <v>20742510000</v>
+        <v>15247510500</v>
       </c>
       <c r="F22">
-        <v>17497849000</v>
+        <v>16030617700</v>
       </c>
       <c r="G22">
         <v>327382000</v>
@@ -1478,13 +1478,13 @@
         <v>2272700</v>
       </c>
       <c r="I22">
-        <v>38567741000</v>
+        <v>31605510200</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-26T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1018005324000</v>
+        <v>918098630700</v>
       </c>
       <c r="L22">
         <v>64356200</v>
@@ -1493,13 +1493,13 @@
         <v>-240700</v>
       </c>
       <c r="N22">
-        <v>-3244661000</v>
+        <v>783107200</v>
       </c>
       <c r="O22">
         <v>-12298600</v>
       </c>
       <c r="P22">
-        <v>-203332655000</v>
+        <v>-184739966300</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>11400</v>
       </c>
       <c r="E23">
-        <v>10991644000</v>
+        <v>10258178200</v>
       </c>
       <c r="F23">
-        <v>13256364000</v>
+        <v>11490431700</v>
       </c>
       <c r="G23">
         <v>162490000</v>
@@ -1528,13 +1528,13 @@
         <v>1502600</v>
       </c>
       <c r="I23">
-        <v>24410498000</v>
+        <v>21911099900</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-26T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1042415822000</v>
+        <v>940009730600</v>
       </c>
       <c r="L23">
         <v>65858800</v>
@@ -1543,13 +1543,13 @@
         <v>213200</v>
       </c>
       <c r="N23">
-        <v>2264720000</v>
+        <v>1232253500</v>
       </c>
       <c r="O23">
         <v>-12085400</v>
       </c>
       <c r="P23">
-        <v>-201067935000</v>
+        <v>-183507712800</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>19900</v>
       </c>
       <c r="E24">
-        <v>21270876000</v>
+        <v>17212138800</v>
       </c>
       <c r="F24">
-        <v>17829261000</v>
+        <v>15017175900</v>
       </c>
       <c r="G24">
         <v>268624000</v>
@@ -1578,13 +1578,13 @@
         <v>2201900</v>
       </c>
       <c r="I24">
-        <v>39368761000</v>
+        <v>32497938700</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-26T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1081784583000</v>
+        <v>972507669300</v>
       </c>
       <c r="L24">
         <v>68060700</v>
@@ -1593,13 +1593,13 @@
         <v>218400</v>
       </c>
       <c r="N24">
-        <v>-3441615000</v>
+        <v>-2194962900</v>
       </c>
       <c r="O24">
         <v>-11867000</v>
       </c>
       <c r="P24">
-        <v>-204509550000</v>
+        <v>-185702675700</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>200</v>
       </c>
       <c r="E25">
-        <v>24676957000</v>
+        <v>23424310900</v>
       </c>
       <c r="F25">
-        <v>13385361000</v>
+        <v>11271776700</v>
       </c>
       <c r="G25">
         <v>15980000.000000002</v>
@@ -1628,13 +1628,13 @@
         <v>2257600</v>
       </c>
       <c r="I25">
-        <v>38078298000</v>
+        <v>34712067600</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-26T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1119862881000</v>
+        <v>1007219736900</v>
       </c>
       <c r="L25">
         <v>70318300</v>
@@ -1643,13 +1643,13 @@
         <v>-611600</v>
       </c>
       <c r="N25">
-        <v>-11291596000</v>
+        <v>-12152534200</v>
       </c>
       <c r="O25">
         <v>-12478600</v>
       </c>
       <c r="P25">
-        <v>-215801146000</v>
+        <v>-197855209900</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>10500</v>
       </c>
       <c r="E26">
-        <v>14781264000</v>
+        <v>13978068000</v>
       </c>
       <c r="F26">
-        <v>10827810000</v>
+        <v>10465672500</v>
       </c>
       <c r="G26">
         <v>189515000</v>
@@ -1678,13 +1678,13 @@
         <v>1624800</v>
       </c>
       <c r="I26">
-        <v>25798589000</v>
+        <v>24633255500</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-26T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1145661470000</v>
+        <v>1031852992400</v>
       </c>
       <c r="L26">
         <v>71943100</v>
@@ -1693,13 +1693,13 @@
         <v>-314900</v>
       </c>
       <c r="N26">
-        <v>-3953454000</v>
+        <v>-3512395500</v>
       </c>
       <c r="O26">
         <v>-12793500</v>
       </c>
       <c r="P26">
-        <v>-219754600000</v>
+        <v>-201367605400</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>7000</v>
       </c>
       <c r="E27">
-        <v>15026621000</v>
+        <v>14411536700</v>
       </c>
       <c r="F27">
-        <v>12775633000</v>
+        <v>11660948800</v>
       </c>
       <c r="G27">
         <v>134016000</v>
@@ -1728,13 +1728,13 @@
         <v>1718700</v>
       </c>
       <c r="I27">
-        <v>27936270000</v>
+        <v>26206501500</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-26T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1173597740000</v>
+        <v>1058059493900</v>
       </c>
       <c r="L27">
         <v>73661800</v>
@@ -1743,13 +1743,13 @@
         <v>-330100</v>
       </c>
       <c r="N27">
-        <v>-2250988000</v>
+        <v>-2750587900</v>
       </c>
       <c r="O27">
         <v>-13123600</v>
       </c>
       <c r="P27">
-        <v>-222005588000</v>
+        <v>-204118193300</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>10800</v>
       </c>
       <c r="E28">
-        <v>12184170000</v>
+        <v>10794760800</v>
       </c>
       <c r="F28">
-        <v>16630499000</v>
+        <v>14400231500</v>
       </c>
       <c r="G28">
         <v>45667000</v>
@@ -1778,13 +1778,13 @@
         <v>1495600</v>
       </c>
       <c r="I28">
-        <v>28860336000</v>
+        <v>25240659300</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-26T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1202458076000</v>
+        <v>1083300153200</v>
       </c>
       <c r="L28">
         <v>75157400</v>
@@ -1793,13 +1793,13 @@
         <v>231200</v>
       </c>
       <c r="N28">
-        <v>4446329000</v>
+        <v>3605470700</v>
       </c>
       <c r="O28">
         <v>-12892400</v>
       </c>
       <c r="P28">
-        <v>-217559259000</v>
+        <v>-200512722600</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>900</v>
       </c>
       <c r="E29">
-        <v>10383846000</v>
+        <v>10153077000</v>
       </c>
       <c r="F29">
-        <v>21927760000</v>
+        <v>19934655100</v>
       </c>
       <c r="G29">
         <v>11410000</v>
@@ -1828,13 +1828,13 @@
         <v>1743400</v>
       </c>
       <c r="I29">
-        <v>32323016000</v>
+        <v>30099142100</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-26T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1234781092000</v>
+        <v>1113399295300</v>
       </c>
       <c r="L29">
         <v>76900800</v>
@@ -1843,13 +1843,13 @@
         <v>485700</v>
       </c>
       <c r="N29">
-        <v>11543914000</v>
+        <v>9781578100</v>
       </c>
       <c r="O29">
         <v>-12406700</v>
       </c>
       <c r="P29">
-        <v>-206015345000</v>
+        <v>-190731144500</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>3900</v>
       </c>
       <c r="E30">
-        <v>16165821000</v>
+        <v>15791895300</v>
       </c>
       <c r="F30">
-        <v>17060260000</v>
+        <v>16172448700</v>
       </c>
       <c r="G30">
-        <v>55686000</v>
+        <v>46395300</v>
       </c>
       <c r="H30">
         <v>1920200</v>
       </c>
       <c r="I30">
-        <v>33281767000</v>
+        <v>32010739300</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-26T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1268062859000</v>
+        <v>1145410034600</v>
       </c>
       <c r="L30">
         <v>78821000</v>
@@ -1893,13 +1893,13 @@
         <v>126300</v>
       </c>
       <c r="N30">
-        <v>894439000</v>
+        <v>380553400</v>
       </c>
       <c r="O30">
         <v>-12280400</v>
       </c>
       <c r="P30">
-        <v>-205120906000</v>
+        <v>-190350591100</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>10200</v>
       </c>
       <c r="E31">
-        <v>24635509000</v>
+        <v>22827818500</v>
       </c>
       <c r="F31">
-        <v>10713161000</v>
+        <v>9806568500</v>
       </c>
       <c r="G31">
         <v>161259000</v>
@@ -1928,13 +1928,13 @@
         <v>2009800</v>
       </c>
       <c r="I31">
-        <v>35509929000</v>
+        <v>32795646000</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-26T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1303572788000</v>
+        <v>1178205680600</v>
       </c>
       <c r="L31">
         <v>80830800</v>
@@ -1943,13 +1943,13 @@
         <v>-670000</v>
       </c>
       <c r="N31">
-        <v>-13922348000</v>
+        <v>-13021250000</v>
       </c>
       <c r="O31">
         <v>-12950400</v>
       </c>
       <c r="P31">
-        <v>-219043254000</v>
+        <v>-203371841100</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>5000</v>
       </c>
       <c r="E32">
-        <v>13748336000</v>
+        <v>13034550500</v>
       </c>
       <c r="F32">
-        <v>7345019000</v>
+        <v>7267196900</v>
       </c>
       <c r="G32">
         <v>68250000</v>
@@ -1978,13 +1978,13 @@
         <v>1328400</v>
       </c>
       <c r="I32">
-        <v>21161605000</v>
+        <v>20369997400</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-26T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1324734393000</v>
+        <v>1198575678000</v>
       </c>
       <c r="L32">
         <v>82159200</v>
@@ -1993,13 +1993,13 @@
         <v>-412800</v>
       </c>
       <c r="N32">
-        <v>-6403317000</v>
+        <v>-5767353600</v>
       </c>
       <c r="O32">
         <v>-13363200</v>
       </c>
       <c r="P32">
-        <v>-225446571000</v>
+        <v>-209139194700</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>7300</v>
       </c>
       <c r="E33">
-        <v>33235846000</v>
+        <v>27624463000</v>
       </c>
       <c r="F33">
-        <v>11584925000</v>
+        <v>9056655800</v>
       </c>
       <c r="G33">
-        <v>240375000</v>
+        <v>102513000</v>
       </c>
       <c r="H33">
         <v>2452200</v>
       </c>
       <c r="I33">
-        <v>45061146000</v>
+        <v>36783631800</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-26T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1369795539000</v>
+        <v>1235359309800</v>
       </c>
       <c r="L33">
         <v>84611400</v>
@@ -2043,13 +2043,13 @@
         <v>-885500</v>
       </c>
       <c r="N33">
-        <v>-21650921000</v>
+        <v>-18567807200</v>
       </c>
       <c r="O33">
         <v>-14248700</v>
       </c>
       <c r="P33">
-        <v>-247097492000</v>
+        <v>-227707001900</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>19800</v>
       </c>
       <c r="E34">
-        <v>33011644000</v>
+        <v>27942618100</v>
       </c>
       <c r="F34">
-        <v>4891700000</v>
+        <v>4331161100</v>
       </c>
       <c r="G34">
         <v>178299000</v>
@@ -2078,13 +2078,13 @@
         <v>2527300</v>
       </c>
       <c r="I34">
-        <v>38081643000</v>
+        <v>32452078200</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-26T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1407877182000</v>
+        <v>1267811388000</v>
       </c>
       <c r="L34">
         <v>87138700</v>
@@ -2093,13 +2093,13 @@
         <v>-1768700</v>
       </c>
       <c r="N34">
-        <v>-28119944000</v>
+        <v>-23611457000</v>
       </c>
       <c r="O34">
         <v>-16017400</v>
       </c>
       <c r="P34">
-        <v>-275217436000</v>
+        <v>-251318458900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>5400</v>
       </c>
       <c r="E35">
-        <v>23373623000</v>
+        <v>20351747900</v>
       </c>
       <c r="F35">
-        <v>7151757000</v>
+        <v>7083525300</v>
       </c>
       <c r="G35">
         <v>135155000</v>
@@ -2128,13 +2128,13 @@
         <v>1947900</v>
       </c>
       <c r="I35">
-        <v>30660535000</v>
+        <v>27570428200</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-26T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1438537717000</v>
+        <v>1295381816200</v>
       </c>
       <c r="L35">
         <v>89086600</v>
@@ -2143,13 +2143,13 @@
         <v>-1097900</v>
       </c>
       <c r="N35">
-        <v>-16221866000</v>
+        <v>-13268222600</v>
       </c>
       <c r="O35">
         <v>-17115300</v>
       </c>
       <c r="P35">
-        <v>-291439302000</v>
+        <v>-264586681500</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>33500</v>
       </c>
       <c r="E36">
-        <v>46287586000</v>
+        <v>40630448800</v>
       </c>
       <c r="F36">
-        <v>12150726000</v>
+        <v>11374802700</v>
       </c>
       <c r="G36">
         <v>147334000</v>
@@ -2178,13 +2178,13 @@
         <v>3489800</v>
       </c>
       <c r="I36">
-        <v>58585646000</v>
+        <v>52152585500</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-26T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1497123363000</v>
+        <v>1347534401700</v>
       </c>
       <c r="L36">
         <v>92576400</v>
@@ -2193,13 +2193,13 @@
         <v>-1965900</v>
       </c>
       <c r="N36">
-        <v>-34136860000</v>
+        <v>-29255646100</v>
       </c>
       <c r="O36">
         <v>-19081200</v>
       </c>
       <c r="P36">
-        <v>-325576162000</v>
+        <v>-293842327600</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>26000</v>
       </c>
       <c r="E37">
-        <v>54705664000</v>
+        <v>53497873000</v>
       </c>
       <c r="F37">
-        <v>8285067000</v>
+        <v>6361892100</v>
       </c>
       <c r="G37">
         <v>538455000</v>
@@ -2228,13 +2228,13 @@
         <v>3694800</v>
       </c>
       <c r="I37">
-        <v>63529186000</v>
+        <v>60398220100</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-26T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1560652549000</v>
+        <v>1407932621800</v>
       </c>
       <c r="L37">
         <v>96271200</v>
@@ -2243,13 +2243,13 @@
         <v>-2530600</v>
       </c>
       <c r="N37">
-        <v>-46420597000</v>
+        <v>-47135980900</v>
       </c>
       <c r="O37">
         <v>-21611800</v>
       </c>
       <c r="P37">
-        <v>-371996759000</v>
+        <v>-340978308500</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>20300</v>
       </c>
       <c r="E38">
-        <v>33273400000</v>
+        <v>28550927200</v>
       </c>
       <c r="F38">
-        <v>15727286000</v>
+        <v>11208809000</v>
       </c>
       <c r="G38">
-        <v>279450000</v>
+        <v>81648000</v>
       </c>
       <c r="H38">
         <v>3346500</v>
       </c>
       <c r="I38">
-        <v>49280136000</v>
+        <v>39841384200</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-26T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1609932685000</v>
+        <v>1447774006000</v>
       </c>
       <c r="L38">
         <v>99617700</v>
@@ -2293,13 +2293,13 @@
         <v>-1292000</v>
       </c>
       <c r="N38">
-        <v>-17546114000</v>
+        <v>-17342118200</v>
       </c>
       <c r="O38">
         <v>-22903800</v>
       </c>
       <c r="P38">
-        <v>-389542873000</v>
+        <v>-358320426700</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>4600</v>
       </c>
       <c r="E39">
-        <v>31627788000</v>
+        <v>30555261600</v>
       </c>
       <c r="F39">
-        <v>15303218000</v>
+        <v>14661860000</v>
       </c>
       <c r="G39">
         <v>93510000</v>
@@ -2328,13 +2328,13 @@
         <v>3195200</v>
       </c>
       <c r="I39">
-        <v>47024516000</v>
+        <v>45310631600</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-26T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1656957201000</v>
+        <v>1493084637600</v>
       </c>
       <c r="L39">
         <v>102812900</v>
@@ -2343,13 +2343,13 @@
         <v>-1179000</v>
       </c>
       <c r="N39">
-        <v>-16324570000</v>
+        <v>-15893401600</v>
       </c>
       <c r="O39">
         <v>-24082800</v>
       </c>
       <c r="P39">
-        <v>-405867443000</v>
+        <v>-374213828300</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>12700</v>
       </c>
       <c r="E40">
-        <v>18087095000</v>
+        <v>17587994600</v>
       </c>
       <c r="F40">
-        <v>20570979000</v>
+        <v>16977975600</v>
       </c>
       <c r="G40">
         <v>169826000</v>
@@ -2378,13 +2378,13 @@
         <v>2480000</v>
       </c>
       <c r="I40">
-        <v>38827900000</v>
+        <v>34735796200</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-26T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1695785101000</v>
+        <v>1527820433800</v>
       </c>
       <c r="L40">
         <v>105292900</v>
@@ -2393,13 +2393,13 @@
         <v>-4100</v>
       </c>
       <c r="N40">
-        <v>2483884000</v>
+        <v>-610019000</v>
       </c>
       <c r="O40">
         <v>-24086900</v>
       </c>
       <c r="P40">
-        <v>-403383559000</v>
+        <v>-374823847300</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>4100</v>
       </c>
       <c r="E41">
-        <v>12350945000</v>
+        <v>7903896500</v>
       </c>
       <c r="F41">
-        <v>13098708000</v>
+        <v>12036171600</v>
       </c>
       <c r="G41">
-        <v>136351000</v>
+        <v>132355000</v>
       </c>
       <c r="H41">
         <v>1514000</v>
       </c>
       <c r="I41">
-        <v>25586004000</v>
+        <v>20072423100</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-26T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1721371105000</v>
+        <v>1547892856900</v>
       </c>
       <c r="L41">
         <v>106806900</v>
@@ -2443,13 +2443,13 @@
         <v>106500</v>
       </c>
       <c r="N41">
-        <v>747763000</v>
+        <v>4132275100</v>
       </c>
       <c r="O41">
         <v>-23980400</v>
       </c>
       <c r="P41">
-        <v>-402635796000</v>
+        <v>-370691572200</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>12700</v>
       </c>
       <c r="E42">
-        <v>7952573000</v>
+        <v>7586939000</v>
       </c>
       <c r="F42">
-        <v>14661157000</v>
+        <v>12132288400</v>
       </c>
       <c r="G42">
         <v>98020000</v>
@@ -2478,13 +2478,13 @@
         <v>1370300</v>
       </c>
       <c r="I42">
-        <v>22711750000</v>
+        <v>19817247400</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-26T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1744082855000</v>
+        <v>1567710104300</v>
       </c>
       <c r="L42">
         <v>108177200</v>
@@ -2493,13 +2493,13 @@
         <v>340400</v>
       </c>
       <c r="N42">
-        <v>6708584000</v>
+        <v>4545349400</v>
       </c>
       <c r="O42">
         <v>-23640000</v>
       </c>
       <c r="P42">
-        <v>-395927212000</v>
+        <v>-366146222800</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>19000</v>
       </c>
       <c r="E43">
-        <v>50182393000</v>
+        <v>48473903200</v>
       </c>
       <c r="F43">
-        <v>11537967000</v>
+        <v>11011294200</v>
       </c>
       <c r="G43">
         <v>369085000</v>
@@ -2528,13 +2528,13 @@
         <v>3946900</v>
       </c>
       <c r="I43">
-        <v>62089445000</v>
+        <v>59854282400</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-26T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1806172300000</v>
+        <v>1627564386700</v>
       </c>
       <c r="L43">
         <v>112124100</v>
@@ -2543,13 +2543,13 @@
         <v>-2420900</v>
       </c>
       <c r="N43">
-        <v>-38644426000</v>
+        <v>-37462609000</v>
       </c>
       <c r="O43">
         <v>-26060900</v>
       </c>
       <c r="P43">
-        <v>-434571638000</v>
+        <v>-403608831800</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>6700</v>
       </c>
       <c r="E44">
-        <v>28221121000</v>
+        <v>25972072300</v>
       </c>
       <c r="F44">
-        <v>10561153000</v>
+        <v>9915399400</v>
       </c>
       <c r="G44">
-        <v>87414000</v>
+        <v>83218200</v>
       </c>
       <c r="H44">
         <v>2588000</v>
       </c>
       <c r="I44">
-        <v>38869688000</v>
+        <v>35970689900</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-26T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1845041988000</v>
+        <v>1663535076600</v>
       </c>
       <c r="L44">
         <v>114712100</v>
@@ -2593,13 +2593,13 @@
         <v>-1371900</v>
       </c>
       <c r="N44">
-        <v>-17659968000</v>
+        <v>-16056672900</v>
       </c>
       <c r="O44">
         <v>-27432800</v>
       </c>
       <c r="P44">
-        <v>-452231606000</v>
+        <v>-419665504700</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>8700</v>
       </c>
       <c r="E45">
-        <v>19683965000</v>
+        <v>18597053000</v>
       </c>
       <c r="F45">
-        <v>13146132000</v>
+        <v>11963615700</v>
       </c>
       <c r="G45">
         <v>218275000</v>
@@ -2628,13 +2628,13 @@
         <v>2068500</v>
       </c>
       <c r="I45">
-        <v>33048372000</v>
+        <v>30778943700</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-26T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1878090360000</v>
+        <v>1694314020300</v>
       </c>
       <c r="L45">
         <v>116780600</v>
@@ -2643,13 +2643,13 @@
         <v>-616400</v>
       </c>
       <c r="N45">
-        <v>-6537833000</v>
+        <v>-6633437300</v>
       </c>
       <c r="O45">
         <v>-28049200</v>
       </c>
       <c r="P45">
-        <v>-458769439000</v>
+        <v>-426298942000</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>100</v>
       </c>
       <c r="E46">
-        <v>15261261000</v>
+        <v>13735088700</v>
       </c>
       <c r="F46">
-        <v>10916672000</v>
+        <v>9902487200</v>
       </c>
       <c r="G46">
         <v>6690000.000000001</v>
@@ -2678,13 +2678,13 @@
         <v>1547200</v>
       </c>
       <c r="I46">
-        <v>26184623000</v>
+        <v>23644265900</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-26T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1904274983000</v>
+        <v>1717958286200</v>
       </c>
       <c r="L46">
         <v>118327800</v>
@@ -2693,13 +2693,13 @@
         <v>-307700</v>
       </c>
       <c r="N46">
-        <v>-4344589000</v>
+        <v>-3832601500</v>
       </c>
       <c r="O46">
         <v>-28356900</v>
       </c>
       <c r="P46">
-        <v>-463114028000</v>
+        <v>-430131543500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>8800</v>
       </c>
       <c r="E47">
-        <v>13314625000</v>
+        <v>8420224300</v>
       </c>
       <c r="F47">
-        <v>13750032000</v>
+        <v>12375408000</v>
       </c>
       <c r="G47">
-        <v>110787000</v>
+        <v>106591200</v>
       </c>
       <c r="H47">
         <v>1657300</v>
       </c>
       <c r="I47">
-        <v>27175444000</v>
+        <v>20902223500</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-26T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1931450427000</v>
+        <v>1738860509700</v>
       </c>
       <c r="L47">
         <v>119985100</v>
@@ -2743,13 +2743,13 @@
         <v>-129900</v>
       </c>
       <c r="N47">
-        <v>435407000</v>
+        <v>3955183700</v>
       </c>
       <c r="O47">
         <v>-28486800</v>
       </c>
       <c r="P47">
-        <v>-462678621000</v>
+        <v>-426176359800</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>2700</v>
       </c>
       <c r="E48">
-        <v>14480484000</v>
+        <v>13214850900</v>
       </c>
       <c r="F48">
-        <v>12448343000</v>
+        <v>11927864000</v>
       </c>
       <c r="G48">
-        <v>188295000</v>
+        <v>181701600</v>
       </c>
       <c r="H48">
         <v>1696900</v>
       </c>
       <c r="I48">
-        <v>27117122000</v>
+        <v>25324416500</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-26T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1958567549000</v>
+        <v>1764184926200</v>
       </c>
       <c r="L48">
         <v>121682000</v>
@@ -2793,13 +2793,13 @@
         <v>-176400</v>
       </c>
       <c r="N48">
-        <v>-2032141000</v>
+        <v>-1286986900</v>
       </c>
       <c r="O48">
         <v>-28663200</v>
       </c>
       <c r="P48">
-        <v>-464710762000</v>
+        <v>-427463346700</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>11800</v>
       </c>
       <c r="E49">
-        <v>10597212000</v>
+        <v>9353057400</v>
       </c>
       <c r="F49">
-        <v>20274533000</v>
+        <v>19278929600</v>
       </c>
       <c r="G49">
         <v>88009000</v>
@@ -2828,13 +2828,13 @@
         <v>1813500</v>
       </c>
       <c r="I49">
-        <v>30959754000</v>
+        <v>28719996000</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-26T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1989527303000</v>
+        <v>1792904922200</v>
       </c>
       <c r="L49">
         <v>123495500</v>
@@ -2843,13 +2843,13 @@
         <v>520700</v>
       </c>
       <c r="N49">
-        <v>9677321000</v>
+        <v>9925872200</v>
       </c>
       <c r="O49">
         <v>-28142500</v>
       </c>
       <c r="P49">
-        <v>-455033441000</v>
+        <v>-417537474500</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>12800</v>
       </c>
       <c r="E50">
-        <v>21558489000</v>
+        <v>19662886500</v>
       </c>
       <c r="F50">
-        <v>7138462000</v>
+        <v>6515985100</v>
       </c>
       <c r="G50">
         <v>211483000</v>
@@ -2878,13 +2878,13 @@
         <v>1628400</v>
       </c>
       <c r="I50">
-        <v>28908434000</v>
+        <v>26390354600</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-26T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2018435737000</v>
+        <v>1819295276800</v>
       </c>
       <c r="L50">
         <v>125123900</v>
@@ -2893,13 +2893,13 @@
         <v>-570400</v>
       </c>
       <c r="N50">
-        <v>-14420027000</v>
+        <v>-13146901400</v>
       </c>
       <c r="O50">
         <v>-28712900</v>
       </c>
       <c r="P50">
-        <v>-469453468000</v>
+        <v>-430684375900</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>11800</v>
       </c>
       <c r="E51">
-        <v>16030320000</v>
+        <v>14985665700</v>
       </c>
       <c r="F51">
-        <v>14642909000</v>
+        <v>14367484700</v>
       </c>
       <c r="G51">
         <v>66565000</v>
@@ -2928,13 +2928,13 @@
         <v>1695600</v>
       </c>
       <c r="I51">
-        <v>30739794000</v>
+        <v>29419715400</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-26T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2049175531000</v>
+        <v>1848714992200</v>
       </c>
       <c r="L51">
         <v>126819500</v>
@@ -2943,13 +2943,13 @@
         <v>-147000</v>
       </c>
       <c r="N51">
-        <v>-1387411000</v>
+        <v>-618181000</v>
       </c>
       <c r="O51">
         <v>-28859900</v>
       </c>
       <c r="P51">
-        <v>-470840879000</v>
+        <v>-431302556900</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>2700</v>
       </c>
       <c r="E52">
-        <v>12659308000</v>
+        <v>11889778300</v>
       </c>
       <c r="F52">
-        <v>7543784000</v>
+        <v>7127201000</v>
       </c>
       <c r="G52">
         <v>54925000</v>
@@ -2978,13 +2978,13 @@
         <v>1402200</v>
       </c>
       <c r="I52">
-        <v>20258017000</v>
+        <v>19071904300</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-26T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2069433548000</v>
+        <v>1867786896500</v>
       </c>
       <c r="L52">
         <v>128221700</v>
@@ -2993,13 +2993,13 @@
         <v>-443300</v>
       </c>
       <c r="N52">
-        <v>-5115524000</v>
+        <v>-4762577300</v>
       </c>
       <c r="O52">
         <v>-29303200</v>
       </c>
       <c r="P52">
-        <v>-475956403000</v>
+        <v>-436065134200</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>20000</v>
       </c>
       <c r="E53">
-        <v>13425723000</v>
+        <v>11420430300</v>
       </c>
       <c r="F53">
-        <v>14805137000</v>
+        <v>13008135800</v>
       </c>
       <c r="G53">
         <v>258105000</v>
@@ -3028,13 +3028,13 @@
         <v>1735000</v>
       </c>
       <c r="I53">
-        <v>28488965000</v>
+        <v>24686671100</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-26T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2097922513000</v>
+        <v>1892473567600</v>
       </c>
       <c r="L53">
         <v>129956700</v>
@@ -3043,13 +3043,13 @@
         <v>-136600</v>
       </c>
       <c r="N53">
-        <v>1379414000</v>
+        <v>1587705500</v>
       </c>
       <c r="O53">
         <v>-29439800</v>
       </c>
       <c r="P53">
-        <v>-474576989000</v>
+        <v>-434477428700</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>2800</v>
       </c>
       <c r="E54">
-        <v>8478735000</v>
+        <v>8185029000</v>
       </c>
       <c r="F54">
-        <v>15519019000</v>
+        <v>10704238600</v>
       </c>
       <c r="G54">
-        <v>66041000</v>
+        <v>48558500</v>
       </c>
       <c r="H54">
         <v>1544500</v>
       </c>
       <c r="I54">
-        <v>24063795000</v>
+        <v>18937826100</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-26T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2121986308000</v>
+        <v>1911411393700</v>
       </c>
       <c r="L54">
         <v>131501200</v>
@@ -3093,13 +3093,13 @@
         <v>348500</v>
       </c>
       <c r="N54">
-        <v>7040284000</v>
+        <v>2519209600</v>
       </c>
       <c r="O54">
         <v>-29091300</v>
       </c>
       <c r="P54">
-        <v>-467536705000</v>
+        <v>-431958219100</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>3400</v>
       </c>
       <c r="E55">
-        <v>8383110000</v>
+        <v>7868525100</v>
       </c>
       <c r="F55">
-        <v>14639825000</v>
+        <v>12524442500</v>
       </c>
       <c r="G55">
         <v>59251000</v>
@@ -3128,13 +3128,13 @@
         <v>1645200</v>
       </c>
       <c r="I55">
-        <v>23082186000</v>
+        <v>20452218600</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-26T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2145068494000</v>
+        <v>1931863612300</v>
       </c>
       <c r="L55">
         <v>133146400</v>
@@ -3143,13 +3143,13 @@
         <v>424200</v>
       </c>
       <c r="N55">
-        <v>6256715000</v>
+        <v>4655917400</v>
       </c>
       <c r="O55">
         <v>-28667100</v>
       </c>
       <c r="P55">
-        <v>-461279990000</v>
+        <v>-427302301700</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>1400</v>
       </c>
       <c r="E56">
-        <v>12460700000</v>
+        <v>11174287700</v>
       </c>
       <c r="F56">
-        <v>10865564000</v>
+        <v>9690040700</v>
       </c>
       <c r="G56">
         <v>12628000</v>
@@ -3178,13 +3178,13 @@
         <v>1485700</v>
       </c>
       <c r="I56">
-        <v>23338892000</v>
+        <v>20876956400</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-26T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2168407386000</v>
+        <v>1952740568700</v>
       </c>
       <c r="L56">
         <v>134632100</v>
@@ -3193,13 +3193,13 @@
         <v>-57300</v>
       </c>
       <c r="N56">
-        <v>-1595136000</v>
+        <v>-1484247000</v>
       </c>
       <c r="O56">
         <v>-28724400</v>
       </c>
       <c r="P56">
-        <v>-462875126000</v>
+        <v>-428786548700</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>500</v>
       </c>
       <c r="E57">
-        <v>10725920000</v>
+        <v>9835611200</v>
       </c>
       <c r="F57">
-        <v>11694105000</v>
+        <v>8682919200</v>
       </c>
       <c r="G57">
-        <v>21920000</v>
+        <v>20121800</v>
       </c>
       <c r="H57">
         <v>1424300</v>
       </c>
       <c r="I57">
-        <v>22441945000</v>
+        <v>18538652200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-26T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2190849331000</v>
+        <v>1971279220900</v>
       </c>
       <c r="L57">
         <v>136056400</v>
@@ -3243,13 +3243,13 @@
         <v>92800</v>
       </c>
       <c r="N57">
-        <v>968185000</v>
+        <v>-1152692000</v>
       </c>
       <c r="O57">
         <v>-28631600</v>
       </c>
       <c r="P57">
-        <v>-461906941000</v>
+        <v>-429939240700</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>1200</v>
       </c>
       <c r="E58">
-        <v>21468759000</v>
+        <v>19264765200</v>
       </c>
       <c r="F58">
-        <v>5047186000</v>
+        <v>4068565600</v>
       </c>
       <c r="G58">
         <v>30180000</v>
@@ -3278,13 +3278,13 @@
         <v>1597500</v>
       </c>
       <c r="I58">
-        <v>26546125000</v>
+        <v>23363510800</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-26T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2217395456000</v>
+        <v>1994642731700</v>
       </c>
       <c r="L58">
         <v>137653900</v>
@@ -3293,13 +3293,13 @@
         <v>-834100</v>
       </c>
       <c r="N58">
-        <v>-16421573000</v>
+        <v>-15196199600</v>
       </c>
       <c r="O58">
         <v>-29465700</v>
       </c>
       <c r="P58">
-        <v>-478328514000</v>
+        <v>-445135440300</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>3200</v>
       </c>
       <c r="E59">
-        <v>27934427000</v>
+        <v>25557406400</v>
       </c>
       <c r="F59">
-        <v>8058131000</v>
+        <v>6710779700</v>
       </c>
       <c r="G59">
         <v>46492000</v>
@@ -3328,13 +3328,13 @@
         <v>2004900</v>
       </c>
       <c r="I59">
-        <v>36039050000</v>
+        <v>32314678100</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-26T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2253434506000</v>
+        <v>2026957409800</v>
       </c>
       <c r="L59">
         <v>139658800</v>
@@ -3343,13 +3343,13 @@
         <v>-1158700</v>
       </c>
       <c r="N59">
-        <v>-19876296000</v>
+        <v>-18846626700</v>
       </c>
       <c r="O59">
         <v>-30624400</v>
       </c>
       <c r="P59">
-        <v>-498204810000</v>
+        <v>-463982067000</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>1400</v>
       </c>
       <c r="E60">
-        <v>25861406000</v>
+        <v>23737432100</v>
       </c>
       <c r="F60">
-        <v>8804871000</v>
+        <v>5738140800</v>
       </c>
       <c r="G60">
         <v>62005000</v>
@@ -3378,13 +3378,13 @@
         <v>1666700</v>
       </c>
       <c r="I60">
-        <v>34728282000</v>
+        <v>29537577900</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-26T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2288162788000</v>
+        <v>2056494987700</v>
       </c>
       <c r="L60">
         <v>141325500</v>
@@ -3393,13 +3393,13 @@
         <v>-762300</v>
       </c>
       <c r="N60">
-        <v>-17056535000</v>
+        <v>-17999291300</v>
       </c>
       <c r="O60">
         <v>-31386700</v>
       </c>
       <c r="P60">
-        <v>-515261345000</v>
+        <v>-481981358300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>1300</v>
       </c>
       <c r="E61">
-        <v>18157743000</v>
+        <v>17522678700</v>
       </c>
       <c r="F61">
-        <v>8073221000</v>
+        <v>5538158600</v>
       </c>
       <c r="G61">
         <v>39890000</v>
@@ -3428,13 +3428,13 @@
         <v>1547000</v>
       </c>
       <c r="I61">
-        <v>26270854000</v>
+        <v>23100727300</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-26T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2314433642000</v>
+        <v>2079595715000</v>
       </c>
       <c r="L61">
         <v>142872500</v>
@@ -3443,13 +3443,13 @@
         <v>-535500</v>
       </c>
       <c r="N61">
-        <v>-10084522000</v>
+        <v>-11984520100</v>
       </c>
       <c r="O61">
         <v>-31922200</v>
       </c>
       <c r="P61">
-        <v>-525345867000</v>
+        <v>-493965878400</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>144200</v>
       </c>
       <c r="E62">
-        <v>23374485000</v>
+        <v>21361100400</v>
       </c>
       <c r="F62">
-        <v>10259892000</v>
+        <v>7383271500</v>
       </c>
       <c r="G62">
         <v>2055615000</v>
@@ -3478,13 +3478,13 @@
         <v>2159100</v>
       </c>
       <c r="I62">
-        <v>35689992000</v>
+        <v>30799986900</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-26T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2350123634000</v>
+        <v>2110395701900</v>
       </c>
       <c r="L62">
         <v>145031600</v>
@@ -3493,13 +3493,13 @@
         <v>-841500</v>
       </c>
       <c r="N62">
-        <v>-13114593000</v>
+        <v>-13977828900</v>
       </c>
       <c r="O62">
         <v>-32763700</v>
       </c>
       <c r="P62">
-        <v>-538460460000</v>
+        <v>-507943707300</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>1500</v>
       </c>
       <c r="E63">
-        <v>19152524000</v>
+        <v>17438140100</v>
       </c>
       <c r="F63">
-        <v>10619846000</v>
+        <v>8915751800</v>
       </c>
       <c r="G63">
         <v>11100000</v>
@@ -3528,13 +3528,13 @@
         <v>1660500</v>
       </c>
       <c r="I63">
-        <v>29783470000</v>
+        <v>26364991900</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-26T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2379907104000</v>
+        <v>2136760693800</v>
       </c>
       <c r="L63">
         <v>146692100</v>
@@ -3543,13 +3543,13 @@
         <v>-550600</v>
       </c>
       <c r="N63">
-        <v>-8532678000</v>
+        <v>-8522388300</v>
       </c>
       <c r="O63">
         <v>-33314300</v>
       </c>
       <c r="P63">
-        <v>-546993138000</v>
+        <v>-516466095600</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>6100</v>
       </c>
       <c r="E64">
-        <v>14704413000</v>
+        <v>13894923300</v>
       </c>
       <c r="F64">
-        <v>7066261000</v>
+        <v>6769857700</v>
       </c>
       <c r="G64">
         <v>154340000</v>
@@ -3578,13 +3578,13 @@
         <v>1348800</v>
       </c>
       <c r="I64">
-        <v>21925014000</v>
+        <v>20819121000</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-26T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2401832118000</v>
+        <v>2157579814800</v>
       </c>
       <c r="L64">
         <v>148040900</v>
@@ -3593,13 +3593,13 @@
         <v>-531700</v>
       </c>
       <c r="N64">
-        <v>-7638152000</v>
+        <v>-7125065600</v>
       </c>
       <c r="O64">
         <v>-33846000</v>
       </c>
       <c r="P64">
-        <v>-554631290000</v>
+        <v>-523591161200</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>6500</v>
       </c>
       <c r="E65">
-        <v>24991517000</v>
+        <v>22635175700</v>
       </c>
       <c r="F65">
-        <v>6831097000</v>
+        <v>5379949600</v>
       </c>
       <c r="G65">
         <v>146075000</v>
@@ -3628,13 +3628,13 @@
         <v>2140200</v>
       </c>
       <c r="I65">
-        <v>31968689000</v>
+        <v>28161200300</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-26T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2433800807000</v>
+        <v>2185741015100</v>
       </c>
       <c r="L65">
         <v>150181100</v>
@@ -3643,13 +3643,13 @@
         <v>-1300100</v>
       </c>
       <c r="N65">
-        <v>-18160420000</v>
+        <v>-17255226100</v>
       </c>
       <c r="O65">
         <v>-35146100</v>
       </c>
       <c r="P65">
-        <v>-572791710000</v>
+        <v>-540846387300</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>100</v>
       </c>
       <c r="E66">
-        <v>35502196000</v>
+        <v>34580019100</v>
       </c>
       <c r="F66">
-        <v>7056067000</v>
+        <v>6800422900</v>
       </c>
       <c r="G66">
         <v>2155000</v>
@@ -3678,13 +3678,13 @@
         <v>2632200</v>
       </c>
       <c r="I66">
-        <v>42560418000</v>
+        <v>41382597000</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-26T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2476361225000</v>
+        <v>2227123612100</v>
       </c>
       <c r="L66">
         <v>152813300</v>
@@ -3693,13 +3693,13 @@
         <v>-1835100</v>
       </c>
       <c r="N66">
-        <v>-28446129000</v>
+        <v>-27779596200</v>
       </c>
       <c r="O66">
         <v>-36981200</v>
       </c>
       <c r="P66">
-        <v>-601237839000</v>
+        <v>-568625983500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>27000</v>
       </c>
       <c r="E67">
-        <v>64097349000</v>
+        <v>62255392800</v>
       </c>
       <c r="F67">
-        <v>8805473000</v>
+        <v>8655523100</v>
       </c>
       <c r="G67">
-        <v>326683000</v>
+        <v>235274500</v>
       </c>
       <c r="H67">
         <v>4777000</v>
       </c>
       <c r="I67">
-        <v>73229505000</v>
+        <v>71146190400</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-26T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2549590730000</v>
+        <v>2298269802500</v>
       </c>
       <c r="L67">
         <v>157590300</v>
@@ -3743,13 +3743,13 @@
         <v>-3932600</v>
       </c>
       <c r="N67">
-        <v>-55291876000</v>
+        <v>-53599869700</v>
       </c>
       <c r="O67">
         <v>-40913800</v>
       </c>
       <c r="P67">
-        <v>-656529715000</v>
+        <v>-622225853200</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>153000</v>
       </c>
       <c r="E68">
-        <v>116586638000</v>
+        <v>94257589400</v>
       </c>
       <c r="F68">
-        <v>16153597000</v>
+        <v>15617733400</v>
       </c>
       <c r="G68">
-        <v>2630667000</v>
+        <v>2628069600</v>
       </c>
       <c r="H68">
         <v>8861900</v>
       </c>
       <c r="I68">
-        <v>135370902000</v>
+        <v>112503392400</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-26T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2684961632000</v>
+        <v>2410773194900</v>
       </c>
       <c r="L68">
         <v>166452200</v>
@@ -3793,13 +3793,13 @@
         <v>-6852100</v>
       </c>
       <c r="N68">
-        <v>-100433041000</v>
+        <v>-78639856000</v>
       </c>
       <c r="O68">
         <v>-47765900</v>
       </c>
       <c r="P68">
-        <v>-756962756000</v>
+        <v>-700865709200</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>7200</v>
       </c>
       <c r="E69">
-        <v>129345957000</v>
+        <v>110978642700</v>
       </c>
       <c r="F69">
-        <v>20336707000</v>
+        <v>13599351100</v>
       </c>
       <c r="G69">
-        <v>86835000</v>
+        <v>83838000</v>
       </c>
       <c r="H69">
         <v>10059200</v>
       </c>
       <c r="I69">
-        <v>149769499000</v>
+        <v>124661831800</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-26T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2834731131000</v>
+        <v>2535435026700</v>
       </c>
       <c r="L69">
         <v>176511400</v>
@@ -3843,13 +3843,13 @@
         <v>-7348600</v>
       </c>
       <c r="N69">
-        <v>-109009250000</v>
+        <v>-97379291600</v>
       </c>
       <c r="O69">
         <v>-55114500</v>
       </c>
       <c r="P69">
-        <v>-865972006000</v>
+        <v>-798245000800</v>
       </c>
     </row>
     <row r="70">
@@ -3869,7 +3869,7 @@
         <v>523480000</v>
       </c>
       <c r="F70">
-        <v>245893000</v>
+        <v>243295600</v>
       </c>
       <c r="G70">
         <v>1940000</v>
@@ -3878,13 +3878,13 @@
         <v>55300</v>
       </c>
       <c r="I70">
-        <v>771313000</v>
+        <v>768715600</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-26T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2835502444000</v>
+        <v>2536203742300</v>
       </c>
       <c r="L70">
         <v>176566700</v>
@@ -3893,13 +3893,13 @@
         <v>-15800</v>
       </c>
       <c r="N70">
-        <v>-277587000</v>
+        <v>-280184400</v>
       </c>
       <c r="O70">
         <v>-55130300</v>
       </c>
       <c r="P70">
-        <v>-866249593000</v>
+        <v>-798525185200</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>771200</v>
       </c>
       <c r="E71">
-        <v>133120809000</v>
+        <v>113857092000</v>
       </c>
       <c r="F71">
-        <v>98201300000</v>
+        <v>90505403600</v>
       </c>
       <c r="G71">
-        <v>9495413000</v>
+        <v>9105503300</v>
       </c>
       <c r="H71">
         <v>18948000</v>
       </c>
       <c r="I71">
-        <v>240817522000</v>
+        <v>213467998900</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-26T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3076319966000</v>
+        <v>2749671741200</v>
       </c>
       <c r="L71">
         <v>195514700</v>
@@ -3943,13 +3943,13 @@
         <v>-4133800</v>
       </c>
       <c r="N71">
-        <v>-34919509000</v>
+        <v>-23351688400</v>
       </c>
       <c r="O71">
         <v>-59264100</v>
       </c>
       <c r="P71">
-        <v>-901169102000</v>
+        <v>-821876873600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>22200</v>
       </c>
       <c r="E72">
-        <v>52298211000</v>
+        <v>47162352000</v>
       </c>
       <c r="F72">
-        <v>45130711000</v>
+        <v>39163783900</v>
       </c>
       <c r="G72">
         <v>256750000</v>
@@ -3978,13 +3978,13 @@
         <v>7562700</v>
       </c>
       <c r="I72">
-        <v>97685672000</v>
+        <v>86582885900</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-26T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3174005638000</v>
+        <v>2836254627100</v>
       </c>
       <c r="L72">
         <v>203077400</v>
@@ -3993,13 +3993,13 @@
         <v>-1624300</v>
       </c>
       <c r="N72">
-        <v>-7167500000</v>
+        <v>-7998568100</v>
       </c>
       <c r="O72">
         <v>-60888400</v>
       </c>
       <c r="P72">
-        <v>-908336602000</v>
+        <v>-829875441700</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>13200</v>
       </c>
       <c r="E73">
-        <v>31682509000</v>
+        <v>29869423900</v>
       </c>
       <c r="F73">
-        <v>23562939000</v>
+        <v>18556150800</v>
       </c>
       <c r="G73">
         <v>201800000</v>
@@ -4028,13 +4028,13 @@
         <v>4097400</v>
       </c>
       <c r="I73">
-        <v>55447248000</v>
+        <v>48627374700</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-26T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3229452886000</v>
+        <v>2884882001800</v>
       </c>
       <c r="L73">
         <v>207174800</v>
@@ -4043,13 +4043,13 @@
         <v>-236600</v>
       </c>
       <c r="N73">
-        <v>-8119570000</v>
+        <v>-11313273100</v>
       </c>
       <c r="O73">
         <v>-61125000</v>
       </c>
       <c r="P73">
-        <v>-916456172000</v>
+        <v>-841188714800</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>47700</v>
       </c>
       <c r="E74">
-        <v>71637647000</v>
+        <v>68033954300</v>
       </c>
       <c r="F74">
-        <v>33454075000</v>
+        <v>29251881400</v>
       </c>
       <c r="G74">
         <v>683970000</v>
@@ -4078,13 +4078,13 @@
         <v>7001100</v>
       </c>
       <c r="I74">
-        <v>105775692000</v>
+        <v>97969805700</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-26T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3335228578000</v>
+        <v>2982851807500</v>
       </c>
       <c r="L74">
         <v>214175900</v>
@@ -4093,13 +4093,13 @@
         <v>-3127400</v>
       </c>
       <c r="N74">
-        <v>-38183572000</v>
+        <v>-38782072900</v>
       </c>
       <c r="O74">
         <v>-64252400</v>
       </c>
       <c r="P74">
-        <v>-954639744000</v>
+        <v>-879970787700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>46800</v>
       </c>
       <c r="E75">
-        <v>34060546000</v>
+        <v>29337274000</v>
       </c>
       <c r="F75">
-        <v>34103955000</v>
+        <v>31480780800</v>
       </c>
       <c r="G75">
         <v>387047000</v>
@@ -4128,13 +4128,13 @@
         <v>4952900</v>
       </c>
       <c r="I75">
-        <v>68551548000</v>
+        <v>61205101800</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-26T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3403780126000</v>
+        <v>3044056909300</v>
       </c>
       <c r="L75">
         <v>219128800</v>
@@ -4143,13 +4143,13 @@
         <v>-212100</v>
       </c>
       <c r="N75">
-        <v>43409000</v>
+        <v>2143506800</v>
       </c>
       <c r="O75">
         <v>-64464500</v>
       </c>
       <c r="P75">
-        <v>-954596335000</v>
+        <v>-877827280900</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>8900</v>
       </c>
       <c r="E76">
-        <v>27940387000</v>
+        <v>20404130800</v>
       </c>
       <c r="F76">
-        <v>36116840000</v>
+        <v>33793565600</v>
       </c>
       <c r="G76">
-        <v>98414000</v>
+        <v>77435000</v>
       </c>
       <c r="H76">
         <v>4751900</v>
       </c>
       <c r="I76">
-        <v>64155641000</v>
+        <v>54275131400</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-26T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3467935767000</v>
+        <v>3098332040700</v>
       </c>
       <c r="L76">
         <v>223880700</v>
@@ -4193,13 +4193,13 @@
         <v>705800</v>
       </c>
       <c r="N76">
-        <v>8176453000</v>
+        <v>13389434800</v>
       </c>
       <c r="O76">
         <v>-63758700</v>
       </c>
       <c r="P76">
-        <v>-946419882000</v>
+        <v>-864437846100</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>7300</v>
       </c>
       <c r="E77">
-        <v>40011916000</v>
+        <v>36333098500</v>
       </c>
       <c r="F77">
-        <v>21246508000</v>
+        <v>19117139500</v>
       </c>
       <c r="G77">
         <v>179152000</v>
@@ -4228,13 +4228,13 @@
         <v>4583800</v>
       </c>
       <c r="I77">
-        <v>61437576000</v>
+        <v>55629390000</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-26T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3529373343000</v>
+        <v>3153961430700</v>
       </c>
       <c r="L77">
         <v>228464500</v>
@@ -4243,13 +4243,13 @@
         <v>-984100</v>
       </c>
       <c r="N77">
-        <v>-18765408000</v>
+        <v>-17215959000</v>
       </c>
       <c r="O77">
         <v>-64742800</v>
       </c>
       <c r="P77">
-        <v>-965185290000</v>
+        <v>-881653805100</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>23300</v>
       </c>
       <c r="E78">
-        <v>56676517000</v>
+        <v>52331366500</v>
       </c>
       <c r="F78">
-        <v>24960863000</v>
+        <v>21371356100</v>
       </c>
       <c r="G78">
         <v>165131000</v>
@@ -4278,13 +4278,13 @@
         <v>5553900</v>
       </c>
       <c r="I78">
-        <v>81802511000</v>
+        <v>73867853600</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-26T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3611175854000</v>
+        <v>3227829284300</v>
       </c>
       <c r="L78">
         <v>234018400</v>
@@ -4293,13 +4293,13 @@
         <v>-2438200</v>
       </c>
       <c r="N78">
-        <v>-31715654000</v>
+        <v>-30960010400</v>
       </c>
       <c r="O78">
         <v>-67181000</v>
       </c>
       <c r="P78">
-        <v>-996900944000</v>
+        <v>-912613815500</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>12900</v>
       </c>
       <c r="E79">
-        <v>30287311000</v>
+        <v>27109292200</v>
       </c>
       <c r="F79">
-        <v>21558836000</v>
+        <v>16756143500</v>
       </c>
       <c r="G79">
         <v>127715000</v>
@@ -4328,13 +4328,13 @@
         <v>3575800</v>
       </c>
       <c r="I79">
-        <v>51973862000</v>
+        <v>43993150700</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-26T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3663149716000</v>
+        <v>3271822435000</v>
       </c>
       <c r="L79">
         <v>237594200</v>
@@ -4343,13 +4343,13 @@
         <v>-814500</v>
       </c>
       <c r="N79">
-        <v>-8728475000</v>
+        <v>-10353148700</v>
       </c>
       <c r="O79">
         <v>-67995500</v>
       </c>
       <c r="P79">
-        <v>-1005629419000</v>
+        <v>-922966964200</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>13300</v>
       </c>
       <c r="E80">
-        <v>21854922000</v>
+        <v>19828050900</v>
       </c>
       <c r="F80">
-        <v>43987809000</v>
+        <v>40559141100</v>
       </c>
       <c r="G80">
-        <v>123940000</v>
+        <v>109954000</v>
       </c>
       <c r="H80">
         <v>4206100</v>
       </c>
       <c r="I80">
-        <v>65966671000</v>
+        <v>60497146000</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-26T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3729116387000</v>
+        <v>3332319581000</v>
       </c>
       <c r="L80">
         <v>241800300</v>
@@ -4393,13 +4393,13 @@
         <v>902000</v>
       </c>
       <c r="N80">
-        <v>22132887000</v>
+        <v>20731090200</v>
       </c>
       <c r="O80">
         <v>-67093500</v>
       </c>
       <c r="P80">
-        <v>-983496532000</v>
+        <v>-902235874000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>5400</v>
       </c>
       <c r="E81">
-        <v>27099176000</v>
+        <v>26029546700</v>
       </c>
       <c r="F81">
-        <v>22597468000</v>
+        <v>20379288400</v>
       </c>
       <c r="G81">
-        <v>112595000</v>
+        <v>108199400</v>
       </c>
       <c r="H81">
         <v>3476600</v>
       </c>
       <c r="I81">
-        <v>49809239000</v>
+        <v>46517034500</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-26T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3778925626000</v>
+        <v>3378836615500</v>
       </c>
       <c r="L81">
         <v>245276900</v>
@@ -4443,13 +4443,13 @@
         <v>105800</v>
       </c>
       <c r="N81">
-        <v>-4501708000</v>
+        <v>-5650258300</v>
       </c>
       <c r="O81">
         <v>-66987700</v>
       </c>
       <c r="P81">
-        <v>-987998240000</v>
+        <v>-907886132300</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>2700</v>
       </c>
       <c r="E82">
-        <v>41231407000</v>
+        <v>37297145200</v>
       </c>
       <c r="F82">
-        <v>17497791000</v>
+        <v>16414775100</v>
       </c>
       <c r="G82">
-        <v>48902000</v>
+        <v>38712200</v>
       </c>
       <c r="H82">
         <v>4026800</v>
       </c>
       <c r="I82">
-        <v>58778100000</v>
+        <v>53750632500</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-26T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3837703726000</v>
+        <v>3432587248000</v>
       </c>
       <c r="L82">
         <v>249303700</v>
@@ -4493,13 +4493,13 @@
         <v>-1336900</v>
       </c>
       <c r="N82">
-        <v>-23733616000</v>
+        <v>-20882370100</v>
       </c>
       <c r="O82">
         <v>-68324600</v>
       </c>
       <c r="P82">
-        <v>-1011731856000</v>
+        <v>-928768502400</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>14800</v>
       </c>
       <c r="E83">
-        <v>50169830000</v>
+        <v>44289516200</v>
       </c>
       <c r="F83">
-        <v>25035122000</v>
+        <v>22977581600</v>
       </c>
       <c r="G83">
         <v>139929000</v>
@@ -4528,13 +4528,13 @@
         <v>5728100</v>
       </c>
       <c r="I83">
-        <v>75344881000</v>
+        <v>67407026800</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-26T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3913048607000</v>
+        <v>3499994274800</v>
       </c>
       <c r="L83">
         <v>255031800</v>
@@ -4543,13 +4543,13 @@
         <v>-2320500</v>
       </c>
       <c r="N83">
-        <v>-25134708000</v>
+        <v>-21311934600</v>
       </c>
       <c r="O83">
         <v>-70645100</v>
       </c>
       <c r="P83">
-        <v>-1036866564000</v>
+        <v>-950080437000</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>17800</v>
       </c>
       <c r="E84">
-        <v>60617670000</v>
+        <v>59126762400</v>
       </c>
       <c r="F84">
-        <v>30399820000</v>
+        <v>26471951800</v>
       </c>
       <c r="G84">
-        <v>419858000</v>
+        <v>380897000</v>
       </c>
       <c r="H84">
         <v>6795700</v>
       </c>
       <c r="I84">
-        <v>91437348000</v>
+        <v>85979611200</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-26T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4004485955000</v>
+        <v>3585973886000</v>
       </c>
       <c r="L84">
         <v>261827500</v>
@@ -4593,13 +4593,13 @@
         <v>-2391300</v>
       </c>
       <c r="N84">
-        <v>-30217850000</v>
+        <v>-32654810600</v>
       </c>
       <c r="O84">
         <v>-73036400</v>
       </c>
       <c r="P84">
-        <v>-1067084414000</v>
+        <v>-982735247600</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>18200</v>
       </c>
       <c r="E85">
-        <v>67141674000</v>
+        <v>66229886700</v>
       </c>
       <c r="F85">
-        <v>21156018000</v>
+        <v>19518557100</v>
       </c>
       <c r="G85">
         <v>246506000</v>
@@ -4628,13 +4628,13 @@
         <v>6874400</v>
       </c>
       <c r="I85">
-        <v>88544198000</v>
+        <v>85994949800</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-26T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4093030153000</v>
+        <v>3671968835800</v>
       </c>
       <c r="L85">
         <v>268701900</v>
@@ -4643,13 +4643,13 @@
         <v>-3352600</v>
       </c>
       <c r="N85">
-        <v>-45985656000</v>
+        <v>-46711329600</v>
       </c>
       <c r="O85">
         <v>-76389000</v>
       </c>
       <c r="P85">
-        <v>-1113070070000</v>
+        <v>-1029446577200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>120100</v>
       </c>
       <c r="E86">
-        <v>98036243000</v>
+        <v>92832452000</v>
       </c>
       <c r="F86">
-        <v>24067285000</v>
+        <v>22606946800</v>
       </c>
       <c r="G86">
-        <v>651503000</v>
+        <v>483671000</v>
       </c>
       <c r="H86">
         <v>8598000</v>
       </c>
       <c r="I86">
-        <v>122755031000</v>
+        <v>115923069800</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-26T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4215785184000</v>
+        <v>3787891905600</v>
       </c>
       <c r="L86">
         <v>277299900</v>
@@ -4693,13 +4693,13 @@
         <v>-5408900</v>
       </c>
       <c r="N86">
-        <v>-73968958000</v>
+        <v>-70225505200</v>
       </c>
       <c r="O86">
         <v>-81797900</v>
       </c>
       <c r="P86">
-        <v>-1187039028000</v>
+        <v>-1099672082400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>51900</v>
       </c>
       <c r="E87">
-        <v>98208073000</v>
+        <v>92968318000</v>
       </c>
       <c r="F87">
-        <v>23684546000</v>
+        <v>22280951000</v>
       </c>
       <c r="G87">
-        <v>480884000</v>
+        <v>464700200</v>
       </c>
       <c r="H87">
         <v>8310600</v>
       </c>
       <c r="I87">
-        <v>122373503000</v>
+        <v>115713969200</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-26T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4338158687000</v>
+        <v>3903605874800</v>
       </c>
       <c r="L87">
         <v>285610500</v>
@@ -4743,13 +4743,13 @@
         <v>-4893300</v>
       </c>
       <c r="N87">
-        <v>-74523527000</v>
+        <v>-70687367000</v>
       </c>
       <c r="O87">
         <v>-86691200</v>
       </c>
       <c r="P87">
-        <v>-1261562555000</v>
+        <v>-1170359449400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>7200</v>
       </c>
       <c r="E88">
-        <v>98463640000</v>
+        <v>94270337500</v>
       </c>
       <c r="F88">
-        <v>36640544000</v>
+        <v>35255330600</v>
       </c>
       <c r="G88">
         <v>186647000</v>
@@ -4778,13 +4778,13 @@
         <v>9451200</v>
       </c>
       <c r="I88">
-        <v>135290831000</v>
+        <v>129712315100</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-26T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4473449518000</v>
+        <v>4033318189900</v>
       </c>
       <c r="L88">
         <v>295061700</v>
@@ -4793,13 +4793,13 @@
         <v>-4894400</v>
       </c>
       <c r="N88">
-        <v>-61823096000</v>
+        <v>-59015006900</v>
       </c>
       <c r="O88">
         <v>-91585600</v>
       </c>
       <c r="P88">
-        <v>-1323385651000</v>
+        <v>-1229374456300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>56700</v>
       </c>
       <c r="E89">
-        <v>35889235000</v>
+        <v>33374951800</v>
       </c>
       <c r="F89">
-        <v>50656921000</v>
+        <v>48708471400</v>
       </c>
       <c r="G89">
         <v>807978000</v>
@@ -4828,13 +4828,13 @@
         <v>5275200</v>
       </c>
       <c r="I89">
-        <v>87354134000</v>
+        <v>82891401200</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-26T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4560803652000</v>
+        <v>4116209591100</v>
       </c>
       <c r="L89">
         <v>300336900</v>
@@ -4843,13 +4843,13 @@
         <v>1077100</v>
       </c>
       <c r="N89">
-        <v>14767686000</v>
+        <v>15333519600</v>
       </c>
       <c r="O89">
         <v>-90508500</v>
       </c>
       <c r="P89">
-        <v>-1308617965000</v>
+        <v>-1214040936700</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>11700</v>
       </c>
       <c r="E90">
-        <v>19597698000</v>
+        <v>18783812700</v>
       </c>
       <c r="F90">
-        <v>54714508000</v>
+        <v>51107818300</v>
       </c>
       <c r="G90">
         <v>182627000</v>
@@ -4878,13 +4878,13 @@
         <v>5002100</v>
       </c>
       <c r="I90">
-        <v>74494833000</v>
+        <v>70074258000</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-26T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4635298485000</v>
+        <v>4186283849100</v>
       </c>
       <c r="L90">
         <v>305339000</v>
@@ -4893,13 +4893,13 @@
         <v>2445800</v>
       </c>
       <c r="N90">
-        <v>35116810000</v>
+        <v>32324005600</v>
       </c>
       <c r="O90">
         <v>-88062700</v>
       </c>
       <c r="P90">
-        <v>-1273501155000</v>
+        <v>-1181716931100</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>1400</v>
       </c>
       <c r="E91">
-        <v>18570527000</v>
+        <v>17394404300</v>
       </c>
       <c r="F91">
-        <v>46229874000</v>
+        <v>41310698100</v>
       </c>
       <c r="G91">
-        <v>33216000</v>
+        <v>15234000</v>
       </c>
       <c r="H91">
         <v>4361600</v>
       </c>
       <c r="I91">
-        <v>64833617000</v>
+        <v>58720336400</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-26T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4700132102000</v>
+        <v>4245004185500</v>
       </c>
       <c r="L91">
         <v>309700600</v>
@@ -4943,13 +4943,13 @@
         <v>2057000</v>
       </c>
       <c r="N91">
-        <v>27659347000</v>
+        <v>23916293800</v>
       </c>
       <c r="O91">
         <v>-86005700</v>
       </c>
       <c r="P91">
-        <v>-1245841808000</v>
+        <v>-1157800637300</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>21900</v>
       </c>
       <c r="E92">
-        <v>15919807000</v>
+        <v>15011416300</v>
       </c>
       <c r="F92">
-        <v>36798173000</v>
+        <v>34643729600</v>
       </c>
       <c r="G92">
         <v>447705000</v>
@@ -4978,13 +4978,13 @@
         <v>4021600</v>
       </c>
       <c r="I92">
-        <v>53165685000</v>
+        <v>50102850900</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-26T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4753297787000</v>
+        <v>4295107036400</v>
       </c>
       <c r="L92">
         <v>313722200</v>
@@ -4993,13 +4993,13 @@
         <v>1711500</v>
       </c>
       <c r="N92">
-        <v>20878366000</v>
+        <v>19632313300</v>
       </c>
       <c r="O92">
         <v>-84294200</v>
       </c>
       <c r="P92">
-        <v>-1224963442000</v>
+        <v>-1138168324000</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>21200</v>
       </c>
       <c r="E93">
-        <v>23757813000</v>
+        <v>22260112200</v>
       </c>
       <c r="F93">
-        <v>20085232000</v>
+        <v>18998020300</v>
       </c>
       <c r="G93">
         <v>545669000</v>
@@ -5028,13 +5028,13 @@
         <v>3254500</v>
       </c>
       <c r="I93">
-        <v>44388714000</v>
+        <v>41803801500</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-26T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4797686501000</v>
+        <v>4336910837900</v>
       </c>
       <c r="L93">
         <v>316976700</v>
@@ -5043,13 +5043,13 @@
         <v>-75700</v>
       </c>
       <c r="N93">
-        <v>-3672581000</v>
+        <v>-3262091900</v>
       </c>
       <c r="O93">
         <v>-84369900</v>
       </c>
       <c r="P93">
-        <v>-1228636023000</v>
+        <v>-1141430415900</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>8700</v>
       </c>
       <c r="E94">
-        <v>49268198000</v>
+        <v>47927240300</v>
       </c>
       <c r="F94">
-        <v>13064307000</v>
+        <v>12095277000</v>
       </c>
       <c r="G94">
-        <v>131214000</v>
+        <v>112233000</v>
       </c>
       <c r="H94">
         <v>4069400</v>
       </c>
       <c r="I94">
-        <v>62463719000</v>
+        <v>60134750300</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-26T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4860150220000</v>
+        <v>4397045588200</v>
       </c>
       <c r="L94">
         <v>321046100</v>
@@ -5093,13 +5093,13 @@
         <v>-2161500</v>
       </c>
       <c r="N94">
-        <v>-36203891000</v>
+        <v>-35831963300</v>
       </c>
       <c r="O94">
         <v>-86531400</v>
       </c>
       <c r="P94">
-        <v>-1264839914000</v>
+        <v>-1177262379200</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>13200</v>
       </c>
       <c r="E95">
-        <v>93193725000</v>
+        <v>91167653100</v>
       </c>
       <c r="F95">
-        <v>19754905000</v>
+        <v>17486575600</v>
       </c>
       <c r="G95">
         <v>91104000</v>
@@ -5128,13 +5128,13 @@
         <v>6239200</v>
       </c>
       <c r="I95">
-        <v>113039734000</v>
+        <v>108745332700</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-26T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4973189954000</v>
+        <v>4505790920900</v>
       </c>
       <c r="L95">
         <v>327285300</v>
@@ -5143,13 +5143,13 @@
         <v>-3994800</v>
       </c>
       <c r="N95">
-        <v>-73438820000</v>
+        <v>-73681077500</v>
       </c>
       <c r="O95">
         <v>-90526200</v>
       </c>
       <c r="P95">
-        <v>-1338278734000</v>
+        <v>-1250943456700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>14800</v>
       </c>
       <c r="E96">
-        <v>61879014000</v>
+        <v>59589106200</v>
       </c>
       <c r="F96">
-        <v>21953698000</v>
+        <v>20746206700</v>
       </c>
       <c r="G96">
         <v>921335000</v>
@@ -5178,13 +5178,13 @@
         <v>5121700</v>
       </c>
       <c r="I96">
-        <v>84754047000</v>
+        <v>81256647900</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-26T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5057944001000</v>
+        <v>4587047568800</v>
       </c>
       <c r="L96">
         <v>332407000</v>
@@ -5193,13 +5193,13 @@
         <v>-2564700</v>
       </c>
       <c r="N96">
-        <v>-39925316000</v>
+        <v>-38842899500</v>
       </c>
       <c r="O96">
         <v>-93090900</v>
       </c>
       <c r="P96">
-        <v>-1378204050000</v>
+        <v>-1289786356200</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>5700</v>
       </c>
       <c r="E97">
-        <v>48459165000</v>
+        <v>47142083400</v>
       </c>
       <c r="F97">
-        <v>28597212000</v>
+        <v>27356653800</v>
       </c>
       <c r="G97">
         <v>154555000</v>
@@ -5228,13 +5228,13 @@
         <v>4312400</v>
       </c>
       <c r="I97">
-        <v>77210932000</v>
+        <v>74653292200</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-26T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5135154933000</v>
+        <v>4661700861000</v>
       </c>
       <c r="L97">
         <v>336719400</v>
@@ -5243,13 +5243,13 @@
         <v>-926100</v>
       </c>
       <c r="N97">
-        <v>-19861953000</v>
+        <v>-19785429600</v>
       </c>
       <c r="O97">
         <v>-94017000</v>
       </c>
       <c r="P97">
-        <v>-1398066003000</v>
+        <v>-1309571785800</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>15400</v>
       </c>
       <c r="E98">
-        <v>30587724000</v>
+        <v>30155057100</v>
       </c>
       <c r="F98">
-        <v>35355987000</v>
+        <v>32317128900</v>
       </c>
       <c r="G98">
         <v>620530000</v>
@@ -5278,13 +5278,13 @@
         <v>3972100</v>
       </c>
       <c r="I98">
-        <v>66564241000</v>
+        <v>63092716000</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-26T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5201719174000</v>
+        <v>4724793577000</v>
       </c>
       <c r="L98">
         <v>340691500</v>
@@ -5293,13 +5293,13 @@
         <v>99900</v>
       </c>
       <c r="N98">
-        <v>4768263000</v>
+        <v>2162071800</v>
       </c>
       <c r="O98">
         <v>-93917100</v>
       </c>
       <c r="P98">
-        <v>-1393297740000</v>
+        <v>-1307409714000</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>5000</v>
       </c>
       <c r="E99">
-        <v>20974108000</v>
+        <v>20612969500</v>
       </c>
       <c r="F99">
-        <v>47060538000</v>
+        <v>44151949500</v>
       </c>
       <c r="G99">
         <v>88000000</v>
@@ -5328,13 +5328,13 @@
         <v>4011900</v>
       </c>
       <c r="I99">
-        <v>68122646000</v>
+        <v>64852919000</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-26T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5269841820000</v>
+        <v>4789646496000</v>
       </c>
       <c r="L99">
         <v>344703400</v>
@@ -5343,13 +5343,13 @@
         <v>1686100</v>
       </c>
       <c r="N99">
-        <v>26086430000</v>
+        <v>23538980000</v>
       </c>
       <c r="O99">
         <v>-92231000</v>
       </c>
       <c r="P99">
-        <v>-1367211310000</v>
+        <v>-1283870734000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>13100</v>
       </c>
       <c r="E100">
-        <v>15829095000</v>
+        <v>15227297400</v>
       </c>
       <c r="F100">
-        <v>28165701000</v>
+        <v>26784383700</v>
       </c>
       <c r="G100">
         <v>145038000</v>
@@ -5378,13 +5378,13 @@
         <v>2590100</v>
       </c>
       <c r="I100">
-        <v>44139834000</v>
+        <v>42156719100</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-26T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5313981654000</v>
+        <v>4831803215100</v>
       </c>
       <c r="L100">
         <v>347293500</v>
@@ -5393,13 +5393,13 @@
         <v>799200</v>
       </c>
       <c r="N100">
-        <v>12336606000</v>
+        <v>11557086300</v>
       </c>
       <c r="O100">
         <v>-91431800</v>
       </c>
       <c r="P100">
-        <v>-1354874704000</v>
+        <v>-1272313647700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>5700</v>
       </c>
       <c r="E101">
-        <v>15263381000</v>
+        <v>15174070400</v>
       </c>
       <c r="F101">
-        <v>26533950000</v>
+        <v>23874911700</v>
       </c>
       <c r="G101">
         <v>123398000</v>
@@ -5428,13 +5428,13 @@
         <v>2659200</v>
       </c>
       <c r="I101">
-        <v>41920729000</v>
+        <v>39172380100</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-26T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5355902383000</v>
+        <v>4870975595200</v>
       </c>
       <c r="L101">
         <v>349952700</v>
@@ -5443,13 +5443,13 @@
         <v>418700</v>
       </c>
       <c r="N101">
-        <v>11270569000</v>
+        <v>8700841300</v>
       </c>
       <c r="O101">
         <v>-91013100</v>
       </c>
       <c r="P101">
-        <v>-1343604135000</v>
+        <v>-1263612806400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>6000</v>
       </c>
       <c r="E102">
-        <v>22021149000</v>
+        <v>21842427900</v>
       </c>
       <c r="F102">
-        <v>26320917000</v>
+        <v>24247592400</v>
       </c>
       <c r="G102">
         <v>60573000</v>
@@ -5478,13 +5478,13 @@
         <v>3093800</v>
       </c>
       <c r="I102">
-        <v>48402639000</v>
+        <v>46150593300</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-26T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5404305022000</v>
+        <v>4917126188500</v>
       </c>
       <c r="L102">
         <v>353046500</v>
@@ -5493,13 +5493,13 @@
         <v>347600</v>
       </c>
       <c r="N102">
-        <v>4299768000</v>
+        <v>2405164500</v>
       </c>
       <c r="O102">
         <v>-90665500</v>
       </c>
       <c r="P102">
-        <v>-1339304367000</v>
+        <v>-1261207641900</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>4300</v>
       </c>
       <c r="E103">
-        <v>42128370000</v>
+        <v>39592408500</v>
       </c>
       <c r="F103">
-        <v>19647032000</v>
+        <v>18561718400</v>
       </c>
       <c r="G103">
-        <v>167770000</v>
+        <v>114823000</v>
       </c>
       <c r="H103">
         <v>3426000</v>
       </c>
       <c r="I103">
-        <v>61943172000</v>
+        <v>58268949900</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-26T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5466248194000</v>
+        <v>4975395138400</v>
       </c>
       <c r="L103">
         <v>356472500</v>
@@ -5543,13 +5543,13 @@
         <v>-1158900</v>
       </c>
       <c r="N103">
-        <v>-22481338000</v>
+        <v>-21030690100</v>
       </c>
       <c r="O103">
         <v>-91824400</v>
       </c>
       <c r="P103">
-        <v>-1361785705000</v>
+        <v>-1282238332000</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>21200</v>
       </c>
       <c r="E104">
-        <v>85120884000</v>
+        <v>81613494900</v>
       </c>
       <c r="F104">
-        <v>13335620000</v>
+        <v>12493762700</v>
       </c>
       <c r="G104">
         <v>230344000</v>
@@ -5578,13 +5578,13 @@
         <v>6123600</v>
       </c>
       <c r="I104">
-        <v>98686848000</v>
+        <v>94337601600</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-26T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5564935042000</v>
+        <v>5069732740000</v>
       </c>
       <c r="L104">
         <v>362596100</v>
@@ -5593,13 +5593,13 @@
         <v>-4214000</v>
       </c>
       <c r="N104">
-        <v>-71785264000</v>
+        <v>-69119732200</v>
       </c>
       <c r="O104">
         <v>-96038400</v>
       </c>
       <c r="P104">
-        <v>-1433570969000</v>
+        <v>-1351358064200</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>34600</v>
       </c>
       <c r="E105">
-        <v>119372996000</v>
+        <v>112080795500</v>
       </c>
       <c r="F105">
-        <v>19959635000</v>
+        <v>19169525900</v>
       </c>
       <c r="G105">
-        <v>710634000</v>
+        <v>668576100</v>
       </c>
       <c r="H105">
         <v>8526000</v>
       </c>
       <c r="I105">
-        <v>140043265000</v>
+        <v>131918897500</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-26T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5704978307000</v>
+        <v>5201651637500</v>
       </c>
       <c r="L105">
         <v>371122100</v>
@@ -5643,13 +5643,13 @@
         <v>-6220800</v>
       </c>
       <c r="N105">
-        <v>-99413361000</v>
+        <v>-92911269600</v>
       </c>
       <c r="O105">
         <v>-102259200</v>
       </c>
       <c r="P105">
-        <v>-1532984330000</v>
+        <v>-1444269333800</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>54100</v>
       </c>
       <c r="E106">
-        <v>109093485000</v>
+        <v>97204485900</v>
       </c>
       <c r="F106">
-        <v>25682563000</v>
+        <v>25174971100</v>
       </c>
       <c r="G106">
         <v>1014369000</v>
@@ -5678,13 +5678,13 @@
         <v>9011600</v>
       </c>
       <c r="I106">
-        <v>135790417000</v>
+        <v>123393826000</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-26T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5840768724000</v>
+        <v>5325045463500</v>
       </c>
       <c r="L106">
         <v>380133700</v>
@@ -5693,13 +5693,13 @@
         <v>-5780300</v>
       </c>
       <c r="N106">
-        <v>-83410922000</v>
+        <v>-72029514800</v>
       </c>
       <c r="O106">
         <v>-108039500</v>
       </c>
       <c r="P106">
-        <v>-1616395252000</v>
+        <v>-1516298848600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>7300</v>
       </c>
       <c r="E107">
-        <v>63264575000</v>
+        <v>52218731900</v>
       </c>
       <c r="F107">
-        <v>85968047000</v>
+        <v>79442778800</v>
       </c>
       <c r="G107">
-        <v>229075000</v>
+        <v>227876200</v>
       </c>
       <c r="H107">
         <v>8421600</v>
       </c>
       <c r="I107">
-        <v>149461697000</v>
+        <v>131889386900</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-26T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5990230421000</v>
+        <v>5456934850400</v>
       </c>
       <c r="L107">
         <v>388555300</v>
@@ -5743,13 +5743,13 @@
         <v>718700</v>
       </c>
       <c r="N107">
-        <v>22703472000</v>
+        <v>27224046900</v>
       </c>
       <c r="O107">
         <v>-107320800</v>
       </c>
       <c r="P107">
-        <v>-1593691780000</v>
+        <v>-1489074801700</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>16600</v>
       </c>
       <c r="E108">
-        <v>17718705000</v>
+        <v>15584841000</v>
       </c>
       <c r="F108">
-        <v>79385983000</v>
+        <v>71114762500</v>
       </c>
       <c r="G108">
-        <v>368449000</v>
+        <v>83434300</v>
       </c>
       <c r="H108">
         <v>6298400</v>
       </c>
       <c r="I108">
-        <v>97473137000</v>
+        <v>86783037800</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-26T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>6087703558000</v>
+        <v>5543717888200</v>
       </c>
       <c r="L108">
         <v>394853700</v>
@@ -5793,13 +5793,13 @@
         <v>4240800</v>
       </c>
       <c r="N108">
-        <v>61667278000</v>
+        <v>55529921500</v>
       </c>
       <c r="O108">
         <v>-103080000</v>
       </c>
       <c r="P108">
-        <v>-1532024502000</v>
+        <v>-1433544880200</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>1600</v>
       </c>
       <c r="E109">
-        <v>27169975000</v>
+        <v>24357889900</v>
       </c>
       <c r="F109">
-        <v>28036896000</v>
+        <v>27329703900</v>
       </c>
       <c r="G109">
         <v>41526000</v>
@@ -5828,13 +5828,13 @@
         <v>3717400</v>
       </c>
       <c r="I109">
-        <v>55248397000</v>
+        <v>51729119800</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-26T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>6142951955000</v>
+        <v>5595447008000</v>
       </c>
       <c r="L109">
         <v>398571100</v>
@@ -5843,13 +5843,13 @@
         <v>235400</v>
       </c>
       <c r="N109">
-        <v>866921000</v>
+        <v>2971814000</v>
       </c>
       <c r="O109">
         <v>-102844600</v>
       </c>
       <c r="P109">
-        <v>-1531157581000</v>
+        <v>-1430573066200</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>22400</v>
       </c>
       <c r="E110">
-        <v>53329916000</v>
+        <v>51947100200</v>
       </c>
       <c r="F110">
-        <v>19337050000</v>
+        <v>18557130700</v>
       </c>
       <c r="G110">
         <v>664375000</v>
@@ -5878,13 +5878,13 @@
         <v>4574600</v>
       </c>
       <c r="I110">
-        <v>73331341000</v>
+        <v>71168605900</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-26T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6216283296000</v>
+        <v>5666615613900</v>
       </c>
       <c r="L110">
         <v>403145700</v>
@@ -5893,13 +5893,13 @@
         <v>-2075600</v>
       </c>
       <c r="N110">
-        <v>-33992866000</v>
+        <v>-33389969500</v>
       </c>
       <c r="O110">
         <v>-104920200</v>
       </c>
       <c r="P110">
-        <v>-1565150447000</v>
+        <v>-1463963035700</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>16800</v>
       </c>
       <c r="E111">
-        <v>94665760000</v>
+        <v>90105624700</v>
       </c>
       <c r="F111">
-        <v>19752431000</v>
+        <v>18947636600</v>
       </c>
       <c r="G111">
-        <v>131542000</v>
+        <v>128944600</v>
       </c>
       <c r="H111">
         <v>6881500</v>
       </c>
       <c r="I111">
-        <v>114549733000</v>
+        <v>109182205900</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-26T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6330833029000</v>
+        <v>5775797819800</v>
       </c>
       <c r="L111">
         <v>410027200</v>
@@ -5943,13 +5943,13 @@
         <v>-4210500</v>
       </c>
       <c r="N111">
-        <v>-74913329000</v>
+        <v>-71157988100</v>
       </c>
       <c r="O111">
         <v>-109130700</v>
       </c>
       <c r="P111">
-        <v>-1640063776000</v>
+        <v>-1535121023800</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>91700</v>
       </c>
       <c r="E112">
-        <v>328475018000</v>
+        <v>295560765200</v>
       </c>
       <c r="F112">
-        <v>32370451000</v>
+        <v>31235587000</v>
       </c>
       <c r="G112">
-        <v>1591060000</v>
+        <v>1582668400</v>
       </c>
       <c r="H112">
         <v>23193300</v>
       </c>
       <c r="I112">
-        <v>362436529000</v>
+        <v>328379020600</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-26T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6693269558000</v>
+        <v>6104176840400</v>
       </c>
       <c r="L112">
         <v>433220500</v>
@@ -5993,13 +5993,13 @@
         <v>-19142800</v>
       </c>
       <c r="N112">
-        <v>-296104567000</v>
+        <v>-264325178200</v>
       </c>
       <c r="O112">
         <v>-128273500</v>
       </c>
       <c r="P112">
-        <v>-1936168343000</v>
+        <v>-1799446202000</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>433600</v>
       </c>
       <c r="E113">
-        <v>287103853000</v>
+        <v>229251962800</v>
       </c>
       <c r="F113">
-        <v>85446407000</v>
+        <v>69921347600</v>
       </c>
       <c r="G113">
-        <v>7781095000</v>
+        <v>7724751400</v>
       </c>
       <c r="H113">
         <v>22418600</v>
       </c>
       <c r="I113">
-        <v>380331355000</v>
+        <v>306898061800</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-26T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7073600913000</v>
+        <v>6411074902200</v>
       </c>
       <c r="L113">
         <v>455639100</v>
@@ -6043,13 +6043,13 @@
         <v>-12094800</v>
       </c>
       <c r="N113">
-        <v>-201657446000</v>
+        <v>-159330615200</v>
       </c>
       <c r="O113">
         <v>-140368300</v>
       </c>
       <c r="P113">
-        <v>-2137825789000</v>
+        <v>-1958776817200</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>124500</v>
       </c>
       <c r="E114">
-        <v>184587818000</v>
+        <v>145717327400</v>
       </c>
       <c r="F114">
-        <v>72421327000</v>
+        <v>63579178000</v>
       </c>
       <c r="G114">
-        <v>1886905000</v>
+        <v>1804787200</v>
       </c>
       <c r="H114">
         <v>15487300</v>
       </c>
       <c r="I114">
-        <v>258896050000</v>
+        <v>211101292600</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-26T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7332496963000</v>
+        <v>6622176194800</v>
       </c>
       <c r="L114">
         <v>471126400</v>
@@ -6093,13 +6093,13 @@
         <v>-6990800</v>
       </c>
       <c r="N114">
-        <v>-112166491000</v>
+        <v>-82138149400</v>
       </c>
       <c r="O114">
         <v>-147359100</v>
       </c>
       <c r="P114">
-        <v>-2249992280000</v>
+        <v>-2040914966600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>61100</v>
       </c>
       <c r="E115">
-        <v>93156284000</v>
+        <v>87851793800</v>
       </c>
       <c r="F115">
-        <v>82284804000</v>
+        <v>77604588900</v>
       </c>
       <c r="G115">
         <v>1365795000</v>
@@ -6128,13 +6128,13 @@
         <v>11041300</v>
       </c>
       <c r="I115">
-        <v>176806883000</v>
+        <v>166822177700</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-26T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7509303846000</v>
+        <v>6788998372500</v>
       </c>
       <c r="L115">
         <v>482167700</v>
@@ -6143,13 +6143,13 @@
         <v>-767600</v>
       </c>
       <c r="N115">
-        <v>-10871480000</v>
+        <v>-10247204900</v>
       </c>
       <c r="O115">
         <v>-148126700</v>
       </c>
       <c r="P115">
-        <v>-2260863760000</v>
+        <v>-2051162171500</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2022-12-26T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7510094029000</v>
+        <v>6789788555500</v>
       </c>
       <c r="L116">
         <v>482216500</v>
@@ -6199,7 +6199,7 @@
         <v>-148146900</v>
       </c>
       <c r="P116">
-        <v>-2261064931000</v>
+        <v>-2051363342500</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-26T14:34:00.000Z</v>
       </c>
       <c r="K117">
-        <v>7510109709000</v>
+        <v>6789804235500</v>
       </c>
       <c r="L117">
         <v>482218100</v>
@@ -6249,7 +6249,7 @@
         <v>-148148500</v>
       </c>
       <c r="P117">
-        <v>-2261080611000</v>
+        <v>-2051379022500</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-26T14:38:00.000Z</v>
       </c>
       <c r="K118">
-        <v>7510110699000</v>
+        <v>6789805225500</v>
       </c>
       <c r="L118">
         <v>482218200</v>
@@ -6299,7 +6299,7 @@
         <v>-148148400</v>
       </c>
       <c r="P118">
-        <v>-2261079621000</v>
+        <v>-2051378032500</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>20622900</v>
       </c>
       <c r="E119">
-        <v>221874737000</v>
+        <v>158878995800</v>
       </c>
       <c r="F119">
-        <v>408697814000</v>
+        <v>350965004600</v>
       </c>
       <c r="G119">
-        <v>324279443000</v>
+        <v>318307321100</v>
       </c>
       <c r="H119">
         <v>50967000</v>
       </c>
       <c r="I119">
-        <v>954851994000</v>
+        <v>828151321500</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-26T14:44:00.000Z</v>
       </c>
       <c r="K119">
-        <v>8464962693000</v>
+        <v>7617956547000</v>
       </c>
       <c r="L119">
         <v>533185200</v>
@@ -6343,13 +6343,13 @@
         <v>9112300</v>
       </c>
       <c r="N119">
-        <v>186823077000</v>
+        <v>192086008800</v>
       </c>
       <c r="O119">
         <v>-139036100</v>
       </c>
       <c r="P119">
-        <v>-2074256544000</v>
+        <v>-1859292023700</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-26T14:46:00.000Z</v>
       </c>
       <c r="K120">
-        <v>8465338233000</v>
+        <v>7618332087000</v>
       </c>
       <c r="L120">
         <v>533224200</v>
@@ -6399,7 +6399,7 @@
         <v>-139063700</v>
       </c>
       <c r="P120">
-        <v>-2074522924000</v>
+        <v>-1859558403700</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2022-12-26T14:50:00.000Z</v>
       </c>
       <c r="K121">
-        <v>8465342933000</v>
+        <v>7618336787000</v>
       </c>
       <c r="L121">
         <v>533224700</v>
@@ -6449,7 +6449,7 @@
         <v>-139064200</v>
       </c>
       <c r="P121">
-        <v>-2074527624000</v>
+        <v>-1859563103700</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-26T14:56:00.000Z</v>
       </c>
       <c r="K122">
-        <v>8465348813000</v>
+        <v>7618342667000</v>
       </c>
       <c r="L122">
         <v>533225300</v>
@@ -6499,7 +6499,7 @@
         <v>-139064200</v>
       </c>
       <c r="P122">
-        <v>-2074527624000</v>
+        <v>-1859563103700</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221226/VNINDEX_HOSE_5p_20221226.xlsx
+++ b/name/vnindex/20221226/VNINDEX_HOSE_5p_20221226.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>737289700</v>
       </c>
+      <c r="Q2">
+        <v>23789581200</v>
+      </c>
+      <c r="R2">
+        <v>23052291500</v>
+      </c>
+      <c r="S2">
+        <v>1521300</v>
+      </c>
+      <c r="T2">
+        <v>1685900</v>
+      </c>
+      <c r="U2">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V2">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W2">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X2">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y2">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z2">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA2">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB2">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>109026800</v>
       </c>
+      <c r="Q3">
+        <v>43279622800</v>
+      </c>
+      <c r="R3">
+        <v>43170596000</v>
+      </c>
+      <c r="S3">
+        <v>2920000</v>
+      </c>
+      <c r="T3">
+        <v>3008900</v>
+      </c>
+      <c r="U3">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V3">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W3">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X3">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y3">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z3">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA3">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB3">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>173540500</v>
       </c>
+      <c r="Q4">
+        <v>61207255000</v>
+      </c>
+      <c r="R4">
+        <v>61033714500</v>
+      </c>
+      <c r="S4">
+        <v>4146200</v>
+      </c>
+      <c r="T4">
+        <v>4150000</v>
+      </c>
+      <c r="U4">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V4">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W4">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X4">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y4">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z4">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA4">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB4">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>4294572500</v>
       </c>
+      <c r="Q5">
+        <v>82914896000</v>
+      </c>
+      <c r="R5">
+        <v>78620323500</v>
+      </c>
+      <c r="S5">
+        <v>5454200</v>
+      </c>
+      <c r="T5">
+        <v>5334200</v>
+      </c>
+      <c r="U5">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V5">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W5">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X5">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y5">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z5">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA5">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB5">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC5">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>8443197400</v>
       </c>
+      <c r="Q6">
+        <v>100152365000</v>
+      </c>
+      <c r="R6">
+        <v>91709167600</v>
+      </c>
+      <c r="S6">
+        <v>6747500</v>
+      </c>
+      <c r="T6">
+        <v>6274400</v>
+      </c>
+      <c r="U6">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V6">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W6">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X6">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y6">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z6">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA6">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB6">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC6">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>4192485400</v>
       </c>
+      <c r="Q7">
+        <v>109503519600</v>
+      </c>
+      <c r="R7">
+        <v>105311034200</v>
+      </c>
+      <c r="S7">
+        <v>7360500</v>
+      </c>
+      <c r="T7">
+        <v>7448300</v>
+      </c>
+      <c r="U7">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V7">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W7">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X7">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y7">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z7">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA7">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB7">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC7">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-4075958500</v>
       </c>
+      <c r="Q8">
+        <v>120048337700</v>
+      </c>
+      <c r="R8">
+        <v>124124296200</v>
+      </c>
+      <c r="S8">
+        <v>8043000</v>
+      </c>
+      <c r="T8">
+        <v>8781500</v>
+      </c>
+      <c r="U8">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V8">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W8">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X8">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y8">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z8">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA8">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB8">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-21354501000</v>
       </c>
+      <c r="Q9">
+        <v>130393973800</v>
+      </c>
+      <c r="R9">
+        <v>151748474800</v>
+      </c>
+      <c r="S9">
+        <v>8893800</v>
+      </c>
+      <c r="T9">
+        <v>10673500</v>
+      </c>
+      <c r="U9">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V9">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W9">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X9">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y9">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z9">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA9">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB9">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC9">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-57695301800</v>
       </c>
+      <c r="Q10">
+        <v>139769668600</v>
+      </c>
+      <c r="R10">
+        <v>197464970400</v>
+      </c>
+      <c r="S10">
+        <v>9725700</v>
+      </c>
+      <c r="T10">
+        <v>13895900</v>
+      </c>
+      <c r="U10">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V10">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W10">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X10">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y10">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z10">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA10">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB10">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC10">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-64127662400</v>
       </c>
+      <c r="Q11">
+        <v>161051902000</v>
+      </c>
+      <c r="R11">
+        <v>225179564400</v>
+      </c>
+      <c r="S11">
+        <v>11256200</v>
+      </c>
+      <c r="T11">
+        <v>15964600</v>
+      </c>
+      <c r="U11">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V11">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W11">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X11">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y11">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z11">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA11">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB11">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC11">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-72727726400</v>
       </c>
+      <c r="Q12">
+        <v>174554442100</v>
+      </c>
+      <c r="R12">
+        <v>247282168500</v>
+      </c>
+      <c r="S12">
+        <v>12278600</v>
+      </c>
+      <c r="T12">
+        <v>17629100</v>
+      </c>
+      <c r="U12">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V12">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W12">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X12">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y12">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z12">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA12">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB12">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-77340292000</v>
       </c>
+      <c r="Q13">
+        <v>188251576700</v>
+      </c>
+      <c r="R13">
+        <v>265591868700</v>
+      </c>
+      <c r="S13">
+        <v>13306300</v>
+      </c>
+      <c r="T13">
+        <v>18979300</v>
+      </c>
+      <c r="U13">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V13">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W13">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X13">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y13">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z13">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA13">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB13">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC13">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-84822809700</v>
       </c>
+      <c r="Q14">
+        <v>202771026800</v>
+      </c>
+      <c r="R14">
+        <v>287593836500</v>
+      </c>
+      <c r="S14">
+        <v>14310100</v>
+      </c>
+      <c r="T14">
+        <v>20616900</v>
+      </c>
+      <c r="U14">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V14">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W14">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X14">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y14">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z14">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA14">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB14">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-131806671800</v>
       </c>
+      <c r="Q15">
+        <v>214768500000</v>
+      </c>
+      <c r="R15">
+        <v>346575171800</v>
+      </c>
+      <c r="S15">
+        <v>15286800</v>
+      </c>
+      <c r="T15">
+        <v>24545300</v>
+      </c>
+      <c r="U15">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V15">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W15">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X15">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y15">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z15">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA15">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB15">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC15">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-166652870200</v>
       </c>
+      <c r="Q16">
+        <v>223538620900</v>
+      </c>
+      <c r="R16">
+        <v>390191491100</v>
+      </c>
+      <c r="S16">
+        <v>16092400</v>
+      </c>
+      <c r="T16">
+        <v>27692400</v>
+      </c>
+      <c r="U16">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V16">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W16">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X16">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y16">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z16">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA16">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB16">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC16">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-191665059500</v>
       </c>
+      <c r="Q17">
+        <v>244292961500</v>
+      </c>
+      <c r="R17">
+        <v>435958021000</v>
+      </c>
+      <c r="S17">
+        <v>17528500</v>
+      </c>
+      <c r="T17">
+        <v>30574900</v>
+      </c>
+      <c r="U17">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V17">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W17">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X17">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y17">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z17">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA17">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB17">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC17">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-214160682000</v>
       </c>
+      <c r="Q18">
+        <v>261180437800</v>
+      </c>
+      <c r="R18">
+        <v>475341119800</v>
+      </c>
+      <c r="S18">
+        <v>18649900</v>
+      </c>
+      <c r="T18">
+        <v>33095900</v>
+      </c>
+      <c r="U18">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V18">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W18">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X18">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y18">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z18">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA18">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB18">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-203028526500</v>
       </c>
+      <c r="Q19">
+        <v>287762375600</v>
+      </c>
+      <c r="R19">
+        <v>490790902100</v>
+      </c>
+      <c r="S19">
+        <v>20641700</v>
+      </c>
+      <c r="T19">
+        <v>34227800</v>
+      </c>
+      <c r="U19">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V19">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W19">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X19">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y19">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z19">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA19">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB19">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC19">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-186344435200</v>
       </c>
+      <c r="Q20">
+        <v>318695854500</v>
+      </c>
+      <c r="R20">
+        <v>505040289700</v>
+      </c>
+      <c r="S20">
+        <v>22705900</v>
+      </c>
+      <c r="T20">
+        <v>35136700</v>
+      </c>
+      <c r="U20">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V20">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W20">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X20">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y20">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z20">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA20">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB20">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC20">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-185523073500</v>
       </c>
+      <c r="Q21">
+        <v>340707922600</v>
+      </c>
+      <c r="R21">
+        <v>526230996100</v>
+      </c>
+      <c r="S21">
+        <v>24280600</v>
+      </c>
+      <c r="T21">
+        <v>36338500</v>
+      </c>
+      <c r="U21">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V21">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W21">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X21">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y21">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z21">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA21">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB21">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC21">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-184739966300</v>
       </c>
+      <c r="Q22">
+        <v>356738540300</v>
+      </c>
+      <c r="R22">
+        <v>541478506600</v>
+      </c>
+      <c r="S22">
+        <v>25287600</v>
+      </c>
+      <c r="T22">
+        <v>37586200</v>
+      </c>
+      <c r="U22">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V22">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W22">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X22">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y22">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z22">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA22">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB22">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC22">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-183507712800</v>
       </c>
+      <c r="Q23">
+        <v>368228972000</v>
+      </c>
+      <c r="R23">
+        <v>551736684800</v>
+      </c>
+      <c r="S23">
+        <v>26139800</v>
+      </c>
+      <c r="T23">
+        <v>38225200</v>
+      </c>
+      <c r="U23">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V23">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W23">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X23">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y23">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z23">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA23">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB23">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-185702675700</v>
       </c>
+      <c r="Q24">
+        <v>383246147900</v>
+      </c>
+      <c r="R24">
+        <v>568948823600</v>
+      </c>
+      <c r="S24">
+        <v>27340000</v>
+      </c>
+      <c r="T24">
+        <v>39207000</v>
+      </c>
+      <c r="U24">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V24">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W24">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X24">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y24">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z24">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA24">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB24">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-197855209900</v>
       </c>
+      <c r="Q25">
+        <v>394517924600</v>
+      </c>
+      <c r="R25">
+        <v>592373134500</v>
+      </c>
+      <c r="S25">
+        <v>28162900</v>
+      </c>
+      <c r="T25">
+        <v>40641500</v>
+      </c>
+      <c r="U25">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V25">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W25">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X25">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y25">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z25">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA25">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB25">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC25">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-201367605400</v>
       </c>
+      <c r="Q26">
+        <v>404983597100</v>
+      </c>
+      <c r="R26">
+        <v>606351202500</v>
+      </c>
+      <c r="S26">
+        <v>28812600</v>
+      </c>
+      <c r="T26">
+        <v>41606100</v>
+      </c>
+      <c r="U26">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V26">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W26">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X26">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y26">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z26">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA26">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB26">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC26">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-204118193300</v>
       </c>
+      <c r="Q27">
+        <v>416644545900</v>
+      </c>
+      <c r="R27">
+        <v>620762739200</v>
+      </c>
+      <c r="S27">
+        <v>29503400</v>
+      </c>
+      <c r="T27">
+        <v>42627000</v>
+      </c>
+      <c r="U27">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V27">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W27">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X27">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y27">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z27">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA27">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB27">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC27">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-200512722600</v>
       </c>
+      <c r="Q28">
+        <v>431044777400</v>
+      </c>
+      <c r="R28">
+        <v>631557500000</v>
+      </c>
+      <c r="S28">
+        <v>30361400</v>
+      </c>
+      <c r="T28">
+        <v>43253800</v>
+      </c>
+      <c r="U28">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V28">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W28">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X28">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y28">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z28">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA28">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB28">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-190731144500</v>
       </c>
+      <c r="Q29">
+        <v>450979432500</v>
+      </c>
+      <c r="R29">
+        <v>641710577000</v>
+      </c>
+      <c r="S29">
+        <v>31475500</v>
+      </c>
+      <c r="T29">
+        <v>43882200</v>
+      </c>
+      <c r="U29">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V29">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W29">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X29">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y29">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z29">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA29">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB29">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC29">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-190350591100</v>
       </c>
+      <c r="Q30">
+        <v>467151881200</v>
+      </c>
+      <c r="R30">
+        <v>657502472300</v>
+      </c>
+      <c r="S30">
+        <v>32496800</v>
+      </c>
+      <c r="T30">
+        <v>44777200</v>
+      </c>
+      <c r="U30">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V30">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W30">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X30">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y30">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z30">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA30">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB30">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-203371841100</v>
       </c>
+      <c r="Q31">
+        <v>476958449700</v>
+      </c>
+      <c r="R31">
+        <v>680330290800</v>
+      </c>
+      <c r="S31">
+        <v>33161600</v>
+      </c>
+      <c r="T31">
+        <v>46112000</v>
+      </c>
+      <c r="U31">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V31">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W31">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X31">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y31">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z31">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA31">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB31">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC31">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-209139194700</v>
       </c>
+      <c r="Q32">
+        <v>484225646600</v>
+      </c>
+      <c r="R32">
+        <v>693364841300</v>
+      </c>
+      <c r="S32">
+        <v>33616900</v>
+      </c>
+      <c r="T32">
+        <v>46980100</v>
+      </c>
+      <c r="U32">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V32">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W32">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X32">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y32">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z32">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA32">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB32">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC32">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-227707001900</v>
       </c>
+      <c r="Q33">
+        <v>493282302400</v>
+      </c>
+      <c r="R33">
+        <v>720989304300</v>
+      </c>
+      <c r="S33">
+        <v>34396600</v>
+      </c>
+      <c r="T33">
+        <v>48645300</v>
+      </c>
+      <c r="U33">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V33">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W33">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X33">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y33">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z33">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA33">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB33">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC33">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-251318458900</v>
       </c>
+      <c r="Q34">
+        <v>497613463500</v>
+      </c>
+      <c r="R34">
+        <v>748931922400</v>
+      </c>
+      <c r="S34">
+        <v>34766000</v>
+      </c>
+      <c r="T34">
+        <v>50783400</v>
+      </c>
+      <c r="U34">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V34">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W34">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X34">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y34">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z34">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA34">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB34">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC34">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-264586681500</v>
       </c>
+      <c r="Q35">
+        <v>504696988800</v>
+      </c>
+      <c r="R35">
+        <v>769283670300</v>
+      </c>
+      <c r="S35">
+        <v>35188300</v>
+      </c>
+      <c r="T35">
+        <v>52303600</v>
+      </c>
+      <c r="U35">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V35">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W35">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X35">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y35">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z35">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA35">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB35">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC35">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-293842327600</v>
       </c>
+      <c r="Q36">
+        <v>516071791500</v>
+      </c>
+      <c r="R36">
+        <v>809914119100</v>
+      </c>
+      <c r="S36">
+        <v>35933500</v>
+      </c>
+      <c r="T36">
+        <v>55014700</v>
+      </c>
+      <c r="U36">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V36">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W36">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X36">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y36">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z36">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA36">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB36">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC36">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-340978308500</v>
       </c>
+      <c r="Q37">
+        <v>522433683600</v>
+      </c>
+      <c r="R37">
+        <v>863411992100</v>
+      </c>
+      <c r="S37">
+        <v>36502600</v>
+      </c>
+      <c r="T37">
+        <v>58114400</v>
+      </c>
+      <c r="U37">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V37">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W37">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X37">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y37">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z37">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA37">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB37">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC37">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-358320426700</v>
       </c>
+      <c r="Q38">
+        <v>533642492600</v>
+      </c>
+      <c r="R38">
+        <v>891962919300</v>
+      </c>
+      <c r="S38">
+        <v>37519700</v>
+      </c>
+      <c r="T38">
+        <v>60423500</v>
+      </c>
+      <c r="U38">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V38">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W38">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X38">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y38">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z38">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA38">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB38">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC38">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-374213828300</v>
       </c>
+      <c r="Q39">
+        <v>548304352600</v>
+      </c>
+      <c r="R39">
+        <v>922518180900</v>
+      </c>
+      <c r="S39">
+        <v>38525500</v>
+      </c>
+      <c r="T39">
+        <v>62608300</v>
+      </c>
+      <c r="U39">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V39">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W39">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X39">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y39">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z39">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA39">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB39">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-374823847300</v>
       </c>
+      <c r="Q40">
+        <v>565282328200</v>
+      </c>
+      <c r="R40">
+        <v>940106175500</v>
+      </c>
+      <c r="S40">
+        <v>39757100</v>
+      </c>
+      <c r="T40">
+        <v>63844000</v>
+      </c>
+      <c r="U40">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V40">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W40">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X40">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y40">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z40">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA40">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB40">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-370691572200</v>
       </c>
+      <c r="Q41">
+        <v>577318499800</v>
+      </c>
+      <c r="R41">
+        <v>948010072000</v>
+      </c>
+      <c r="S41">
+        <v>40565300</v>
+      </c>
+      <c r="T41">
+        <v>64545700</v>
+      </c>
+      <c r="U41">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V41">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W41">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X41">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y41">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z41">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA41">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB41">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC41">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-366146222800</v>
       </c>
+      <c r="Q42">
+        <v>589450788200</v>
+      </c>
+      <c r="R42">
+        <v>955597011000</v>
+      </c>
+      <c r="S42">
+        <v>41414300</v>
+      </c>
+      <c r="T42">
+        <v>65054300</v>
+      </c>
+      <c r="U42">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V42">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W42">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X42">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y42">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z42">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA42">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB42">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC42">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-403608831800</v>
       </c>
+      <c r="Q43">
+        <v>600462082400</v>
+      </c>
+      <c r="R43">
+        <v>1004070914200</v>
+      </c>
+      <c r="S43">
+        <v>42167800</v>
+      </c>
+      <c r="T43">
+        <v>68228700</v>
+      </c>
+      <c r="U43">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V43">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W43">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X43">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y43">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z43">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA43">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB43">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC43">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-419665504700</v>
       </c>
+      <c r="Q44">
+        <v>610377481800</v>
+      </c>
+      <c r="R44">
+        <v>1030042986500</v>
+      </c>
+      <c r="S44">
+        <v>42772500</v>
+      </c>
+      <c r="T44">
+        <v>70205300</v>
+      </c>
+      <c r="U44">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V44">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W44">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X44">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y44">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z44">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA44">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB44">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-426298942000</v>
       </c>
+      <c r="Q45">
+        <v>622341097500</v>
+      </c>
+      <c r="R45">
+        <v>1048640039500</v>
+      </c>
+      <c r="S45">
+        <v>43494200</v>
+      </c>
+      <c r="T45">
+        <v>71543400</v>
+      </c>
+      <c r="U45">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V45">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W45">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X45">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y45">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z45">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA45">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB45">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC45">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-430131543500</v>
       </c>
+      <c r="Q46">
+        <v>632243584700</v>
+      </c>
+      <c r="R46">
+        <v>1062375128200</v>
+      </c>
+      <c r="S46">
+        <v>44113900</v>
+      </c>
+      <c r="T46">
+        <v>72470800</v>
+      </c>
+      <c r="U46">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V46">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W46">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X46">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y46">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z46">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA46">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB46">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC46">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-426176359800</v>
       </c>
+      <c r="Q47">
+        <v>644618992700</v>
+      </c>
+      <c r="R47">
+        <v>1070795352500</v>
+      </c>
+      <c r="S47">
+        <v>44873200</v>
+      </c>
+      <c r="T47">
+        <v>73360000</v>
+      </c>
+      <c r="U47">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V47">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W47">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X47">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y47">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z47">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA47">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB47">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC47">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-427463346700</v>
       </c>
+      <c r="Q48">
+        <v>656546856700</v>
+      </c>
+      <c r="R48">
+        <v>1084010203400</v>
+      </c>
+      <c r="S48">
+        <v>45632100</v>
+      </c>
+      <c r="T48">
+        <v>74295300</v>
+      </c>
+      <c r="U48">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V48">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W48">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X48">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y48">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z48">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA48">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB48">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC48">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-417537474500</v>
       </c>
+      <c r="Q49">
+        <v>675825786300</v>
+      </c>
+      <c r="R49">
+        <v>1093363260800</v>
+      </c>
+      <c r="S49">
+        <v>46793300</v>
+      </c>
+      <c r="T49">
+        <v>74935800</v>
+      </c>
+      <c r="U49">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V49">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W49">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X49">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y49">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z49">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA49">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB49">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC49">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-430684375900</v>
       </c>
+      <c r="Q50">
+        <v>682341771400</v>
+      </c>
+      <c r="R50">
+        <v>1113026147300</v>
+      </c>
+      <c r="S50">
+        <v>47315900</v>
+      </c>
+      <c r="T50">
+        <v>76028800</v>
+      </c>
+      <c r="U50">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V50">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W50">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X50">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y50">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z50">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA50">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB50">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC50">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-431302556900</v>
       </c>
+      <c r="Q51">
+        <v>696709256100</v>
+      </c>
+      <c r="R51">
+        <v>1128011813000</v>
+      </c>
+      <c r="S51">
+        <v>48084300</v>
+      </c>
+      <c r="T51">
+        <v>76944200</v>
+      </c>
+      <c r="U51">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V51">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W51">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X51">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y51">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z51">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA51">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB51">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-436065134200</v>
       </c>
+      <c r="Q52">
+        <v>703836457100</v>
+      </c>
+      <c r="R52">
+        <v>1139901591300</v>
+      </c>
+      <c r="S52">
+        <v>48562400</v>
+      </c>
+      <c r="T52">
+        <v>77865600</v>
+      </c>
+      <c r="U52">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V52">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W52">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X52">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y52">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z52">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA52">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB52">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC52">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-434477428700</v>
       </c>
+      <c r="Q53">
+        <v>716844592900</v>
+      </c>
+      <c r="R53">
+        <v>1151322021600</v>
+      </c>
+      <c r="S53">
+        <v>49351600</v>
+      </c>
+      <c r="T53">
+        <v>78791400</v>
+      </c>
+      <c r="U53">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V53">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W53">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X53">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y53">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z53">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA53">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB53">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC53">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-431958219100</v>
       </c>
+      <c r="Q54">
+        <v>727548831500</v>
+      </c>
+      <c r="R54">
+        <v>1159507050600</v>
+      </c>
+      <c r="S54">
+        <v>50296700</v>
+      </c>
+      <c r="T54">
+        <v>79388000</v>
+      </c>
+      <c r="U54">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V54">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W54">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X54">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y54">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z54">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA54">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB54">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC54">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-427302301700</v>
       </c>
+      <c r="Q55">
+        <v>740073274000</v>
+      </c>
+      <c r="R55">
+        <v>1167375575700</v>
+      </c>
+      <c r="S55">
+        <v>51329700</v>
+      </c>
+      <c r="T55">
+        <v>79996800</v>
+      </c>
+      <c r="U55">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V55">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W55">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X55">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y55">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z55">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA55">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB55">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC55">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-428786548700</v>
       </c>
+      <c r="Q56">
+        <v>749763314700</v>
+      </c>
+      <c r="R56">
+        <v>1178549863400</v>
+      </c>
+      <c r="S56">
+        <v>52043200</v>
+      </c>
+      <c r="T56">
+        <v>80767600</v>
+      </c>
+      <c r="U56">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V56">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W56">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X56">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y56">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z56">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA56">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB56">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC56">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-429939240700</v>
       </c>
+      <c r="Q57">
+        <v>758446233900</v>
+      </c>
+      <c r="R57">
+        <v>1188385474600</v>
+      </c>
+      <c r="S57">
+        <v>52801500</v>
+      </c>
+      <c r="T57">
+        <v>81433100</v>
+      </c>
+      <c r="U57">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V57">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W57">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X57">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y57">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z57">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA57">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB57">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC57">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-445135440300</v>
       </c>
+      <c r="Q58">
+        <v>762514799500</v>
+      </c>
+      <c r="R58">
+        <v>1207650239800</v>
+      </c>
+      <c r="S58">
+        <v>53182600</v>
+      </c>
+      <c r="T58">
+        <v>82648300</v>
+      </c>
+      <c r="U58">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V58">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W58">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X58">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y58">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z58">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA58">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB58">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-463982067000</v>
       </c>
+      <c r="Q59">
+        <v>769225579200</v>
+      </c>
+      <c r="R59">
+        <v>1233207646200</v>
+      </c>
+      <c r="S59">
+        <v>53604100</v>
+      </c>
+      <c r="T59">
+        <v>84228500</v>
+      </c>
+      <c r="U59">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V59">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W59">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X59">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y59">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z59">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA59">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB59">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC59">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-481981358300</v>
       </c>
+      <c r="Q60">
+        <v>774963720000</v>
+      </c>
+      <c r="R60">
+        <v>1256945078300</v>
+      </c>
+      <c r="S60">
+        <v>54055600</v>
+      </c>
+      <c r="T60">
+        <v>85442300</v>
+      </c>
+      <c r="U60">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V60">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W60">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X60">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y60">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z60">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA60">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB60">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC60">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-493965878400</v>
       </c>
+      <c r="Q61">
+        <v>780501878600</v>
+      </c>
+      <c r="R61">
+        <v>1274467757000</v>
+      </c>
+      <c r="S61">
+        <v>54560700</v>
+      </c>
+      <c r="T61">
+        <v>86482900</v>
+      </c>
+      <c r="U61">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V61">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W61">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X61">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y61">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z61">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA61">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB61">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC61">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-507943707300</v>
       </c>
+      <c r="Q62">
+        <v>787885150100</v>
+      </c>
+      <c r="R62">
+        <v>1295828857400</v>
+      </c>
+      <c r="S62">
+        <v>55147400</v>
+      </c>
+      <c r="T62">
+        <v>87911100</v>
+      </c>
+      <c r="U62">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V62">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W62">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X62">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y62">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z62">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA62">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB62">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC62">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-516466095600</v>
       </c>
+      <c r="Q63">
+        <v>796800901900</v>
+      </c>
+      <c r="R63">
+        <v>1313266997500</v>
+      </c>
+      <c r="S63">
+        <v>55701600</v>
+      </c>
+      <c r="T63">
+        <v>89015900</v>
+      </c>
+      <c r="U63">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V63">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W63">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X63">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y63">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z63">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA63">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB63">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC63">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-523591161200</v>
       </c>
+      <c r="Q64">
+        <v>803570759600</v>
+      </c>
+      <c r="R64">
+        <v>1327161920800</v>
+      </c>
+      <c r="S64">
+        <v>56107100</v>
+      </c>
+      <c r="T64">
+        <v>89953100</v>
+      </c>
+      <c r="U64">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V64">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W64">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X64">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y64">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z64">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA64">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB64">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC64">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-540846387300</v>
       </c>
+      <c r="Q65">
+        <v>808950709200</v>
+      </c>
+      <c r="R65">
+        <v>1349797096500</v>
+      </c>
+      <c r="S65">
+        <v>56523900</v>
+      </c>
+      <c r="T65">
+        <v>91670000</v>
+      </c>
+      <c r="U65">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V65">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W65">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X65">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y65">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z65">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA65">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB65">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC65">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-568625983500</v>
       </c>
+      <c r="Q66">
+        <v>815751132100</v>
+      </c>
+      <c r="R66">
+        <v>1384377115600</v>
+      </c>
+      <c r="S66">
+        <v>56922400</v>
+      </c>
+      <c r="T66">
+        <v>93903600</v>
+      </c>
+      <c r="U66">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V66">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W66">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X66">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y66">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z66">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA66">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB66">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC66">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-622225853200</v>
       </c>
+      <c r="Q67">
+        <v>824406655200</v>
+      </c>
+      <c r="R67">
+        <v>1446632508400</v>
+      </c>
+      <c r="S67">
+        <v>57331100</v>
+      </c>
+      <c r="T67">
+        <v>98244900</v>
+      </c>
+      <c r="U67">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V67">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W67">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X67">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y67">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z67">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA67">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB67">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC67">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-700865709200</v>
       </c>
+      <c r="Q68">
+        <v>840024388600</v>
+      </c>
+      <c r="R68">
+        <v>1540890097800</v>
+      </c>
+      <c r="S68">
+        <v>58259500</v>
+      </c>
+      <c r="T68">
+        <v>106025400</v>
+      </c>
+      <c r="U68">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V68">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W68">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X68">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y68">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z68">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA68">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB68">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC68">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-798245000800</v>
       </c>
+      <c r="Q69">
+        <v>853623739700</v>
+      </c>
+      <c r="R69">
+        <v>1651868740500</v>
+      </c>
+      <c r="S69">
+        <v>59611200</v>
+      </c>
+      <c r="T69">
+        <v>114725700</v>
+      </c>
+      <c r="U69">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V69">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W69">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X69">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y69">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z69">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA69">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB69">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC69">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-798525185200</v>
       </c>
+      <c r="Q70">
+        <v>853867035300</v>
+      </c>
+      <c r="R70">
+        <v>1652392220500</v>
+      </c>
+      <c r="S70">
+        <v>59630700</v>
+      </c>
+      <c r="T70">
+        <v>114761000</v>
+      </c>
+      <c r="U70">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V70">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W70">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X70">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y70">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z70">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA70">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB70">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-821876873600</v>
       </c>
+      <c r="Q71">
+        <v>944372438900</v>
+      </c>
+      <c r="R71">
+        <v>1766249312500</v>
+      </c>
+      <c r="S71">
+        <v>66652200</v>
+      </c>
+      <c r="T71">
+        <v>125916300</v>
+      </c>
+      <c r="U71">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V71">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W71">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X71">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y71">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z71">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA71">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB71">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC71">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-829875441700</v>
       </c>
+      <c r="Q72">
+        <v>983536222800</v>
+      </c>
+      <c r="R72">
+        <v>1813411664500</v>
+      </c>
+      <c r="S72">
+        <v>69610300</v>
+      </c>
+      <c r="T72">
+        <v>130498700</v>
+      </c>
+      <c r="U72">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V72">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W72">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X72">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y72">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z72">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA72">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB72">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC72">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-841188714800</v>
       </c>
+      <c r="Q73">
+        <v>1002092373600</v>
+      </c>
+      <c r="R73">
+        <v>1843281088400</v>
+      </c>
+      <c r="S73">
+        <v>71534100</v>
+      </c>
+      <c r="T73">
+        <v>132659100</v>
+      </c>
+      <c r="U73">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V73">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W73">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X73">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y73">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z73">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB73">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC73">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-879970787700</v>
       </c>
+      <c r="Q74">
+        <v>1031344255000</v>
+      </c>
+      <c r="R74">
+        <v>1911315042700</v>
+      </c>
+      <c r="S74">
+        <v>73447100</v>
+      </c>
+      <c r="T74">
+        <v>137699500</v>
+      </c>
+      <c r="U74">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V74">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W74">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X74">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y74">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z74">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA74">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB74">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC74">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-877827280900</v>
       </c>
+      <c r="Q75">
+        <v>1062825035800</v>
+      </c>
+      <c r="R75">
+        <v>1940652316700</v>
+      </c>
+      <c r="S75">
+        <v>75794100</v>
+      </c>
+      <c r="T75">
+        <v>140258600</v>
+      </c>
+      <c r="U75">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V75">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W75">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X75">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y75">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z75">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA75">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB75">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC75">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-864437846100</v>
       </c>
+      <c r="Q76">
+        <v>1096618601400</v>
+      </c>
+      <c r="R76">
+        <v>1961056447500</v>
+      </c>
+      <c r="S76">
+        <v>78518500</v>
+      </c>
+      <c r="T76">
+        <v>142277200</v>
+      </c>
+      <c r="U76">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V76">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W76">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X76">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y76">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z76">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA76">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB76">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC76">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-881653805100</v>
       </c>
+      <c r="Q77">
+        <v>1115735740900</v>
+      </c>
+      <c r="R77">
+        <v>1997389546000</v>
+      </c>
+      <c r="S77">
+        <v>80314700</v>
+      </c>
+      <c r="T77">
+        <v>145057500</v>
+      </c>
+      <c r="U77">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V77">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W77">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X77">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y77">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z77">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA77">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB77">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC77">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-912613815500</v>
       </c>
+      <c r="Q78">
+        <v>1137107097000</v>
+      </c>
+      <c r="R78">
+        <v>2049720912500</v>
+      </c>
+      <c r="S78">
+        <v>81860900</v>
+      </c>
+      <c r="T78">
+        <v>149041900</v>
+      </c>
+      <c r="U78">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V78">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W78">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X78">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y78">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z78">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA78">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB78">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-922966964200</v>
       </c>
+      <c r="Q79">
+        <v>1153863240500</v>
+      </c>
+      <c r="R79">
+        <v>2076830204700</v>
+      </c>
+      <c r="S79">
+        <v>83235100</v>
+      </c>
+      <c r="T79">
+        <v>151230600</v>
+      </c>
+      <c r="U79">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V79">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W79">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X79">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y79">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z79">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA79">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB79">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC79">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-902235874000</v>
       </c>
+      <c r="Q80">
+        <v>1194422381600</v>
+      </c>
+      <c r="R80">
+        <v>2096658255600</v>
+      </c>
+      <c r="S80">
+        <v>85782500</v>
+      </c>
+      <c r="T80">
+        <v>152876000</v>
+      </c>
+      <c r="U80">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V80">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W80">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X80">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y80">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z80">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA80">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB80">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-907886132300</v>
       </c>
+      <c r="Q81">
+        <v>1214801670000</v>
+      </c>
+      <c r="R81">
+        <v>2122687802300</v>
+      </c>
+      <c r="S81">
+        <v>87571000</v>
+      </c>
+      <c r="T81">
+        <v>154558700</v>
+      </c>
+      <c r="U81">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V81">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W81">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X81">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y81">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z81">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA81">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB81">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC81">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-928768502400</v>
       </c>
+      <c r="Q82">
+        <v>1231216445100</v>
+      </c>
+      <c r="R82">
+        <v>2159984947500</v>
+      </c>
+      <c r="S82">
+        <v>88914600</v>
+      </c>
+      <c r="T82">
+        <v>157239200</v>
+      </c>
+      <c r="U82">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V82">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W82">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X82">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y82">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z82">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA82">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB82">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-950080437000</v>
       </c>
+      <c r="Q83">
+        <v>1254194026700</v>
+      </c>
+      <c r="R83">
+        <v>2204274463700</v>
+      </c>
+      <c r="S83">
+        <v>90611000</v>
+      </c>
+      <c r="T83">
+        <v>161256100</v>
+      </c>
+      <c r="U83">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V83">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W83">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X83">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y83">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z83">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA83">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB83">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC83">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-982735247600</v>
       </c>
+      <c r="Q84">
+        <v>1280665978500</v>
+      </c>
+      <c r="R84">
+        <v>2263401226100</v>
+      </c>
+      <c r="S84">
+        <v>92804300</v>
+      </c>
+      <c r="T84">
+        <v>165840700</v>
+      </c>
+      <c r="U84">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V84">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W84">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X84">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y84">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z84">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA84">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB84">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC84">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-1029446577200</v>
       </c>
+      <c r="Q85">
+        <v>1300184535600</v>
+      </c>
+      <c r="R85">
+        <v>2329631112800</v>
+      </c>
+      <c r="S85">
+        <v>94556100</v>
+      </c>
+      <c r="T85">
+        <v>170945100</v>
+      </c>
+      <c r="U85">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V85">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W85">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X85">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y85">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z85">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA85">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB85">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC85">
+        <v>3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-1099672082400</v>
       </c>
+      <c r="Q86">
+        <v>1322791482400</v>
+      </c>
+      <c r="R86">
+        <v>2422463564800</v>
+      </c>
+      <c r="S86">
+        <v>96090600</v>
+      </c>
+      <c r="T86">
+        <v>177888500</v>
+      </c>
+      <c r="U86">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V86">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W86">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X86">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y86">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z86">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA86">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB86">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC86">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-1170359449400</v>
       </c>
+      <c r="Q87">
+        <v>1345072433400</v>
+      </c>
+      <c r="R87">
+        <v>2515431882800</v>
+      </c>
+      <c r="S87">
+        <v>97773300</v>
+      </c>
+      <c r="T87">
+        <v>184464500</v>
+      </c>
+      <c r="U87">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V87">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W87">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X87">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y87">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z87">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA87">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB87">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC87">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-1229374456300</v>
       </c>
+      <c r="Q88">
+        <v>1380327764000</v>
+      </c>
+      <c r="R88">
+        <v>2609702220300</v>
+      </c>
+      <c r="S88">
+        <v>100048100</v>
+      </c>
+      <c r="T88">
+        <v>191633700</v>
+      </c>
+      <c r="U88">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V88">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W88">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X88">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y88">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z88">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA88">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB88">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC88">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-1214040936700</v>
       </c>
+      <c r="Q89">
+        <v>1429036235400</v>
+      </c>
+      <c r="R89">
+        <v>2643077172100</v>
+      </c>
+      <c r="S89">
+        <v>103195900</v>
+      </c>
+      <c r="T89">
+        <v>193704400</v>
+      </c>
+      <c r="U89">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V89">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W89">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X89">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y89">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z89">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA89">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB89">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-1181716931100</v>
       </c>
+      <c r="Q90">
+        <v>1480144053700</v>
+      </c>
+      <c r="R90">
+        <v>2661860984800</v>
+      </c>
+      <c r="S90">
+        <v>106914000</v>
+      </c>
+      <c r="T90">
+        <v>194976700</v>
+      </c>
+      <c r="U90">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V90">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W90">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X90">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y90">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z90">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA90">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB90">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC90">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-1157800637300</v>
       </c>
+      <c r="Q91">
+        <v>1521454751800</v>
+      </c>
+      <c r="R91">
+        <v>2679255389100</v>
+      </c>
+      <c r="S91">
+        <v>110122600</v>
+      </c>
+      <c r="T91">
+        <v>196128300</v>
+      </c>
+      <c r="U91">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V91">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W91">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X91">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y91">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z91">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA91">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB91">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-1138168324000</v>
       </c>
+      <c r="Q92">
+        <v>1556098481400</v>
+      </c>
+      <c r="R92">
+        <v>2694266805400</v>
+      </c>
+      <c r="S92">
+        <v>112978200</v>
+      </c>
+      <c r="T92">
+        <v>197272400</v>
+      </c>
+      <c r="U92">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V92">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W92">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X92">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y92">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z92">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA92">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB92">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC92">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-1141430415900</v>
       </c>
+      <c r="Q93">
+        <v>1575096501700</v>
+      </c>
+      <c r="R93">
+        <v>2716526917600</v>
+      </c>
+      <c r="S93">
+        <v>114557000</v>
+      </c>
+      <c r="T93">
+        <v>198926900</v>
+      </c>
+      <c r="U93">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V93">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W93">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X93">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y93">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z93">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA93">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB93">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC93">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-1177262379200</v>
       </c>
+      <c r="Q94">
+        <v>1587191778700</v>
+      </c>
+      <c r="R94">
+        <v>2764454157900</v>
+      </c>
+      <c r="S94">
+        <v>115506600</v>
+      </c>
+      <c r="T94">
+        <v>202038000</v>
+      </c>
+      <c r="U94">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V94">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W94">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X94">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y94">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z94">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA94">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB94">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC94">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-1250943456700</v>
       </c>
+      <c r="Q95">
+        <v>1604678354300</v>
+      </c>
+      <c r="R95">
+        <v>2855621811000</v>
+      </c>
+      <c r="S95">
+        <v>116622200</v>
+      </c>
+      <c r="T95">
+        <v>207148400</v>
+      </c>
+      <c r="U95">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V95">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W95">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X95">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y95">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z95">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA95">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB95">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC95">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-1289786356200</v>
       </c>
+      <c r="Q96">
+        <v>1625424561000</v>
+      </c>
+      <c r="R96">
+        <v>2915210917200</v>
+      </c>
+      <c r="S96">
+        <v>117893300</v>
+      </c>
+      <c r="T96">
+        <v>210984200</v>
+      </c>
+      <c r="U96">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V96">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W96">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X96">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y96">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z96">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA96">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB96">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC96">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-1309571785800</v>
       </c>
+      <c r="Q97">
+        <v>1652781214800</v>
+      </c>
+      <c r="R97">
+        <v>2962353000600</v>
+      </c>
+      <c r="S97">
+        <v>119583600</v>
+      </c>
+      <c r="T97">
+        <v>213600600</v>
+      </c>
+      <c r="U97">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V97">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W97">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X97">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y97">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z97">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA97">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB97">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-1307409714000</v>
       </c>
+      <c r="Q98">
+        <v>1685098343700</v>
+      </c>
+      <c r="R98">
+        <v>2992508057700</v>
+      </c>
+      <c r="S98">
+        <v>121611900</v>
+      </c>
+      <c r="T98">
+        <v>215529000</v>
+      </c>
+      <c r="U98">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V98">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W98">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X98">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y98">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z98">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA98">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB98">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC98">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-1283870734000</v>
       </c>
+      <c r="Q99">
+        <v>1729250293200</v>
+      </c>
+      <c r="R99">
+        <v>3013121027200</v>
+      </c>
+      <c r="S99">
+        <v>124458400</v>
+      </c>
+      <c r="T99">
+        <v>216689400</v>
+      </c>
+      <c r="U99">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V99">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W99">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X99">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y99">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z99">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA99">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB99">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC99">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-1272313647700</v>
       </c>
+      <c r="Q100">
+        <v>1756034676900</v>
+      </c>
+      <c r="R100">
+        <v>3028348324600</v>
+      </c>
+      <c r="S100">
+        <v>126146500</v>
+      </c>
+      <c r="T100">
+        <v>217578300</v>
+      </c>
+      <c r="U100">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V100">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W100">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X100">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y100">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z100">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA100">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB100">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC100">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-1263612806400</v>
       </c>
+      <c r="Q101">
+        <v>1779909588600</v>
+      </c>
+      <c r="R101">
+        <v>3043522395000</v>
+      </c>
+      <c r="S101">
+        <v>127682600</v>
+      </c>
+      <c r="T101">
+        <v>218695700</v>
+      </c>
+      <c r="U101">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V101">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W101">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X101">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y101">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z101">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA101">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB101">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC101">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-1261207641900</v>
       </c>
+      <c r="Q102">
+        <v>1804157181000</v>
+      </c>
+      <c r="R102">
+        <v>3065364822900</v>
+      </c>
+      <c r="S102">
+        <v>129400300</v>
+      </c>
+      <c r="T102">
+        <v>220065800</v>
+      </c>
+      <c r="U102">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V102">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W102">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X102">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y102">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z102">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA102">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB102">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC102">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-1282238332000</v>
       </c>
+      <c r="Q103">
+        <v>1822718899400</v>
+      </c>
+      <c r="R103">
+        <v>3104957231400</v>
+      </c>
+      <c r="S103">
+        <v>130531700</v>
+      </c>
+      <c r="T103">
+        <v>222356100</v>
+      </c>
+      <c r="U103">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V103">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W103">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X103">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y103">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z103">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA103">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB103">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC103">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-1351358064200</v>
       </c>
+      <c r="Q104">
+        <v>1835212662100</v>
+      </c>
+      <c r="R104">
+        <v>3186570726300</v>
+      </c>
+      <c r="S104">
+        <v>131475900</v>
+      </c>
+      <c r="T104">
+        <v>227514300</v>
+      </c>
+      <c r="U104">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V104">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W104">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X104">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y104">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z104">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA104">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB104">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC104">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-1444269333800</v>
       </c>
+      <c r="Q105">
+        <v>1854382188000</v>
+      </c>
+      <c r="R105">
+        <v>3298651521800</v>
+      </c>
+      <c r="S105">
+        <v>132611200</v>
+      </c>
+      <c r="T105">
+        <v>234870400</v>
+      </c>
+      <c r="U105">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V105">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W105">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X105">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y105">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z105">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA105">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB105">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC105">
+        <v>6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-1516298848600</v>
       </c>
+      <c r="Q106">
+        <v>1879557159100</v>
+      </c>
+      <c r="R106">
+        <v>3395856007700</v>
+      </c>
+      <c r="S106">
+        <v>134199800</v>
+      </c>
+      <c r="T106">
+        <v>242239300</v>
+      </c>
+      <c r="U106">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V106">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W106">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X106">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y106">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z106">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA106">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB106">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC106">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-1489074801700</v>
       </c>
+      <c r="Q107">
+        <v>1958999937900</v>
+      </c>
+      <c r="R107">
+        <v>3448074739600</v>
+      </c>
+      <c r="S107">
+        <v>138766300</v>
+      </c>
+      <c r="T107">
+        <v>246087100</v>
+      </c>
+      <c r="U107">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V107">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W107">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X107">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y107">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z107">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB107">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC107">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-1433544880200</v>
       </c>
+      <c r="Q108">
+        <v>2030114700400</v>
+      </c>
+      <c r="R108">
+        <v>3463659580600</v>
+      </c>
+      <c r="S108">
+        <v>144027600</v>
+      </c>
+      <c r="T108">
+        <v>247107600</v>
+      </c>
+      <c r="U108">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V108">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W108">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X108">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y108">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z108">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA108">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB108">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC108">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-1430573066200</v>
       </c>
+      <c r="Q109">
+        <v>2057444404300</v>
+      </c>
+      <c r="R109">
+        <v>3488017470500</v>
+      </c>
+      <c r="S109">
+        <v>146003200</v>
+      </c>
+      <c r="T109">
+        <v>248847800</v>
+      </c>
+      <c r="U109">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V109">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W109">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X109">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y109">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z109">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA109">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB109">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC109">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-1463963035700</v>
       </c>
+      <c r="Q110">
+        <v>2076001535000</v>
+      </c>
+      <c r="R110">
+        <v>3539964570700</v>
+      </c>
+      <c r="S110">
+        <v>147241500</v>
+      </c>
+      <c r="T110">
+        <v>252161700</v>
+      </c>
+      <c r="U110">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V110">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W110">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X110">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y110">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z110">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA110">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB110">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC110">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-1535121023800</v>
       </c>
+      <c r="Q111">
+        <v>2094949171600</v>
+      </c>
+      <c r="R111">
+        <v>3630070195400</v>
+      </c>
+      <c r="S111">
+        <v>148568600</v>
+      </c>
+      <c r="T111">
+        <v>257699300</v>
+      </c>
+      <c r="U111">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V111">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W111">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X111">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y111">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z111">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA111">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB111">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC111">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-1799446202000</v>
       </c>
+      <c r="Q112">
+        <v>2126184758600</v>
+      </c>
+      <c r="R112">
+        <v>3925630960600</v>
+      </c>
+      <c r="S112">
+        <v>150548000</v>
+      </c>
+      <c r="T112">
+        <v>278821500</v>
+      </c>
+      <c r="U112">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V112">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W112">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X112">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y112">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z112">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA112">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB112">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC112">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-1958776817200</v>
       </c>
+      <c r="Q113">
+        <v>2196106106200</v>
+      </c>
+      <c r="R113">
+        <v>4154882923400</v>
+      </c>
+      <c r="S113">
+        <v>155493100</v>
+      </c>
+      <c r="T113">
+        <v>295861400</v>
+      </c>
+      <c r="U113">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V113">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W113">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X113">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y113">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z113">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA113">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB113">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC113">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-2040914966600</v>
       </c>
+      <c r="Q114">
+        <v>2259685284200</v>
+      </c>
+      <c r="R114">
+        <v>4300600250800</v>
+      </c>
+      <c r="S114">
+        <v>159679100</v>
+      </c>
+      <c r="T114">
+        <v>307038200</v>
+      </c>
+      <c r="U114">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V114">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W114">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X114">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y114">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z114">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA114">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB114">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC114">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-2051162171500</v>
       </c>
+      <c r="Q115">
+        <v>2337289873100</v>
+      </c>
+      <c r="R115">
+        <v>4388452044600</v>
+      </c>
+      <c r="S115">
+        <v>164785400</v>
+      </c>
+      <c r="T115">
+        <v>312912100</v>
+      </c>
+      <c r="U115">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V115">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W115">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X115">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y115">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z115">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA115">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB115">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC115">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-2051363342500</v>
       </c>
+      <c r="Q116">
+        <v>2337584379100</v>
+      </c>
+      <c r="R116">
+        <v>4388947721600</v>
+      </c>
+      <c r="S116">
+        <v>164799700</v>
+      </c>
+      <c r="T116">
+        <v>312946600</v>
+      </c>
+      <c r="U116">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V116">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W116">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X116">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y116">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z116">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA116">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB116">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-2051379022500</v>
       </c>
+      <c r="Q117">
+        <v>2337584379100</v>
+      </c>
+      <c r="R117">
+        <v>4388963401600</v>
+      </c>
+      <c r="S117">
+        <v>164799700</v>
+      </c>
+      <c r="T117">
+        <v>312948200</v>
+      </c>
+      <c r="U117">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V117">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W117">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X117">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y117">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z117">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA117">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB117">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-2051378032500</v>
       </c>
+      <c r="Q118">
+        <v>2337585369100</v>
+      </c>
+      <c r="R118">
+        <v>4388963401600</v>
+      </c>
+      <c r="S118">
+        <v>164799800</v>
+      </c>
+      <c r="T118">
+        <v>312948200</v>
+      </c>
+      <c r="U118">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V118">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W118">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X118">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y118">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z118">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA118">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB118">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-1859292023700</v>
       </c>
+      <c r="Q119">
+        <v>2688550373700</v>
+      </c>
+      <c r="R119">
+        <v>4547842397400</v>
+      </c>
+      <c r="S119">
+        <v>184528000</v>
+      </c>
+      <c r="T119">
+        <v>323564100</v>
+      </c>
+      <c r="U119">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V119">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W119">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X119">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y119">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z119">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA119">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB119">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC119">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-1859558403700</v>
       </c>
+      <c r="Q120">
+        <v>2688604953700</v>
+      </c>
+      <c r="R120">
+        <v>4548163357400</v>
+      </c>
+      <c r="S120">
+        <v>184533700</v>
+      </c>
+      <c r="T120">
+        <v>323597400</v>
+      </c>
+      <c r="U120">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V120">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W120">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X120">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y120">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z120">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA120">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB120">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-1859563103700</v>
       </c>
+      <c r="Q121">
+        <v>2688604953700</v>
+      </c>
+      <c r="R121">
+        <v>4548168057400</v>
+      </c>
+      <c r="S121">
+        <v>184533700</v>
+      </c>
+      <c r="T121">
+        <v>323597900</v>
+      </c>
+      <c r="U121">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V121">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W121">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X121">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y121">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z121">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA121">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB121">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,10 +11220,49 @@
       <c r="P122">
         <v>-1859563103700</v>
       </c>
+      <c r="Q122">
+        <v>2688604953700</v>
+      </c>
+      <c r="R122">
+        <v>4548168057400</v>
+      </c>
+      <c r="S122">
+        <v>184533700</v>
+      </c>
+      <c r="T122">
+        <v>323597900</v>
+      </c>
+      <c r="U122">
+        <v>22219875650.4</v>
+      </c>
+      <c r="V122">
+        <v>37588165763.6</v>
+      </c>
+      <c r="W122">
+        <v>62961509644.6</v>
+      </c>
+      <c r="X122">
+        <v>4406820.7</v>
+      </c>
+      <c r="Y122">
+        <v>1525071.9</v>
+      </c>
+      <c r="Z122">
+        <v>2674362.8</v>
+      </c>
+      <c r="AA122">
+        <v>-1149290.9</v>
+      </c>
+      <c r="AB122">
+        <v>-15368290113.2</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC122"/>
   </ignoredErrors>
 </worksheet>
 </file>